--- a/app/libfiles/ZEs标准IO_CMM103.xlsx
+++ b/app/libfiles/ZEs标准IO_CMM103.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="14805" windowHeight="7380" tabRatio="866" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="14805" windowHeight="7380" tabRatio="866" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="机器信息" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="538">
   <si>
     <t>Temperature Input(温度输入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2177,6 +2177,13 @@
   </si>
   <si>
     <t>CMM102改CMM103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heater zone 7</t>
+  </si>
+  <si>
+    <t>加热七区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2421,7 +2428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2484,9 +2491,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2527,6 +2531,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2534,26 +2544,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2570,6 +2563,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5079,7 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -5299,7 +5309,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5312,12 +5322,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="19" t="s">
         <v>450</v>
       </c>
@@ -5369,12 +5379,12 @@
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="25" t="s">
@@ -5401,12 +5411,12 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:15" ht="15">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="27" t="s">
         <v>242</v>
       </c>
@@ -5454,12 +5464,12 @@
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:15" ht="15">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="25" t="s">
@@ -5470,12 +5480,12 @@
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:15" ht="15">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="25" t="s">
@@ -5518,12 +5528,12 @@
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5543,21 +5553,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E815"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E182" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A215" sqref="A215:D215"/>
+      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.125" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="48" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="38" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="47" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="9" style="49"/>
+    <col min="5" max="5" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5567,7 +5577,7 @@
       <c r="B1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -5579,33 +5589,33 @@
         <v>530</v>
       </c>
       <c r="B2" s="32"/>
-      <c r="C2" s="41"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="13.5">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="42"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="62" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
@@ -5614,18 +5624,18 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="62" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
@@ -5634,18 +5644,18 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -5654,8 +5664,8 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
@@ -5663,17 +5673,17 @@
         <v>17</v>
       </c>
       <c r="B11" s="33"/>
-      <c r="C11" s="42"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="62" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
@@ -5682,18 +5692,18 @@
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
@@ -5702,18 +5712,18 @@
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="67" t="s">
         <v>425</v>
       </c>
       <c r="D16" s="4"/>
@@ -5722,8 +5732,8 @@
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:5">
@@ -5731,39 +5741,39 @@
         <v>18</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="42"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="62" t="s">
         <v>424</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="50"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="51"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="62" t="s">
         <v>421</v>
       </c>
       <c r="D21" s="4"/>
@@ -5772,18 +5782,18 @@
       <c r="A22" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>516</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="62" t="s">
         <v>517</v>
       </c>
       <c r="D23" s="4"/>
@@ -5792,8 +5802,8 @@
       <c r="A24" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5">
@@ -5801,49 +5811,49 @@
         <v>519</v>
       </c>
       <c r="B25" s="33"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -5852,24 +5862,24 @@
       <c r="A31" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="13.5">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="33"/>
-      <c r="C33" s="42"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
@@ -5879,7 +5889,7 @@
       <c r="B34" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>201</v>
       </c>
       <c r="D34" s="7"/>
@@ -5888,10 +5898,10 @@
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="72" t="s">
         <v>418</v>
       </c>
       <c r="D35" s="4"/>
@@ -5900,8 +5910,8 @@
       <c r="A36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4">
@@ -5911,7 +5921,7 @@
       <c r="B37" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="4"/>
@@ -5923,7 +5933,7 @@
       <c r="B38" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>201</v>
       </c>
       <c r="D38" s="4"/>
@@ -5932,10 +5942,10 @@
       <c r="A39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="72" t="s">
         <v>419</v>
       </c>
       <c r="D39" s="4"/>
@@ -5944,8 +5954,8 @@
       <c r="A40" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
@@ -5955,7 +5965,7 @@
       <c r="B41" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="4"/>
@@ -5965,7 +5975,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="33"/>
-      <c r="C42" s="42"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
@@ -5975,7 +5985,7 @@
       <c r="B43" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="43" t="s">
         <v>416</v>
       </c>
       <c r="D43" s="4"/>
@@ -5987,7 +5997,7 @@
       <c r="B44" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="4"/>
@@ -5999,7 +6009,7 @@
       <c r="B45" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="44" t="s">
         <v>414</v>
       </c>
       <c r="D45" s="4"/>
@@ -6011,7 +6021,7 @@
       <c r="B46" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="4"/>
@@ -6021,7 +6031,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="35"/>
-      <c r="C47" s="44"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4">
@@ -6031,7 +6041,7 @@
       <c r="B48" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="4"/>
@@ -6041,7 +6051,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="44"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4">
@@ -6051,7 +6061,7 @@
       <c r="B50" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="4"/>
@@ -6061,7 +6071,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="33"/>
-      <c r="C51" s="42"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4">
@@ -6071,7 +6081,7 @@
       <c r="B52" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="42" t="s">
         <v>201</v>
       </c>
       <c r="D52" s="4"/>
@@ -6080,10 +6090,10 @@
       <c r="A53" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="76" t="s">
         <v>417</v>
       </c>
       <c r="D53" s="4"/>
@@ -6092,8 +6102,8 @@
       <c r="A54" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="62"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
@@ -6103,7 +6113,7 @@
       <c r="B55" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="4"/>
@@ -6115,7 +6125,7 @@
       <c r="B56" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="42" t="s">
         <v>201</v>
       </c>
       <c r="D56" s="4"/>
@@ -6124,10 +6134,10 @@
       <c r="A57" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="76" t="s">
         <v>416</v>
       </c>
       <c r="D57" s="4"/>
@@ -6136,8 +6146,8 @@
       <c r="A58" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="62"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4">
@@ -6147,7 +6157,7 @@
       <c r="B59" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="4"/>
@@ -6157,17 +6167,17 @@
         <v>524</v>
       </c>
       <c r="B60" s="33"/>
-      <c r="C60" s="42"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="53" t="s">
         <v>201</v>
       </c>
       <c r="D61" s="4"/>
@@ -6176,26 +6186,26 @@
       <c r="A62" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="66"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="62"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="73"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="53" t="s">
         <v>239</v>
       </c>
       <c r="D64" s="4"/>
@@ -6204,10 +6214,10 @@
       <c r="A65" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="53" t="s">
         <v>201</v>
       </c>
       <c r="D65" s="4"/>
@@ -6216,44 +6226,44 @@
       <c r="A66" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="66"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="62"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="73"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="53" t="s">
         <v>239</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="13.5">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="33"/>
-      <c r="C70" s="42"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
@@ -6263,7 +6273,7 @@
       <c r="B71" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="43" t="s">
         <v>249</v>
       </c>
       <c r="D71" s="4"/>
@@ -6275,7 +6285,7 @@
       <c r="B72" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="43" t="s">
         <v>251</v>
       </c>
       <c r="D72" s="4"/>
@@ -6287,7 +6297,7 @@
       <c r="B73" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="43" t="s">
         <v>253</v>
       </c>
       <c r="D73" s="4"/>
@@ -6299,7 +6309,7 @@
       <c r="B74" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="C74" s="44"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
@@ -6307,7 +6317,7 @@
         <v>41</v>
       </c>
       <c r="B75" s="35"/>
-      <c r="C75" s="44"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4">
@@ -6317,7 +6327,7 @@
       <c r="B76" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>254</v>
       </c>
       <c r="D76" s="4"/>
@@ -6329,7 +6339,7 @@
       <c r="B77" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="43" t="s">
         <v>256</v>
       </c>
       <c r="D77" s="4"/>
@@ -6341,7 +6351,7 @@
       <c r="B78" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="43" t="s">
         <v>493</v>
       </c>
       <c r="D78" s="4"/>
@@ -6351,7 +6361,7 @@
         <v>45</v>
       </c>
       <c r="B79" s="33"/>
-      <c r="C79" s="42"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
@@ -6361,7 +6371,7 @@
       <c r="B80" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="43" t="s">
         <v>258</v>
       </c>
       <c r="D80" s="4"/>
@@ -6373,7 +6383,7 @@
       <c r="B81" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="43" t="s">
         <v>260</v>
       </c>
       <c r="D81" s="4"/>
@@ -6385,7 +6395,7 @@
       <c r="B82" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="43" t="s">
         <v>262</v>
       </c>
       <c r="D82" s="4"/>
@@ -6397,7 +6407,7 @@
       <c r="B83" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="43" t="s">
         <v>264</v>
       </c>
       <c r="D83" s="4"/>
@@ -6409,7 +6419,7 @@
       <c r="B84" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="43" t="s">
         <v>494</v>
       </c>
       <c r="D84" s="4"/>
@@ -6421,7 +6431,7 @@
       <c r="B85" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C85" s="44" t="s">
+      <c r="C85" s="43" t="s">
         <v>266</v>
       </c>
       <c r="D85" s="4"/>
@@ -6433,7 +6443,7 @@
       <c r="B86" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="43" t="s">
         <v>268</v>
       </c>
       <c r="D86" s="4"/>
@@ -6445,7 +6455,7 @@
       <c r="B87" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="43" t="s">
         <v>270</v>
       </c>
       <c r="D87" s="4"/>
@@ -6455,7 +6465,7 @@
         <v>62</v>
       </c>
       <c r="B88" s="33"/>
-      <c r="C88" s="42"/>
+      <c r="C88" s="41"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4">
@@ -6465,7 +6475,7 @@
       <c r="B89" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="43" t="s">
         <v>496</v>
       </c>
       <c r="D89" s="4"/>
@@ -6477,7 +6487,7 @@
       <c r="B90" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="43" t="s">
         <v>498</v>
       </c>
       <c r="D90" s="4"/>
@@ -6489,7 +6499,7 @@
       <c r="B91" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="44" t="s">
+      <c r="C91" s="43" t="s">
         <v>272</v>
       </c>
       <c r="D91" s="4"/>
@@ -6501,7 +6511,7 @@
       <c r="B92" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="43" t="s">
         <v>274</v>
       </c>
       <c r="D92" s="4"/>
@@ -6513,7 +6523,7 @@
       <c r="B93" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="43" t="s">
         <v>276</v>
       </c>
       <c r="D93" s="4"/>
@@ -6525,7 +6535,7 @@
       <c r="B94" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="43" t="s">
         <v>501</v>
       </c>
       <c r="D94" s="4"/>
@@ -6537,7 +6547,7 @@
       <c r="B95" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="C95" s="44" t="s">
+      <c r="C95" s="43" t="s">
         <v>277</v>
       </c>
       <c r="D95" s="4"/>
@@ -6549,7 +6559,7 @@
       <c r="B96" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="43" t="s">
         <v>279</v>
       </c>
       <c r="D96" s="4"/>
@@ -6559,7 +6569,7 @@
         <v>68</v>
       </c>
       <c r="B97" s="33"/>
-      <c r="C97" s="42"/>
+      <c r="C97" s="41"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4">
@@ -6569,7 +6579,7 @@
       <c r="B98" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="44" t="s">
+      <c r="C98" s="43" t="s">
         <v>281</v>
       </c>
       <c r="D98" s="4"/>
@@ -6581,7 +6591,7 @@
       <c r="B99" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="43" t="s">
         <v>283</v>
       </c>
       <c r="D99" s="4"/>
@@ -6593,7 +6603,7 @@
       <c r="B100" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C100" s="43" t="s">
         <v>285</v>
       </c>
       <c r="D100" s="4"/>
@@ -6605,7 +6615,7 @@
       <c r="B101" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="44" t="s">
+      <c r="C101" s="43" t="s">
         <v>287</v>
       </c>
       <c r="D101" s="4"/>
@@ -6617,7 +6627,7 @@
       <c r="B102" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="44" t="s">
+      <c r="C102" s="43" t="s">
         <v>289</v>
       </c>
       <c r="D102" s="4"/>
@@ -6629,7 +6639,7 @@
       <c r="B103" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="C103" s="44" t="s">
+      <c r="C103" s="43" t="s">
         <v>291</v>
       </c>
       <c r="D103" s="4"/>
@@ -6641,7 +6651,7 @@
       <c r="B104" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C104" s="44" t="s">
+      <c r="C104" s="43" t="s">
         <v>293</v>
       </c>
       <c r="D104" s="4"/>
@@ -6653,7 +6663,7 @@
       <c r="B105" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="C105" s="44" t="s">
+      <c r="C105" s="43" t="s">
         <v>295</v>
       </c>
       <c r="D105" s="4"/>
@@ -6663,7 +6673,7 @@
         <v>85</v>
       </c>
       <c r="B106" s="33"/>
-      <c r="C106" s="42"/>
+      <c r="C106" s="41"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4">
@@ -6673,7 +6683,7 @@
       <c r="B107" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="43" t="s">
         <v>297</v>
       </c>
       <c r="D107" s="30"/>
@@ -6685,7 +6695,7 @@
       <c r="B108" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="44" t="s">
+      <c r="C108" s="43" t="s">
         <v>299</v>
       </c>
       <c r="D108" s="30"/>
@@ -6697,7 +6707,7 @@
       <c r="B109" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="C109" s="43" t="s">
         <v>301</v>
       </c>
       <c r="D109" s="30"/>
@@ -6709,7 +6719,7 @@
       <c r="B110" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C110" s="44" t="s">
+      <c r="C110" s="43" t="s">
         <v>303</v>
       </c>
       <c r="D110" s="30"/>
@@ -6721,7 +6731,7 @@
       <c r="B111" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="43" t="s">
         <v>510</v>
       </c>
       <c r="D111" s="4"/>
@@ -6733,7 +6743,7 @@
       <c r="B112" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C112" s="44" t="s">
+      <c r="C112" s="43" t="s">
         <v>413</v>
       </c>
       <c r="D112" s="4"/>
@@ -6745,7 +6755,7 @@
       <c r="B113" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="43" t="s">
         <v>306</v>
       </c>
       <c r="D113" s="4"/>
@@ -6757,7 +6767,7 @@
       <c r="B114" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C114" s="44" t="s">
+      <c r="C114" s="43" t="s">
         <v>308</v>
       </c>
       <c r="D114" s="4"/>
@@ -6767,7 +6777,7 @@
         <v>94</v>
       </c>
       <c r="B115" s="33"/>
-      <c r="C115" s="42"/>
+      <c r="C115" s="41"/>
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4">
@@ -6777,7 +6787,7 @@
       <c r="B116" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="C116" s="44" t="s">
+      <c r="C116" s="43" t="s">
         <v>310</v>
       </c>
       <c r="D116" s="4"/>
@@ -6789,7 +6799,7 @@
       <c r="B117" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="C117" s="44" t="s">
+      <c r="C117" s="43" t="s">
         <v>412</v>
       </c>
       <c r="D117" s="4"/>
@@ -6801,7 +6811,7 @@
       <c r="B118" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="44" t="s">
+      <c r="C118" s="43" t="s">
         <v>313</v>
       </c>
       <c r="D118" s="4"/>
@@ -6813,7 +6823,7 @@
       <c r="B119" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="C119" s="43" t="s">
         <v>315</v>
       </c>
       <c r="D119" s="4"/>
@@ -6825,7 +6835,7 @@
       <c r="B120" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C120" s="44" t="s">
+      <c r="C120" s="43" t="s">
         <v>317</v>
       </c>
       <c r="D120" s="4"/>
@@ -6837,7 +6847,7 @@
       <c r="B121" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="C121" s="44" t="s">
+      <c r="C121" s="43" t="s">
         <v>319</v>
       </c>
       <c r="D121" s="4"/>
@@ -6849,7 +6859,7 @@
       <c r="B122" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C122" s="44" t="s">
+      <c r="C122" s="43" t="s">
         <v>321</v>
       </c>
       <c r="D122" s="4"/>
@@ -6861,7 +6871,7 @@
       <c r="B123" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="C123" s="44" t="s">
+      <c r="C123" s="43" t="s">
         <v>323</v>
       </c>
       <c r="D123" s="4"/>
@@ -6871,7 +6881,7 @@
         <v>228</v>
       </c>
       <c r="B124" s="33"/>
-      <c r="C124" s="42"/>
+      <c r="C124" s="41"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4">
@@ -6881,7 +6891,7 @@
       <c r="B125" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="43" t="s">
         <v>325</v>
       </c>
       <c r="D125" s="4"/>
@@ -6893,7 +6903,7 @@
       <c r="B126" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C126" s="44" t="s">
+      <c r="C126" s="43" t="s">
         <v>327</v>
       </c>
       <c r="D126" s="4"/>
@@ -6905,7 +6915,7 @@
       <c r="B127" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="C127" s="44" t="s">
+      <c r="C127" s="43" t="s">
         <v>504</v>
       </c>
       <c r="D127" s="4"/>
@@ -6917,7 +6927,7 @@
       <c r="B128" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="C128" s="44" t="s">
+      <c r="C128" s="43" t="s">
         <v>506</v>
       </c>
       <c r="D128" s="4"/>
@@ -6929,7 +6939,7 @@
       <c r="B129" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="C129" s="44" t="s">
+      <c r="C129" s="43" t="s">
         <v>329</v>
       </c>
       <c r="D129" s="4"/>
@@ -6941,7 +6951,7 @@
       <c r="B130" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="C130" s="44" t="s">
+      <c r="C130" s="43" t="s">
         <v>331</v>
       </c>
       <c r="D130" s="4"/>
@@ -6953,7 +6963,7 @@
       <c r="B131" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C131" s="44" t="s">
+      <c r="C131" s="43" t="s">
         <v>333</v>
       </c>
       <c r="D131" s="4"/>
@@ -6965,25 +6975,25 @@
       <c r="B132" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="C132" s="44" t="s">
+      <c r="C132" s="43" t="s">
         <v>335</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" ht="13.5">
-      <c r="A133" s="60" t="s">
+      <c r="A133" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B134" s="33"/>
-      <c r="C134" s="42"/>
+      <c r="C134" s="41"/>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4">
@@ -6993,7 +7003,7 @@
       <c r="B135" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="C135" s="44" t="s">
+      <c r="C135" s="43" t="s">
         <v>337</v>
       </c>
       <c r="D135" s="4"/>
@@ -7005,7 +7015,7 @@
       <c r="B136" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="C136" s="44" t="s">
+      <c r="C136" s="43" t="s">
         <v>339</v>
       </c>
       <c r="D136" s="4"/>
@@ -7017,7 +7027,7 @@
       <c r="B137" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="C137" s="44" t="s">
+      <c r="C137" s="43" t="s">
         <v>341</v>
       </c>
       <c r="D137" s="4"/>
@@ -7029,7 +7039,7 @@
       <c r="B138" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="C138" s="44" t="s">
+      <c r="C138" s="43" t="s">
         <v>343</v>
       </c>
       <c r="D138" s="4"/>
@@ -7039,7 +7049,7 @@
         <v>109</v>
       </c>
       <c r="B139" s="36"/>
-      <c r="C139" s="46"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4">
@@ -7049,7 +7059,7 @@
       <c r="B140" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C140" s="44" t="s">
+      <c r="C140" s="43" t="s">
         <v>345</v>
       </c>
       <c r="D140" s="4"/>
@@ -7061,7 +7071,7 @@
       <c r="B141" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="44" t="s">
+      <c r="C141" s="43" t="s">
         <v>347</v>
       </c>
       <c r="D141" s="4"/>
@@ -7073,7 +7083,7 @@
       <c r="B142" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="C142" s="44" t="s">
+      <c r="C142" s="43" t="s">
         <v>508</v>
       </c>
       <c r="D142" s="4"/>
@@ -7085,7 +7095,7 @@
       <c r="B143" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="44" t="s">
+      <c r="C143" s="43" t="s">
         <v>349</v>
       </c>
       <c r="D143" s="4"/>
@@ -7095,7 +7105,7 @@
         <v>127</v>
       </c>
       <c r="B144" s="36"/>
-      <c r="C144" s="46"/>
+      <c r="C144" s="45"/>
       <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4">
@@ -7105,7 +7115,7 @@
       <c r="B145" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="44" t="s">
+      <c r="C145" s="43" t="s">
         <v>351</v>
       </c>
       <c r="D145" s="4"/>
@@ -7117,7 +7127,7 @@
       <c r="B146" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="C146" s="44" t="s">
+      <c r="C146" s="43" t="s">
         <v>353</v>
       </c>
       <c r="D146" s="4"/>
@@ -7129,7 +7139,7 @@
       <c r="B147" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="C147" s="44" t="s">
+      <c r="C147" s="43" t="s">
         <v>355</v>
       </c>
       <c r="D147" s="4"/>
@@ -7141,7 +7151,7 @@
       <c r="B148" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="C148" s="44" t="s">
+      <c r="C148" s="43" t="s">
         <v>357</v>
       </c>
       <c r="D148" s="4"/>
@@ -7151,7 +7161,7 @@
         <v>132</v>
       </c>
       <c r="B149" s="36"/>
-      <c r="C149" s="46"/>
+      <c r="C149" s="45"/>
       <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:4">
@@ -7161,7 +7171,7 @@
       <c r="B150" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="44" t="s">
+      <c r="C150" s="43" t="s">
         <v>359</v>
       </c>
       <c r="D150" s="4"/>
@@ -7173,7 +7183,7 @@
       <c r="B151" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="C151" s="44" t="s">
+      <c r="C151" s="43" t="s">
         <v>361</v>
       </c>
       <c r="D151" s="4"/>
@@ -7185,7 +7195,7 @@
       <c r="B152" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C152" s="44" t="s">
+      <c r="C152" s="43" t="s">
         <v>363</v>
       </c>
       <c r="D152" s="4"/>
@@ -7197,7 +7207,7 @@
       <c r="B153" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="C153" s="44" t="s">
+      <c r="C153" s="43" t="s">
         <v>365</v>
       </c>
       <c r="D153" s="4"/>
@@ -7207,7 +7217,7 @@
         <v>114</v>
       </c>
       <c r="B154" s="36"/>
-      <c r="C154" s="46"/>
+      <c r="C154" s="45"/>
       <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4">
@@ -7217,7 +7227,7 @@
       <c r="B155" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C155" s="43" t="s">
+      <c r="C155" s="42" t="s">
         <v>119</v>
       </c>
       <c r="D155" s="7"/>
@@ -7229,7 +7239,7 @@
       <c r="B156" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="43" t="s">
+      <c r="C156" s="42" t="s">
         <v>120</v>
       </c>
       <c r="D156" s="7"/>
@@ -7241,7 +7251,7 @@
       <c r="B157" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="43" t="s">
+      <c r="C157" s="42" t="s">
         <v>121</v>
       </c>
       <c r="D157" s="7"/>
@@ -7253,7 +7263,7 @@
       <c r="B158" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C158" s="43" t="s">
+      <c r="C158" s="42" t="s">
         <v>122</v>
       </c>
       <c r="D158" s="7"/>
@@ -7263,7 +7273,7 @@
         <v>137</v>
       </c>
       <c r="B159" s="36"/>
-      <c r="C159" s="46"/>
+      <c r="C159" s="45"/>
       <c r="D159" s="6"/>
     </row>
     <row r="160" spans="1:4">
@@ -7273,7 +7283,7 @@
       <c r="B160" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="C160" s="44" t="s">
+      <c r="C160" s="43" t="s">
         <v>367</v>
       </c>
       <c r="D160" s="4"/>
@@ -7285,7 +7295,7 @@
       <c r="B161" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="C161" s="44" t="s">
+      <c r="C161" s="43" t="s">
         <v>369</v>
       </c>
       <c r="D161" s="4"/>
@@ -7297,7 +7307,7 @@
       <c r="B162" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="C162" s="44" t="s">
+      <c r="C162" s="43" t="s">
         <v>371</v>
       </c>
       <c r="D162" s="4"/>
@@ -7309,7 +7319,7 @@
       <c r="B163" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="C163" s="44" t="s">
+      <c r="C163" s="43" t="s">
         <v>373</v>
       </c>
       <c r="D163" s="4"/>
@@ -7319,7 +7329,7 @@
         <v>142</v>
       </c>
       <c r="B164" s="36"/>
-      <c r="C164" s="46"/>
+      <c r="C164" s="45"/>
       <c r="D164" s="6"/>
     </row>
     <row r="165" spans="1:4">
@@ -7329,7 +7339,7 @@
       <c r="B165" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="C165" s="43" t="s">
         <v>375</v>
       </c>
       <c r="D165" s="4"/>
@@ -7341,7 +7351,7 @@
       <c r="B166" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="C166" s="44" t="s">
+      <c r="C166" s="43" t="s">
         <v>377</v>
       </c>
       <c r="D166" s="4"/>
@@ -7353,7 +7363,7 @@
       <c r="B167" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C167" s="44" t="s">
+      <c r="C167" s="43" t="s">
         <v>258</v>
       </c>
       <c r="D167" s="4"/>
@@ -7365,7 +7375,7 @@
       <c r="B168" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="C168" s="44" t="s">
+      <c r="C168" s="43" t="s">
         <v>379</v>
       </c>
       <c r="D168" s="4"/>
@@ -7375,7 +7385,7 @@
         <v>147</v>
       </c>
       <c r="B169" s="36"/>
-      <c r="C169" s="46"/>
+      <c r="C169" s="45"/>
       <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4">
@@ -7385,7 +7395,7 @@
       <c r="B170" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="C170" s="44" t="s">
+      <c r="C170" s="43" t="s">
         <v>381</v>
       </c>
       <c r="D170" s="30"/>
@@ -7397,7 +7407,7 @@
       <c r="B171" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C171" s="44" t="s">
+      <c r="C171" s="43" t="s">
         <v>383</v>
       </c>
       <c r="D171" s="30"/>
@@ -7409,7 +7419,7 @@
       <c r="B172" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="C172" s="44" t="s">
+      <c r="C172" s="43" t="s">
         <v>385</v>
       </c>
       <c r="D172" s="30"/>
@@ -7421,7 +7431,7 @@
       <c r="B173" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="C173" s="44" t="s">
+      <c r="C173" s="43" t="s">
         <v>387</v>
       </c>
       <c r="D173" s="30"/>
@@ -7431,7 +7441,7 @@
         <v>152</v>
       </c>
       <c r="B174" s="36"/>
-      <c r="C174" s="46"/>
+      <c r="C174" s="45"/>
       <c r="D174" s="6"/>
     </row>
     <row r="175" spans="1:4">
@@ -7441,7 +7451,7 @@
       <c r="B175" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="C175" s="44" t="s">
+      <c r="C175" s="43" t="s">
         <v>389</v>
       </c>
       <c r="D175" s="4"/>
@@ -7453,7 +7463,7 @@
       <c r="B176" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="C176" s="44" t="s">
+      <c r="C176" s="43" t="s">
         <v>391</v>
       </c>
       <c r="D176" s="4"/>
@@ -7465,7 +7475,7 @@
       <c r="B177" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="C177" s="44" t="s">
+      <c r="C177" s="43" t="s">
         <v>393</v>
       </c>
       <c r="D177" s="4"/>
@@ -7477,7 +7487,7 @@
       <c r="B178" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C178" s="44" t="s">
+      <c r="C178" s="43" t="s">
         <v>395</v>
       </c>
       <c r="D178" s="4"/>
@@ -7487,7 +7497,7 @@
         <v>157</v>
       </c>
       <c r="B179" s="36"/>
-      <c r="C179" s="46"/>
+      <c r="C179" s="45"/>
       <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4">
@@ -7497,7 +7507,7 @@
       <c r="B180" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C180" s="43" t="s">
+      <c r="C180" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D180" s="7"/>
@@ -7509,7 +7519,7 @@
       <c r="B181" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C181" s="43" t="s">
+      <c r="C181" s="42" t="s">
         <v>163</v>
       </c>
       <c r="D181" s="7"/>
@@ -7521,7 +7531,7 @@
       <c r="B182" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C182" s="43" t="s">
+      <c r="C182" s="42" t="s">
         <v>164</v>
       </c>
       <c r="D182" s="7"/>
@@ -7533,7 +7543,7 @@
       <c r="B183" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="43" t="s">
+      <c r="C183" s="42" t="s">
         <v>165</v>
       </c>
       <c r="D183" s="7"/>
@@ -7543,7 +7553,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="36"/>
-      <c r="C184" s="46"/>
+      <c r="C184" s="45"/>
       <c r="D184" s="6"/>
     </row>
     <row r="185" spans="1:4">
@@ -7553,7 +7563,7 @@
       <c r="B185" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="C185" s="44" t="s">
+      <c r="C185" s="43" t="s">
         <v>397</v>
       </c>
       <c r="D185" s="4"/>
@@ -7565,7 +7575,7 @@
       <c r="B186" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="C186" s="44" t="s">
+      <c r="C186" s="43" t="s">
         <v>409</v>
       </c>
       <c r="D186" s="30"/>
@@ -7577,7 +7587,7 @@
       <c r="B187" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="C187" s="44" t="s">
+      <c r="C187" s="43" t="s">
         <v>410</v>
       </c>
       <c r="D187" s="4"/>
@@ -7589,7 +7599,7 @@
       <c r="B188" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="C188" s="44" t="s">
+      <c r="C188" s="43" t="s">
         <v>411</v>
       </c>
       <c r="D188" s="4"/>
@@ -7599,7 +7609,7 @@
         <v>175</v>
       </c>
       <c r="B189" s="36"/>
-      <c r="C189" s="46"/>
+      <c r="C189" s="45"/>
       <c r="D189" s="6"/>
     </row>
     <row r="190" spans="1:4">
@@ -7609,7 +7619,7 @@
       <c r="B190" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C190" s="44" t="s">
+      <c r="C190" s="43" t="s">
         <v>319</v>
       </c>
       <c r="D190" s="4"/>
@@ -7621,7 +7631,7 @@
       <c r="B191" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C191" s="44" t="s">
+      <c r="C191" s="43" t="s">
         <v>321</v>
       </c>
       <c r="D191" s="4"/>
@@ -7633,7 +7643,7 @@
       <c r="B192" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="C192" s="44" t="s">
+      <c r="C192" s="43" t="s">
         <v>407</v>
       </c>
       <c r="D192" s="4"/>
@@ -7645,7 +7655,7 @@
       <c r="B193" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="C193" s="44" t="s">
+      <c r="C193" s="43" t="s">
         <v>408</v>
       </c>
       <c r="D193" s="4"/>
@@ -7655,7 +7665,7 @@
         <v>180</v>
       </c>
       <c r="B194" s="36"/>
-      <c r="C194" s="46"/>
+      <c r="C194" s="45"/>
       <c r="D194" s="6"/>
     </row>
     <row r="195" spans="1:5">
@@ -7665,11 +7675,11 @@
       <c r="B195" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C195" s="44" t="s">
+      <c r="C195" s="43" t="s">
         <v>229</v>
       </c>
       <c r="D195" s="4"/>
-      <c r="E195" s="50"/>
+      <c r="E195" s="49"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="11" t="s">
@@ -7678,11 +7688,11 @@
       <c r="B196" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C196" s="44" t="s">
+      <c r="C196" s="43" t="s">
         <v>230</v>
       </c>
       <c r="D196" s="4"/>
-      <c r="E196" s="50"/>
+      <c r="E196" s="49"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="11" t="s">
@@ -7691,11 +7701,11 @@
       <c r="B197" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C197" s="44" t="s">
+      <c r="C197" s="43" t="s">
         <v>231</v>
       </c>
       <c r="D197" s="4"/>
-      <c r="E197" s="50"/>
+      <c r="E197" s="49"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="11" t="s">
@@ -7704,18 +7714,18 @@
       <c r="B198" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C198" s="44" t="s">
+      <c r="C198" s="43" t="s">
         <v>232</v>
       </c>
       <c r="D198" s="4"/>
-      <c r="E198" s="50"/>
+      <c r="E198" s="49"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B199" s="36"/>
-      <c r="C199" s="46"/>
+      <c r="C199" s="45"/>
       <c r="D199" s="6"/>
     </row>
     <row r="200" spans="1:5">
@@ -7725,11 +7735,11 @@
       <c r="B200" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="44" t="s">
+      <c r="C200" s="43" t="s">
         <v>233</v>
       </c>
       <c r="D200" s="4"/>
-      <c r="E200" s="50"/>
+      <c r="E200" s="49"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="29" t="s">
@@ -7738,20 +7748,24 @@
       <c r="B201" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C201" s="47" t="s">
+      <c r="C201" s="46" t="s">
         <v>234</v>
       </c>
       <c r="D201" s="14"/>
-      <c r="E201" s="50"/>
+      <c r="E201" s="49"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B202" s="38"/>
-      <c r="C202" s="43"/>
+      <c r="B202" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="C202" s="55" t="s">
+        <v>536</v>
+      </c>
       <c r="D202" s="14"/>
-      <c r="E202" s="50"/>
+      <c r="E202" s="49"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="11" t="s">
@@ -7760,18 +7774,18 @@
       <c r="B203" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="C203" s="44" t="s">
+      <c r="C203" s="43" t="s">
         <v>406</v>
       </c>
       <c r="D203" s="4"/>
-      <c r="E203" s="52"/>
+      <c r="E203" s="51"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B204" s="36"/>
-      <c r="C204" s="46"/>
+      <c r="C204" s="45"/>
       <c r="D204" s="6"/>
     </row>
     <row r="205" spans="1:5">
@@ -7781,7 +7795,7 @@
       <c r="B205" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C205" s="43" t="s">
+      <c r="C205" s="42" t="s">
         <v>195</v>
       </c>
       <c r="D205" s="7"/>
@@ -7793,7 +7807,7 @@
       <c r="B206" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C206" s="43" t="s">
+      <c r="C206" s="42" t="s">
         <v>196</v>
       </c>
       <c r="D206" s="7"/>
@@ -7805,7 +7819,7 @@
       <c r="B207" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="C207" s="43" t="s">
+      <c r="C207" s="42" t="s">
         <v>199</v>
       </c>
       <c r="D207" s="7"/>
@@ -7817,7 +7831,7 @@
       <c r="B208" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="43" t="s">
+      <c r="C208" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="7"/>
@@ -7827,7 +7841,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="36"/>
-      <c r="C209" s="46"/>
+      <c r="C209" s="45"/>
       <c r="D209" s="6"/>
     </row>
     <row r="210" spans="1:4">
@@ -7837,7 +7851,7 @@
       <c r="B210" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="C210" s="43" t="s">
+      <c r="C210" s="42" t="s">
         <v>211</v>
       </c>
       <c r="D210" s="7"/>
@@ -7849,7 +7863,7 @@
       <c r="B211" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="C211" s="43" t="s">
+      <c r="C211" s="42" t="s">
         <v>211</v>
       </c>
       <c r="D211" s="7"/>
@@ -7861,7 +7875,7 @@
       <c r="B212" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C212" s="43" t="s">
+      <c r="C212" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D212" s="7"/>
@@ -7873,7 +7887,7 @@
       <c r="B213" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C213" s="43" t="s">
+      <c r="C213" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="7"/>
@@ -7883,3566 +7897,3580 @@
         <v>224</v>
       </c>
       <c r="B214" s="36"/>
-      <c r="C214" s="46"/>
+      <c r="C214" s="45"/>
       <c r="D214" s="6"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="55" t="s">
+      <c r="A215" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="B215" s="69"/>
-      <c r="C215" s="69"/>
-      <c r="D215" s="70"/>
+      <c r="B215" s="63"/>
+      <c r="C215" s="63"/>
+      <c r="D215" s="64"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B216" s="36"/>
-      <c r="C216" s="46"/>
+      <c r="C216" s="45"/>
       <c r="D216" s="6"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="55" t="s">
+      <c r="A217" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="69"/>
-      <c r="C217" s="69"/>
-      <c r="D217" s="71"/>
+      <c r="B217" s="63"/>
+      <c r="C217" s="63"/>
+      <c r="D217" s="65"/>
     </row>
     <row r="218" spans="1:4" ht="13.5">
-      <c r="C218" s="39"/>
+      <c r="C218" s="38"/>
     </row>
     <row r="219" spans="1:4" ht="13.5">
-      <c r="C219" s="39"/>
+      <c r="C219" s="38"/>
     </row>
     <row r="220" spans="1:4" ht="13.5">
-      <c r="C220" s="39"/>
+      <c r="C220" s="38"/>
     </row>
     <row r="221" spans="1:4" ht="13.5">
-      <c r="C221" s="39"/>
+      <c r="C221" s="38"/>
     </row>
     <row r="222" spans="1:4" ht="13.5">
-      <c r="C222" s="39"/>
+      <c r="C222" s="38"/>
     </row>
     <row r="223" spans="1:4" ht="13.5">
-      <c r="C223" s="39"/>
+      <c r="C223" s="38"/>
     </row>
     <row r="224" spans="1:4" ht="13.5">
-      <c r="C224" s="39"/>
+      <c r="C224" s="38"/>
     </row>
     <row r="225" spans="1:4" ht="13.5">
-      <c r="C225" s="39"/>
+      <c r="C225" s="38"/>
     </row>
     <row r="226" spans="1:4" ht="13.5">
-      <c r="C226" s="39"/>
+      <c r="C226" s="38"/>
     </row>
     <row r="227" spans="1:4" ht="13.5">
-      <c r="C227" s="39"/>
+      <c r="C227" s="38"/>
     </row>
     <row r="228" spans="1:4" ht="13.5">
-      <c r="C228" s="39"/>
+      <c r="C228" s="38"/>
     </row>
     <row r="229" spans="1:4" ht="13.5">
-      <c r="C229" s="39"/>
+      <c r="C229" s="38"/>
     </row>
     <row r="230" spans="1:4" ht="13.5">
-      <c r="C230" s="39"/>
+      <c r="C230" s="38"/>
     </row>
     <row r="231" spans="1:4" ht="13.5">
-      <c r="C231" s="39"/>
+      <c r="C231" s="38"/>
     </row>
     <row r="232" spans="1:4" ht="13.5">
-      <c r="C232" s="39"/>
+      <c r="C232" s="38"/>
     </row>
     <row r="233" spans="1:4" ht="13.5">
-      <c r="C233" s="39"/>
+      <c r="C233" s="38"/>
     </row>
     <row r="234" spans="1:4" ht="13.5">
-      <c r="C234" s="39"/>
+      <c r="C234" s="38"/>
     </row>
     <row r="235" spans="1:4" ht="13.5">
-      <c r="C235" s="39"/>
+      <c r="C235" s="38"/>
     </row>
     <row r="236" spans="1:4" ht="13.5">
-      <c r="C236" s="39"/>
+      <c r="C236" s="38"/>
     </row>
     <row r="237" spans="1:4" ht="13.5">
-      <c r="C237" s="39"/>
+      <c r="C237" s="38"/>
     </row>
     <row r="238" spans="1:4" ht="13.5">
-      <c r="C238" s="39"/>
+      <c r="C238" s="38"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6"/>
       <c r="B239" s="36"/>
-      <c r="C239" s="46"/>
+      <c r="C239" s="45"/>
       <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="6"/>
       <c r="B240" s="36"/>
-      <c r="C240" s="46"/>
+      <c r="C240" s="45"/>
       <c r="D240" s="6"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6"/>
       <c r="B241" s="36"/>
-      <c r="C241" s="46"/>
+      <c r="C241" s="45"/>
       <c r="D241" s="6"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6"/>
       <c r="B242" s="36"/>
-      <c r="C242" s="46"/>
+      <c r="C242" s="45"/>
       <c r="D242" s="6"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6"/>
       <c r="B243" s="36"/>
-      <c r="C243" s="46"/>
+      <c r="C243" s="45"/>
       <c r="D243" s="6"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6"/>
       <c r="B244" s="36"/>
-      <c r="C244" s="46"/>
+      <c r="C244" s="45"/>
       <c r="D244" s="6"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6"/>
       <c r="B245" s="36"/>
-      <c r="C245" s="46"/>
+      <c r="C245" s="45"/>
       <c r="D245" s="6"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6"/>
       <c r="B246" s="36"/>
-      <c r="C246" s="46"/>
+      <c r="C246" s="45"/>
       <c r="D246" s="6"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="6"/>
       <c r="B247" s="36"/>
-      <c r="C247" s="46"/>
+      <c r="C247" s="45"/>
       <c r="D247" s="6"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6"/>
       <c r="B248" s="36"/>
-      <c r="C248" s="46"/>
+      <c r="C248" s="45"/>
       <c r="D248" s="6"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6"/>
       <c r="B249" s="36"/>
-      <c r="C249" s="46"/>
+      <c r="C249" s="45"/>
       <c r="D249" s="6"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6"/>
       <c r="B250" s="36"/>
-      <c r="C250" s="46"/>
+      <c r="C250" s="45"/>
       <c r="D250" s="6"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6"/>
       <c r="B251" s="36"/>
-      <c r="C251" s="46"/>
+      <c r="C251" s="45"/>
       <c r="D251" s="6"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6"/>
       <c r="B252" s="36"/>
-      <c r="C252" s="46"/>
+      <c r="C252" s="45"/>
       <c r="D252" s="6"/>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6"/>
       <c r="B253" s="36"/>
-      <c r="C253" s="46"/>
+      <c r="C253" s="45"/>
       <c r="D253" s="6"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6"/>
       <c r="B254" s="36"/>
-      <c r="C254" s="46"/>
+      <c r="C254" s="45"/>
       <c r="D254" s="6"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6"/>
       <c r="B255" s="36"/>
-      <c r="C255" s="46"/>
+      <c r="C255" s="45"/>
       <c r="D255" s="6"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6"/>
       <c r="B256" s="36"/>
-      <c r="C256" s="46"/>
+      <c r="C256" s="45"/>
       <c r="D256" s="6"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6"/>
       <c r="B257" s="36"/>
-      <c r="C257" s="46"/>
+      <c r="C257" s="45"/>
       <c r="D257" s="6"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6"/>
       <c r="B258" s="36"/>
-      <c r="C258" s="46"/>
+      <c r="C258" s="45"/>
       <c r="D258" s="6"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6"/>
       <c r="B259" s="36"/>
-      <c r="C259" s="46"/>
+      <c r="C259" s="45"/>
       <c r="D259" s="6"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6"/>
       <c r="B260" s="36"/>
-      <c r="C260" s="46"/>
+      <c r="C260" s="45"/>
       <c r="D260" s="6"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6"/>
       <c r="B261" s="36"/>
-      <c r="C261" s="46"/>
+      <c r="C261" s="45"/>
       <c r="D261" s="6"/>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6"/>
       <c r="B262" s="36"/>
-      <c r="C262" s="46"/>
+      <c r="C262" s="45"/>
       <c r="D262" s="6"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6"/>
       <c r="B263" s="36"/>
-      <c r="C263" s="46"/>
+      <c r="C263" s="45"/>
       <c r="D263" s="6"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6"/>
       <c r="B264" s="36"/>
-      <c r="C264" s="46"/>
+      <c r="C264" s="45"/>
       <c r="D264" s="6"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6"/>
       <c r="B265" s="36"/>
-      <c r="C265" s="46"/>
+      <c r="C265" s="45"/>
       <c r="D265" s="6"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6"/>
       <c r="B266" s="36"/>
-      <c r="C266" s="46"/>
+      <c r="C266" s="45"/>
       <c r="D266" s="6"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6"/>
       <c r="B267" s="36"/>
-      <c r="C267" s="46"/>
+      <c r="C267" s="45"/>
       <c r="D267" s="6"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6"/>
       <c r="B268" s="36"/>
-      <c r="C268" s="46"/>
+      <c r="C268" s="45"/>
       <c r="D268" s="6"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6"/>
       <c r="B269" s="36"/>
-      <c r="C269" s="46"/>
+      <c r="C269" s="45"/>
       <c r="D269" s="6"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6"/>
       <c r="B270" s="36"/>
-      <c r="C270" s="46"/>
+      <c r="C270" s="45"/>
       <c r="D270" s="6"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6"/>
       <c r="B271" s="36"/>
-      <c r="C271" s="46"/>
+      <c r="C271" s="45"/>
       <c r="D271" s="6"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="6"/>
       <c r="B272" s="36"/>
-      <c r="C272" s="46"/>
+      <c r="C272" s="45"/>
       <c r="D272" s="6"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6"/>
       <c r="B273" s="36"/>
-      <c r="C273" s="46"/>
+      <c r="C273" s="45"/>
       <c r="D273" s="6"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6"/>
       <c r="B274" s="36"/>
-      <c r="C274" s="46"/>
+      <c r="C274" s="45"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6"/>
       <c r="B275" s="36"/>
-      <c r="C275" s="46"/>
+      <c r="C275" s="45"/>
       <c r="D275" s="6"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6"/>
       <c r="B276" s="36"/>
-      <c r="C276" s="46"/>
+      <c r="C276" s="45"/>
       <c r="D276" s="6"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6"/>
       <c r="B277" s="36"/>
-      <c r="C277" s="46"/>
+      <c r="C277" s="45"/>
       <c r="D277" s="6"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6"/>
       <c r="B278" s="36"/>
-      <c r="C278" s="46"/>
+      <c r="C278" s="45"/>
       <c r="D278" s="6"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6"/>
       <c r="B279" s="36"/>
-      <c r="C279" s="46"/>
+      <c r="C279" s="45"/>
       <c r="D279" s="6"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="6"/>
       <c r="B280" s="36"/>
-      <c r="C280" s="46"/>
+      <c r="C280" s="45"/>
       <c r="D280" s="6"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6"/>
       <c r="B281" s="36"/>
-      <c r="C281" s="46"/>
+      <c r="C281" s="45"/>
       <c r="D281" s="6"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6"/>
       <c r="B282" s="36"/>
-      <c r="C282" s="46"/>
+      <c r="C282" s="45"/>
       <c r="D282" s="6"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6"/>
       <c r="B283" s="36"/>
-      <c r="C283" s="46"/>
+      <c r="C283" s="45"/>
       <c r="D283" s="6"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6"/>
       <c r="B284" s="36"/>
-      <c r="C284" s="46"/>
+      <c r="C284" s="45"/>
       <c r="D284" s="6"/>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6"/>
       <c r="B285" s="36"/>
-      <c r="C285" s="46"/>
+      <c r="C285" s="45"/>
       <c r="D285" s="6"/>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6"/>
       <c r="B286" s="36"/>
-      <c r="C286" s="46"/>
+      <c r="C286" s="45"/>
       <c r="D286" s="6"/>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6"/>
       <c r="B287" s="36"/>
-      <c r="C287" s="46"/>
+      <c r="C287" s="45"/>
       <c r="D287" s="6"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6"/>
       <c r="B288" s="36"/>
-      <c r="C288" s="46"/>
+      <c r="C288" s="45"/>
       <c r="D288" s="6"/>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6"/>
       <c r="B289" s="36"/>
-      <c r="C289" s="46"/>
+      <c r="C289" s="45"/>
       <c r="D289" s="6"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6"/>
       <c r="B290" s="36"/>
-      <c r="C290" s="46"/>
+      <c r="C290" s="45"/>
       <c r="D290" s="6"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6"/>
       <c r="B291" s="36"/>
-      <c r="C291" s="46"/>
+      <c r="C291" s="45"/>
       <c r="D291" s="6"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6"/>
       <c r="B292" s="36"/>
-      <c r="C292" s="46"/>
+      <c r="C292" s="45"/>
       <c r="D292" s="6"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="6"/>
       <c r="B293" s="36"/>
-      <c r="C293" s="46"/>
+      <c r="C293" s="45"/>
       <c r="D293" s="6"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="6"/>
       <c r="B294" s="36"/>
-      <c r="C294" s="46"/>
+      <c r="C294" s="45"/>
       <c r="D294" s="6"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6"/>
       <c r="B295" s="36"/>
-      <c r="C295" s="46"/>
+      <c r="C295" s="45"/>
       <c r="D295" s="6"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="6"/>
       <c r="B296" s="36"/>
-      <c r="C296" s="46"/>
+      <c r="C296" s="45"/>
       <c r="D296" s="6"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="6"/>
       <c r="B297" s="36"/>
-      <c r="C297" s="46"/>
+      <c r="C297" s="45"/>
       <c r="D297" s="6"/>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6"/>
       <c r="B298" s="36"/>
-      <c r="C298" s="46"/>
+      <c r="C298" s="45"/>
       <c r="D298" s="6"/>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6"/>
       <c r="B299" s="36"/>
-      <c r="C299" s="46"/>
+      <c r="C299" s="45"/>
       <c r="D299" s="6"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6"/>
       <c r="B300" s="36"/>
-      <c r="C300" s="46"/>
+      <c r="C300" s="45"/>
       <c r="D300" s="6"/>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6"/>
       <c r="B301" s="36"/>
-      <c r="C301" s="46"/>
+      <c r="C301" s="45"/>
       <c r="D301" s="6"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6"/>
       <c r="B302" s="36"/>
-      <c r="C302" s="46"/>
+      <c r="C302" s="45"/>
       <c r="D302" s="6"/>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="6"/>
       <c r="B303" s="36"/>
-      <c r="C303" s="46"/>
+      <c r="C303" s="45"/>
       <c r="D303" s="6"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="6"/>
       <c r="B304" s="36"/>
-      <c r="C304" s="46"/>
+      <c r="C304" s="45"/>
       <c r="D304" s="6"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6"/>
       <c r="B305" s="36"/>
-      <c r="C305" s="46"/>
+      <c r="C305" s="45"/>
       <c r="D305" s="6"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6"/>
       <c r="B306" s="36"/>
-      <c r="C306" s="46"/>
+      <c r="C306" s="45"/>
       <c r="D306" s="6"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6"/>
       <c r="B307" s="36"/>
-      <c r="C307" s="46"/>
+      <c r="C307" s="45"/>
       <c r="D307" s="6"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6"/>
       <c r="B308" s="36"/>
-      <c r="C308" s="46"/>
+      <c r="C308" s="45"/>
       <c r="D308" s="6"/>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6"/>
       <c r="B309" s="36"/>
-      <c r="C309" s="46"/>
+      <c r="C309" s="45"/>
       <c r="D309" s="6"/>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6"/>
       <c r="B310" s="36"/>
-      <c r="C310" s="46"/>
+      <c r="C310" s="45"/>
       <c r="D310" s="6"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6"/>
       <c r="B311" s="36"/>
-      <c r="C311" s="46"/>
+      <c r="C311" s="45"/>
       <c r="D311" s="6"/>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6"/>
       <c r="B312" s="36"/>
-      <c r="C312" s="46"/>
+      <c r="C312" s="45"/>
       <c r="D312" s="6"/>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6"/>
       <c r="B313" s="36"/>
-      <c r="C313" s="46"/>
+      <c r="C313" s="45"/>
       <c r="D313" s="6"/>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6"/>
       <c r="B314" s="36"/>
-      <c r="C314" s="46"/>
+      <c r="C314" s="45"/>
       <c r="D314" s="6"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6"/>
       <c r="B315" s="36"/>
-      <c r="C315" s="46"/>
+      <c r="C315" s="45"/>
       <c r="D315" s="6"/>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6"/>
       <c r="B316" s="36"/>
-      <c r="C316" s="46"/>
+      <c r="C316" s="45"/>
       <c r="D316" s="6"/>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6"/>
       <c r="B317" s="36"/>
-      <c r="C317" s="46"/>
+      <c r="C317" s="45"/>
       <c r="D317" s="6"/>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6"/>
       <c r="B318" s="36"/>
-      <c r="C318" s="46"/>
+      <c r="C318" s="45"/>
       <c r="D318" s="6"/>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6"/>
       <c r="B319" s="36"/>
-      <c r="C319" s="46"/>
+      <c r="C319" s="45"/>
       <c r="D319" s="6"/>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6"/>
       <c r="B320" s="36"/>
-      <c r="C320" s="46"/>
+      <c r="C320" s="45"/>
       <c r="D320" s="6"/>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6"/>
       <c r="B321" s="36"/>
-      <c r="C321" s="46"/>
+      <c r="C321" s="45"/>
       <c r="D321" s="6"/>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6"/>
       <c r="B322" s="36"/>
-      <c r="C322" s="46"/>
+      <c r="C322" s="45"/>
       <c r="D322" s="6"/>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6"/>
       <c r="B323" s="36"/>
-      <c r="C323" s="46"/>
+      <c r="C323" s="45"/>
       <c r="D323" s="6"/>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6"/>
       <c r="B324" s="36"/>
-      <c r="C324" s="46"/>
+      <c r="C324" s="45"/>
       <c r="D324" s="6"/>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6"/>
       <c r="B325" s="36"/>
-      <c r="C325" s="46"/>
+      <c r="C325" s="45"/>
       <c r="D325" s="6"/>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6"/>
       <c r="B326" s="36"/>
-      <c r="C326" s="46"/>
+      <c r="C326" s="45"/>
       <c r="D326" s="6"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6"/>
       <c r="B327" s="36"/>
-      <c r="C327" s="46"/>
+      <c r="C327" s="45"/>
       <c r="D327" s="6"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6"/>
       <c r="B328" s="36"/>
-      <c r="C328" s="46"/>
+      <c r="C328" s="45"/>
       <c r="D328" s="6"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6"/>
       <c r="B329" s="36"/>
-      <c r="C329" s="46"/>
+      <c r="C329" s="45"/>
       <c r="D329" s="6"/>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6"/>
       <c r="B330" s="36"/>
-      <c r="C330" s="46"/>
+      <c r="C330" s="45"/>
       <c r="D330" s="6"/>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6"/>
       <c r="B331" s="36"/>
-      <c r="C331" s="46"/>
+      <c r="C331" s="45"/>
       <c r="D331" s="6"/>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6"/>
       <c r="B332" s="36"/>
-      <c r="C332" s="46"/>
+      <c r="C332" s="45"/>
       <c r="D332" s="6"/>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6"/>
       <c r="B333" s="36"/>
-      <c r="C333" s="46"/>
+      <c r="C333" s="45"/>
       <c r="D333" s="6"/>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6"/>
       <c r="B334" s="36"/>
-      <c r="C334" s="46"/>
+      <c r="C334" s="45"/>
       <c r="D334" s="6"/>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6"/>
       <c r="B335" s="36"/>
-      <c r="C335" s="46"/>
+      <c r="C335" s="45"/>
       <c r="D335" s="6"/>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6"/>
       <c r="B336" s="36"/>
-      <c r="C336" s="46"/>
+      <c r="C336" s="45"/>
       <c r="D336" s="6"/>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6"/>
       <c r="B337" s="36"/>
-      <c r="C337" s="46"/>
+      <c r="C337" s="45"/>
       <c r="D337" s="6"/>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6"/>
       <c r="B338" s="36"/>
-      <c r="C338" s="46"/>
+      <c r="C338" s="45"/>
       <c r="D338" s="6"/>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6"/>
       <c r="B339" s="36"/>
-      <c r="C339" s="46"/>
+      <c r="C339" s="45"/>
       <c r="D339" s="6"/>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6"/>
       <c r="B340" s="36"/>
-      <c r="C340" s="46"/>
+      <c r="C340" s="45"/>
       <c r="D340" s="6"/>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6"/>
       <c r="B341" s="36"/>
-      <c r="C341" s="46"/>
+      <c r="C341" s="45"/>
       <c r="D341" s="6"/>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6"/>
       <c r="B342" s="36"/>
-      <c r="C342" s="46"/>
+      <c r="C342" s="45"/>
       <c r="D342" s="6"/>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6"/>
       <c r="B343" s="36"/>
-      <c r="C343" s="46"/>
+      <c r="C343" s="45"/>
       <c r="D343" s="6"/>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6"/>
       <c r="B344" s="36"/>
-      <c r="C344" s="46"/>
+      <c r="C344" s="45"/>
       <c r="D344" s="6"/>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6"/>
       <c r="B345" s="36"/>
-      <c r="C345" s="46"/>
+      <c r="C345" s="45"/>
       <c r="D345" s="6"/>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6"/>
       <c r="B346" s="36"/>
-      <c r="C346" s="46"/>
+      <c r="C346" s="45"/>
       <c r="D346" s="6"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6"/>
       <c r="B347" s="36"/>
-      <c r="C347" s="46"/>
+      <c r="C347" s="45"/>
       <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6"/>
       <c r="B348" s="36"/>
-      <c r="C348" s="46"/>
+      <c r="C348" s="45"/>
       <c r="D348" s="6"/>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6"/>
       <c r="B349" s="36"/>
-      <c r="C349" s="46"/>
+      <c r="C349" s="45"/>
       <c r="D349" s="6"/>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6"/>
       <c r="B350" s="36"/>
-      <c r="C350" s="46"/>
+      <c r="C350" s="45"/>
       <c r="D350" s="6"/>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6"/>
       <c r="B351" s="36"/>
-      <c r="C351" s="46"/>
+      <c r="C351" s="45"/>
       <c r="D351" s="6"/>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6"/>
       <c r="B352" s="36"/>
-      <c r="C352" s="46"/>
+      <c r="C352" s="45"/>
       <c r="D352" s="6"/>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6"/>
       <c r="B353" s="36"/>
-      <c r="C353" s="46"/>
+      <c r="C353" s="45"/>
       <c r="D353" s="6"/>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6"/>
       <c r="B354" s="36"/>
-      <c r="C354" s="46"/>
+      <c r="C354" s="45"/>
       <c r="D354" s="6"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6"/>
       <c r="B355" s="36"/>
-      <c r="C355" s="46"/>
+      <c r="C355" s="45"/>
       <c r="D355" s="6"/>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6"/>
       <c r="B356" s="36"/>
-      <c r="C356" s="46"/>
+      <c r="C356" s="45"/>
       <c r="D356" s="6"/>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6"/>
       <c r="B357" s="36"/>
-      <c r="C357" s="46"/>
+      <c r="C357" s="45"/>
       <c r="D357" s="6"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6"/>
       <c r="B358" s="36"/>
-      <c r="C358" s="46"/>
+      <c r="C358" s="45"/>
       <c r="D358" s="6"/>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6"/>
       <c r="B359" s="36"/>
-      <c r="C359" s="46"/>
+      <c r="C359" s="45"/>
       <c r="D359" s="6"/>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6"/>
       <c r="B360" s="36"/>
-      <c r="C360" s="46"/>
+      <c r="C360" s="45"/>
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6"/>
       <c r="B361" s="36"/>
-      <c r="C361" s="46"/>
+      <c r="C361" s="45"/>
       <c r="D361" s="6"/>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6"/>
       <c r="B362" s="36"/>
-      <c r="C362" s="46"/>
+      <c r="C362" s="45"/>
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6"/>
       <c r="B363" s="36"/>
-      <c r="C363" s="46"/>
+      <c r="C363" s="45"/>
       <c r="D363" s="6"/>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6"/>
       <c r="B364" s="36"/>
-      <c r="C364" s="46"/>
+      <c r="C364" s="45"/>
       <c r="D364" s="6"/>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6"/>
       <c r="B365" s="36"/>
-      <c r="C365" s="46"/>
+      <c r="C365" s="45"/>
       <c r="D365" s="6"/>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6"/>
       <c r="B366" s="36"/>
-      <c r="C366" s="46"/>
+      <c r="C366" s="45"/>
       <c r="D366" s="6"/>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6"/>
       <c r="B367" s="36"/>
-      <c r="C367" s="46"/>
+      <c r="C367" s="45"/>
       <c r="D367" s="6"/>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6"/>
       <c r="B368" s="36"/>
-      <c r="C368" s="46"/>
+      <c r="C368" s="45"/>
       <c r="D368" s="6"/>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6"/>
       <c r="B369" s="36"/>
-      <c r="C369" s="46"/>
+      <c r="C369" s="45"/>
       <c r="D369" s="6"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6"/>
       <c r="B370" s="36"/>
-      <c r="C370" s="46"/>
+      <c r="C370" s="45"/>
       <c r="D370" s="6"/>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6"/>
       <c r="B371" s="36"/>
-      <c r="C371" s="46"/>
+      <c r="C371" s="45"/>
       <c r="D371" s="6"/>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6"/>
       <c r="B372" s="36"/>
-      <c r="C372" s="46"/>
+      <c r="C372" s="45"/>
       <c r="D372" s="6"/>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6"/>
       <c r="B373" s="36"/>
-      <c r="C373" s="46"/>
+      <c r="C373" s="45"/>
       <c r="D373" s="6"/>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6"/>
       <c r="B374" s="36"/>
-      <c r="C374" s="46"/>
+      <c r="C374" s="45"/>
       <c r="D374" s="6"/>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6"/>
       <c r="B375" s="36"/>
-      <c r="C375" s="46"/>
+      <c r="C375" s="45"/>
       <c r="D375" s="6"/>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6"/>
       <c r="B376" s="36"/>
-      <c r="C376" s="46"/>
+      <c r="C376" s="45"/>
       <c r="D376" s="6"/>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6"/>
       <c r="B377" s="36"/>
-      <c r="C377" s="46"/>
+      <c r="C377" s="45"/>
       <c r="D377" s="6"/>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6"/>
       <c r="B378" s="36"/>
-      <c r="C378" s="46"/>
+      <c r="C378" s="45"/>
       <c r="D378" s="6"/>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6"/>
       <c r="B379" s="36"/>
-      <c r="C379" s="46"/>
+      <c r="C379" s="45"/>
       <c r="D379" s="6"/>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6"/>
       <c r="B380" s="36"/>
-      <c r="C380" s="46"/>
+      <c r="C380" s="45"/>
       <c r="D380" s="6"/>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6"/>
       <c r="B381" s="36"/>
-      <c r="C381" s="46"/>
+      <c r="C381" s="45"/>
       <c r="D381" s="6"/>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6"/>
       <c r="B382" s="36"/>
-      <c r="C382" s="46"/>
+      <c r="C382" s="45"/>
       <c r="D382" s="6"/>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6"/>
       <c r="B383" s="36"/>
-      <c r="C383" s="46"/>
+      <c r="C383" s="45"/>
       <c r="D383" s="6"/>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6"/>
       <c r="B384" s="36"/>
-      <c r="C384" s="46"/>
+      <c r="C384" s="45"/>
       <c r="D384" s="6"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6"/>
       <c r="B385" s="36"/>
-      <c r="C385" s="46"/>
+      <c r="C385" s="45"/>
       <c r="D385" s="6"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6"/>
       <c r="B386" s="36"/>
-      <c r="C386" s="46"/>
+      <c r="C386" s="45"/>
       <c r="D386" s="6"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6"/>
       <c r="B387" s="36"/>
-      <c r="C387" s="46"/>
+      <c r="C387" s="45"/>
       <c r="D387" s="6"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6"/>
       <c r="B388" s="36"/>
-      <c r="C388" s="46"/>
+      <c r="C388" s="45"/>
       <c r="D388" s="6"/>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6"/>
       <c r="B389" s="36"/>
-      <c r="C389" s="46"/>
+      <c r="C389" s="45"/>
       <c r="D389" s="6"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6"/>
       <c r="B390" s="36"/>
-      <c r="C390" s="46"/>
+      <c r="C390" s="45"/>
       <c r="D390" s="6"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6"/>
       <c r="B391" s="36"/>
-      <c r="C391" s="46"/>
+      <c r="C391" s="45"/>
       <c r="D391" s="6"/>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6"/>
       <c r="B392" s="36"/>
-      <c r="C392" s="46"/>
+      <c r="C392" s="45"/>
       <c r="D392" s="6"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6"/>
       <c r="B393" s="36"/>
-      <c r="C393" s="46"/>
+      <c r="C393" s="45"/>
       <c r="D393" s="6"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6"/>
       <c r="B394" s="36"/>
-      <c r="C394" s="46"/>
+      <c r="C394" s="45"/>
       <c r="D394" s="6"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6"/>
       <c r="B395" s="36"/>
-      <c r="C395" s="46"/>
+      <c r="C395" s="45"/>
       <c r="D395" s="6"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6"/>
       <c r="B396" s="36"/>
-      <c r="C396" s="46"/>
+      <c r="C396" s="45"/>
       <c r="D396" s="6"/>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="6"/>
       <c r="B397" s="36"/>
-      <c r="C397" s="46"/>
+      <c r="C397" s="45"/>
       <c r="D397" s="6"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="6"/>
       <c r="B398" s="36"/>
-      <c r="C398" s="46"/>
+      <c r="C398" s="45"/>
       <c r="D398" s="6"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="6"/>
       <c r="B399" s="36"/>
-      <c r="C399" s="46"/>
+      <c r="C399" s="45"/>
       <c r="D399" s="6"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="6"/>
       <c r="B400" s="36"/>
-      <c r="C400" s="46"/>
+      <c r="C400" s="45"/>
       <c r="D400" s="6"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="6"/>
       <c r="B401" s="36"/>
-      <c r="C401" s="46"/>
+      <c r="C401" s="45"/>
       <c r="D401" s="6"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="6"/>
       <c r="B402" s="36"/>
-      <c r="C402" s="46"/>
+      <c r="C402" s="45"/>
       <c r="D402" s="6"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="6"/>
       <c r="B403" s="36"/>
-      <c r="C403" s="46"/>
+      <c r="C403" s="45"/>
       <c r="D403" s="6"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="6"/>
       <c r="B404" s="36"/>
-      <c r="C404" s="46"/>
+      <c r="C404" s="45"/>
       <c r="D404" s="6"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="6"/>
       <c r="B405" s="36"/>
-      <c r="C405" s="46"/>
+      <c r="C405" s="45"/>
       <c r="D405" s="6"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="6"/>
       <c r="B406" s="36"/>
-      <c r="C406" s="46"/>
+      <c r="C406" s="45"/>
       <c r="D406" s="6"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="6"/>
       <c r="B407" s="36"/>
-      <c r="C407" s="46"/>
+      <c r="C407" s="45"/>
       <c r="D407" s="6"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="6"/>
       <c r="B408" s="36"/>
-      <c r="C408" s="46"/>
+      <c r="C408" s="45"/>
       <c r="D408" s="6"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="6"/>
       <c r="B409" s="36"/>
-      <c r="C409" s="46"/>
+      <c r="C409" s="45"/>
       <c r="D409" s="6"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="6"/>
       <c r="B410" s="36"/>
-      <c r="C410" s="46"/>
+      <c r="C410" s="45"/>
       <c r="D410" s="6"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="6"/>
       <c r="B411" s="36"/>
-      <c r="C411" s="46"/>
+      <c r="C411" s="45"/>
       <c r="D411" s="6"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="6"/>
       <c r="B412" s="36"/>
-      <c r="C412" s="46"/>
+      <c r="C412" s="45"/>
       <c r="D412" s="6"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="6"/>
       <c r="B413" s="36"/>
-      <c r="C413" s="46"/>
+      <c r="C413" s="45"/>
       <c r="D413" s="6"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="6"/>
       <c r="B414" s="36"/>
-      <c r="C414" s="46"/>
+      <c r="C414" s="45"/>
       <c r="D414" s="6"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="6"/>
       <c r="B415" s="36"/>
-      <c r="C415" s="46"/>
+      <c r="C415" s="45"/>
       <c r="D415" s="6"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="6"/>
       <c r="B416" s="36"/>
-      <c r="C416" s="46"/>
+      <c r="C416" s="45"/>
       <c r="D416" s="6"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="6"/>
       <c r="B417" s="36"/>
-      <c r="C417" s="46"/>
+      <c r="C417" s="45"/>
       <c r="D417" s="6"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="6"/>
       <c r="B418" s="36"/>
-      <c r="C418" s="46"/>
+      <c r="C418" s="45"/>
       <c r="D418" s="6"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="6"/>
       <c r="B419" s="36"/>
-      <c r="C419" s="46"/>
+      <c r="C419" s="45"/>
       <c r="D419" s="6"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="6"/>
       <c r="B420" s="36"/>
-      <c r="C420" s="46"/>
+      <c r="C420" s="45"/>
       <c r="D420" s="6"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="6"/>
       <c r="B421" s="36"/>
-      <c r="C421" s="46"/>
+      <c r="C421" s="45"/>
       <c r="D421" s="6"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="6"/>
       <c r="B422" s="36"/>
-      <c r="C422" s="46"/>
+      <c r="C422" s="45"/>
       <c r="D422" s="6"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="6"/>
       <c r="B423" s="36"/>
-      <c r="C423" s="46"/>
+      <c r="C423" s="45"/>
       <c r="D423" s="6"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="6"/>
       <c r="B424" s="36"/>
-      <c r="C424" s="46"/>
+      <c r="C424" s="45"/>
       <c r="D424" s="6"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="6"/>
       <c r="B425" s="36"/>
-      <c r="C425" s="46"/>
+      <c r="C425" s="45"/>
       <c r="D425" s="6"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="6"/>
       <c r="B426" s="36"/>
-      <c r="C426" s="46"/>
+      <c r="C426" s="45"/>
       <c r="D426" s="6"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="6"/>
       <c r="B427" s="36"/>
-      <c r="C427" s="46"/>
+      <c r="C427" s="45"/>
       <c r="D427" s="6"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="6"/>
       <c r="B428" s="36"/>
-      <c r="C428" s="46"/>
+      <c r="C428" s="45"/>
       <c r="D428" s="6"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="6"/>
       <c r="B429" s="36"/>
-      <c r="C429" s="46"/>
+      <c r="C429" s="45"/>
       <c r="D429" s="6"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="6"/>
       <c r="B430" s="36"/>
-      <c r="C430" s="46"/>
+      <c r="C430" s="45"/>
       <c r="D430" s="6"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="6"/>
       <c r="B431" s="36"/>
-      <c r="C431" s="46"/>
+      <c r="C431" s="45"/>
       <c r="D431" s="6"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="6"/>
       <c r="B432" s="36"/>
-      <c r="C432" s="46"/>
+      <c r="C432" s="45"/>
       <c r="D432" s="6"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="6"/>
       <c r="B433" s="36"/>
-      <c r="C433" s="46"/>
+      <c r="C433" s="45"/>
       <c r="D433" s="6"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="6"/>
       <c r="B434" s="36"/>
-      <c r="C434" s="46"/>
+      <c r="C434" s="45"/>
       <c r="D434" s="6"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="6"/>
       <c r="B435" s="36"/>
-      <c r="C435" s="46"/>
+      <c r="C435" s="45"/>
       <c r="D435" s="6"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="6"/>
       <c r="B436" s="36"/>
-      <c r="C436" s="46"/>
+      <c r="C436" s="45"/>
       <c r="D436" s="6"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="6"/>
       <c r="B437" s="36"/>
-      <c r="C437" s="46"/>
+      <c r="C437" s="45"/>
       <c r="D437" s="6"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="6"/>
       <c r="B438" s="36"/>
-      <c r="C438" s="46"/>
+      <c r="C438" s="45"/>
       <c r="D438" s="6"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="6"/>
       <c r="B439" s="36"/>
-      <c r="C439" s="46"/>
+      <c r="C439" s="45"/>
       <c r="D439" s="6"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="6"/>
       <c r="B440" s="36"/>
-      <c r="C440" s="46"/>
+      <c r="C440" s="45"/>
       <c r="D440" s="6"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="6"/>
       <c r="B441" s="36"/>
-      <c r="C441" s="46"/>
+      <c r="C441" s="45"/>
       <c r="D441" s="6"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="6"/>
       <c r="B442" s="36"/>
-      <c r="C442" s="46"/>
+      <c r="C442" s="45"/>
       <c r="D442" s="6"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="6"/>
       <c r="B443" s="36"/>
-      <c r="C443" s="46"/>
+      <c r="C443" s="45"/>
       <c r="D443" s="6"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="6"/>
       <c r="B444" s="36"/>
-      <c r="C444" s="46"/>
+      <c r="C444" s="45"/>
       <c r="D444" s="6"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="6"/>
       <c r="B445" s="36"/>
-      <c r="C445" s="46"/>
+      <c r="C445" s="45"/>
       <c r="D445" s="6"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="6"/>
       <c r="B446" s="36"/>
-      <c r="C446" s="46"/>
+      <c r="C446" s="45"/>
       <c r="D446" s="6"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="6"/>
       <c r="B447" s="36"/>
-      <c r="C447" s="46"/>
+      <c r="C447" s="45"/>
       <c r="D447" s="6"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="6"/>
       <c r="B448" s="36"/>
-      <c r="C448" s="46"/>
+      <c r="C448" s="45"/>
       <c r="D448" s="6"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="6"/>
       <c r="B449" s="36"/>
-      <c r="C449" s="46"/>
+      <c r="C449" s="45"/>
       <c r="D449" s="6"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="6"/>
       <c r="B450" s="36"/>
-      <c r="C450" s="46"/>
+      <c r="C450" s="45"/>
       <c r="D450" s="6"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="6"/>
       <c r="B451" s="36"/>
-      <c r="C451" s="46"/>
+      <c r="C451" s="45"/>
       <c r="D451" s="6"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="6"/>
       <c r="B452" s="36"/>
-      <c r="C452" s="46"/>
+      <c r="C452" s="45"/>
       <c r="D452" s="6"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="6"/>
       <c r="B453" s="36"/>
-      <c r="C453" s="46"/>
+      <c r="C453" s="45"/>
       <c r="D453" s="6"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="6"/>
       <c r="B454" s="36"/>
-      <c r="C454" s="46"/>
+      <c r="C454" s="45"/>
       <c r="D454" s="6"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="6"/>
       <c r="B455" s="36"/>
-      <c r="C455" s="46"/>
+      <c r="C455" s="45"/>
       <c r="D455" s="6"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="6"/>
       <c r="B456" s="36"/>
-      <c r="C456" s="46"/>
+      <c r="C456" s="45"/>
       <c r="D456" s="6"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="6"/>
       <c r="B457" s="36"/>
-      <c r="C457" s="46"/>
+      <c r="C457" s="45"/>
       <c r="D457" s="6"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="6"/>
       <c r="B458" s="36"/>
-      <c r="C458" s="46"/>
+      <c r="C458" s="45"/>
       <c r="D458" s="6"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="6"/>
       <c r="B459" s="36"/>
-      <c r="C459" s="46"/>
+      <c r="C459" s="45"/>
       <c r="D459" s="6"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="6"/>
       <c r="B460" s="36"/>
-      <c r="C460" s="46"/>
+      <c r="C460" s="45"/>
       <c r="D460" s="6"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="6"/>
       <c r="B461" s="36"/>
-      <c r="C461" s="46"/>
+      <c r="C461" s="45"/>
       <c r="D461" s="6"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="6"/>
       <c r="B462" s="36"/>
-      <c r="C462" s="46"/>
+      <c r="C462" s="45"/>
       <c r="D462" s="6"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="6"/>
       <c r="B463" s="36"/>
-      <c r="C463" s="46"/>
+      <c r="C463" s="45"/>
       <c r="D463" s="6"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="6"/>
       <c r="B464" s="36"/>
-      <c r="C464" s="46"/>
+      <c r="C464" s="45"/>
       <c r="D464" s="6"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="6"/>
       <c r="B465" s="36"/>
-      <c r="C465" s="46"/>
+      <c r="C465" s="45"/>
       <c r="D465" s="6"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="6"/>
       <c r="B466" s="36"/>
-      <c r="C466" s="46"/>
+      <c r="C466" s="45"/>
       <c r="D466" s="6"/>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="6"/>
       <c r="B467" s="36"/>
-      <c r="C467" s="46"/>
+      <c r="C467" s="45"/>
       <c r="D467" s="6"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="6"/>
       <c r="B468" s="36"/>
-      <c r="C468" s="46"/>
+      <c r="C468" s="45"/>
       <c r="D468" s="6"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="6"/>
       <c r="B469" s="36"/>
-      <c r="C469" s="46"/>
+      <c r="C469" s="45"/>
       <c r="D469" s="6"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="6"/>
       <c r="B470" s="36"/>
-      <c r="C470" s="46"/>
+      <c r="C470" s="45"/>
       <c r="D470" s="6"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="6"/>
       <c r="B471" s="36"/>
-      <c r="C471" s="46"/>
+      <c r="C471" s="45"/>
       <c r="D471" s="6"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="6"/>
       <c r="B472" s="36"/>
-      <c r="C472" s="46"/>
+      <c r="C472" s="45"/>
       <c r="D472" s="6"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="6"/>
       <c r="B473" s="36"/>
-      <c r="C473" s="46"/>
+      <c r="C473" s="45"/>
       <c r="D473" s="6"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="6"/>
       <c r="B474" s="36"/>
-      <c r="C474" s="46"/>
+      <c r="C474" s="45"/>
       <c r="D474" s="6"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="6"/>
       <c r="B475" s="36"/>
-      <c r="C475" s="46"/>
+      <c r="C475" s="45"/>
       <c r="D475" s="6"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="6"/>
       <c r="B476" s="36"/>
-      <c r="C476" s="46"/>
+      <c r="C476" s="45"/>
       <c r="D476" s="6"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="6"/>
       <c r="B477" s="36"/>
-      <c r="C477" s="46"/>
+      <c r="C477" s="45"/>
       <c r="D477" s="6"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="6"/>
       <c r="B478" s="36"/>
-      <c r="C478" s="46"/>
+      <c r="C478" s="45"/>
       <c r="D478" s="6"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="6"/>
       <c r="B479" s="36"/>
-      <c r="C479" s="46"/>
+      <c r="C479" s="45"/>
       <c r="D479" s="6"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="6"/>
       <c r="B480" s="36"/>
-      <c r="C480" s="46"/>
+      <c r="C480" s="45"/>
       <c r="D480" s="6"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="6"/>
       <c r="B481" s="36"/>
-      <c r="C481" s="46"/>
+      <c r="C481" s="45"/>
       <c r="D481" s="6"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="6"/>
       <c r="B482" s="36"/>
-      <c r="C482" s="46"/>
+      <c r="C482" s="45"/>
       <c r="D482" s="6"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="6"/>
       <c r="B483" s="36"/>
-      <c r="C483" s="46"/>
+      <c r="C483" s="45"/>
       <c r="D483" s="6"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="6"/>
       <c r="B484" s="36"/>
-      <c r="C484" s="46"/>
+      <c r="C484" s="45"/>
       <c r="D484" s="6"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="6"/>
       <c r="B485" s="36"/>
-      <c r="C485" s="46"/>
+      <c r="C485" s="45"/>
       <c r="D485" s="6"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="6"/>
       <c r="B486" s="36"/>
-      <c r="C486" s="46"/>
+      <c r="C486" s="45"/>
       <c r="D486" s="6"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="6"/>
       <c r="B487" s="36"/>
-      <c r="C487" s="46"/>
+      <c r="C487" s="45"/>
       <c r="D487" s="6"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="6"/>
       <c r="B488" s="36"/>
-      <c r="C488" s="46"/>
+      <c r="C488" s="45"/>
       <c r="D488" s="6"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="6"/>
       <c r="B489" s="36"/>
-      <c r="C489" s="46"/>
+      <c r="C489" s="45"/>
       <c r="D489" s="6"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="6"/>
       <c r="B490" s="36"/>
-      <c r="C490" s="46"/>
+      <c r="C490" s="45"/>
       <c r="D490" s="6"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="6"/>
       <c r="B491" s="36"/>
-      <c r="C491" s="46"/>
+      <c r="C491" s="45"/>
       <c r="D491" s="6"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="6"/>
       <c r="B492" s="36"/>
-      <c r="C492" s="46"/>
+      <c r="C492" s="45"/>
       <c r="D492" s="6"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="6"/>
       <c r="B493" s="36"/>
-      <c r="C493" s="46"/>
+      <c r="C493" s="45"/>
       <c r="D493" s="6"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="6"/>
       <c r="B494" s="36"/>
-      <c r="C494" s="46"/>
+      <c r="C494" s="45"/>
       <c r="D494" s="6"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="6"/>
       <c r="B495" s="36"/>
-      <c r="C495" s="46"/>
+      <c r="C495" s="45"/>
       <c r="D495" s="6"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="6"/>
       <c r="B496" s="36"/>
-      <c r="C496" s="46"/>
+      <c r="C496" s="45"/>
       <c r="D496" s="6"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="6"/>
       <c r="B497" s="36"/>
-      <c r="C497" s="46"/>
+      <c r="C497" s="45"/>
       <c r="D497" s="6"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="6"/>
       <c r="B498" s="36"/>
-      <c r="C498" s="46"/>
+      <c r="C498" s="45"/>
       <c r="D498" s="6"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="6"/>
       <c r="B499" s="36"/>
-      <c r="C499" s="46"/>
+      <c r="C499" s="45"/>
       <c r="D499" s="6"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="6"/>
       <c r="B500" s="36"/>
-      <c r="C500" s="46"/>
+      <c r="C500" s="45"/>
       <c r="D500" s="6"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="6"/>
       <c r="B501" s="36"/>
-      <c r="C501" s="46"/>
+      <c r="C501" s="45"/>
       <c r="D501" s="6"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="6"/>
       <c r="B502" s="36"/>
-      <c r="C502" s="46"/>
+      <c r="C502" s="45"/>
       <c r="D502" s="6"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="6"/>
       <c r="B503" s="36"/>
-      <c r="C503" s="46"/>
+      <c r="C503" s="45"/>
       <c r="D503" s="6"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="6"/>
       <c r="B504" s="36"/>
-      <c r="C504" s="46"/>
+      <c r="C504" s="45"/>
       <c r="D504" s="6"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="6"/>
       <c r="B505" s="36"/>
-      <c r="C505" s="46"/>
+      <c r="C505" s="45"/>
       <c r="D505" s="6"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="6"/>
       <c r="B506" s="36"/>
-      <c r="C506" s="46"/>
+      <c r="C506" s="45"/>
       <c r="D506" s="6"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="6"/>
       <c r="B507" s="36"/>
-      <c r="C507" s="46"/>
+      <c r="C507" s="45"/>
       <c r="D507" s="6"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="6"/>
       <c r="B508" s="36"/>
-      <c r="C508" s="46"/>
+      <c r="C508" s="45"/>
       <c r="D508" s="6"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="6"/>
       <c r="B509" s="36"/>
-      <c r="C509" s="46"/>
+      <c r="C509" s="45"/>
       <c r="D509" s="6"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="6"/>
       <c r="B510" s="36"/>
-      <c r="C510" s="46"/>
+      <c r="C510" s="45"/>
       <c r="D510" s="6"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="6"/>
       <c r="B511" s="36"/>
-      <c r="C511" s="46"/>
+      <c r="C511" s="45"/>
       <c r="D511" s="6"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="6"/>
       <c r="B512" s="36"/>
-      <c r="C512" s="46"/>
+      <c r="C512" s="45"/>
       <c r="D512" s="6"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="6"/>
       <c r="B513" s="36"/>
-      <c r="C513" s="46"/>
+      <c r="C513" s="45"/>
       <c r="D513" s="6"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="6"/>
       <c r="B514" s="36"/>
-      <c r="C514" s="46"/>
+      <c r="C514" s="45"/>
       <c r="D514" s="6"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="6"/>
       <c r="B515" s="36"/>
-      <c r="C515" s="46"/>
+      <c r="C515" s="45"/>
       <c r="D515" s="6"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="6"/>
       <c r="B516" s="36"/>
-      <c r="C516" s="46"/>
+      <c r="C516" s="45"/>
       <c r="D516" s="6"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="6"/>
       <c r="B517" s="36"/>
-      <c r="C517" s="46"/>
+      <c r="C517" s="45"/>
       <c r="D517" s="6"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="6"/>
       <c r="B518" s="36"/>
-      <c r="C518" s="46"/>
+      <c r="C518" s="45"/>
       <c r="D518" s="6"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="6"/>
       <c r="B519" s="36"/>
-      <c r="C519" s="46"/>
+      <c r="C519" s="45"/>
       <c r="D519" s="6"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="6"/>
       <c r="B520" s="36"/>
-      <c r="C520" s="46"/>
+      <c r="C520" s="45"/>
       <c r="D520" s="6"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="6"/>
       <c r="B521" s="36"/>
-      <c r="C521" s="46"/>
+      <c r="C521" s="45"/>
       <c r="D521" s="6"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="6"/>
       <c r="B522" s="36"/>
-      <c r="C522" s="46"/>
+      <c r="C522" s="45"/>
       <c r="D522" s="6"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="6"/>
       <c r="B523" s="36"/>
-      <c r="C523" s="46"/>
+      <c r="C523" s="45"/>
       <c r="D523" s="6"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="6"/>
       <c r="B524" s="36"/>
-      <c r="C524" s="46"/>
+      <c r="C524" s="45"/>
       <c r="D524" s="6"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="6"/>
       <c r="B525" s="36"/>
-      <c r="C525" s="46"/>
+      <c r="C525" s="45"/>
       <c r="D525" s="6"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="6"/>
       <c r="B526" s="36"/>
-      <c r="C526" s="46"/>
+      <c r="C526" s="45"/>
       <c r="D526" s="6"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="6"/>
       <c r="B527" s="36"/>
-      <c r="C527" s="46"/>
+      <c r="C527" s="45"/>
       <c r="D527" s="6"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="6"/>
       <c r="B528" s="36"/>
-      <c r="C528" s="46"/>
+      <c r="C528" s="45"/>
       <c r="D528" s="6"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="6"/>
       <c r="B529" s="36"/>
-      <c r="C529" s="46"/>
+      <c r="C529" s="45"/>
       <c r="D529" s="6"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="6"/>
       <c r="B530" s="36"/>
-      <c r="C530" s="46"/>
+      <c r="C530" s="45"/>
       <c r="D530" s="6"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="6"/>
       <c r="B531" s="36"/>
-      <c r="C531" s="46"/>
+      <c r="C531" s="45"/>
       <c r="D531" s="6"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="6"/>
       <c r="B532" s="36"/>
-      <c r="C532" s="46"/>
+      <c r="C532" s="45"/>
       <c r="D532" s="6"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="6"/>
       <c r="B533" s="36"/>
-      <c r="C533" s="46"/>
+      <c r="C533" s="45"/>
       <c r="D533" s="6"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="6"/>
       <c r="B534" s="36"/>
-      <c r="C534" s="46"/>
+      <c r="C534" s="45"/>
       <c r="D534" s="6"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="6"/>
       <c r="B535" s="36"/>
-      <c r="C535" s="46"/>
+      <c r="C535" s="45"/>
       <c r="D535" s="6"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="6"/>
       <c r="B536" s="36"/>
-      <c r="C536" s="46"/>
+      <c r="C536" s="45"/>
       <c r="D536" s="6"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="6"/>
       <c r="B537" s="36"/>
-      <c r="C537" s="46"/>
+      <c r="C537" s="45"/>
       <c r="D537" s="6"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="6"/>
       <c r="B538" s="36"/>
-      <c r="C538" s="46"/>
+      <c r="C538" s="45"/>
       <c r="D538" s="6"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="6"/>
       <c r="B539" s="36"/>
-      <c r="C539" s="46"/>
+      <c r="C539" s="45"/>
       <c r="D539" s="6"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="6"/>
       <c r="B540" s="36"/>
-      <c r="C540" s="46"/>
+      <c r="C540" s="45"/>
       <c r="D540" s="6"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="6"/>
       <c r="B541" s="36"/>
-      <c r="C541" s="46"/>
+      <c r="C541" s="45"/>
       <c r="D541" s="6"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="6"/>
       <c r="B542" s="36"/>
-      <c r="C542" s="46"/>
+      <c r="C542" s="45"/>
       <c r="D542" s="6"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="6"/>
       <c r="B543" s="36"/>
-      <c r="C543" s="46"/>
+      <c r="C543" s="45"/>
       <c r="D543" s="6"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="6"/>
       <c r="B544" s="36"/>
-      <c r="C544" s="46"/>
+      <c r="C544" s="45"/>
       <c r="D544" s="6"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="6"/>
       <c r="B545" s="36"/>
-      <c r="C545" s="46"/>
+      <c r="C545" s="45"/>
       <c r="D545" s="6"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="6"/>
       <c r="B546" s="36"/>
-      <c r="C546" s="46"/>
+      <c r="C546" s="45"/>
       <c r="D546" s="6"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="6"/>
       <c r="B547" s="36"/>
-      <c r="C547" s="46"/>
+      <c r="C547" s="45"/>
       <c r="D547" s="6"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="6"/>
       <c r="B548" s="36"/>
-      <c r="C548" s="46"/>
+      <c r="C548" s="45"/>
       <c r="D548" s="6"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="6"/>
       <c r="B549" s="36"/>
-      <c r="C549" s="46"/>
+      <c r="C549" s="45"/>
       <c r="D549" s="6"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="6"/>
       <c r="B550" s="36"/>
-      <c r="C550" s="46"/>
+      <c r="C550" s="45"/>
       <c r="D550" s="6"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="6"/>
       <c r="B551" s="36"/>
-      <c r="C551" s="46"/>
+      <c r="C551" s="45"/>
       <c r="D551" s="6"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="6"/>
       <c r="B552" s="36"/>
-      <c r="C552" s="46"/>
+      <c r="C552" s="45"/>
       <c r="D552" s="6"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="6"/>
       <c r="B553" s="36"/>
-      <c r="C553" s="46"/>
+      <c r="C553" s="45"/>
       <c r="D553" s="6"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="6"/>
       <c r="B554" s="36"/>
-      <c r="C554" s="46"/>
+      <c r="C554" s="45"/>
       <c r="D554" s="6"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="6"/>
       <c r="B555" s="36"/>
-      <c r="C555" s="46"/>
+      <c r="C555" s="45"/>
       <c r="D555" s="6"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="6"/>
       <c r="B556" s="36"/>
-      <c r="C556" s="46"/>
+      <c r="C556" s="45"/>
       <c r="D556" s="6"/>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="6"/>
       <c r="B557" s="36"/>
-      <c r="C557" s="46"/>
+      <c r="C557" s="45"/>
       <c r="D557" s="6"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="6"/>
       <c r="B558" s="36"/>
-      <c r="C558" s="46"/>
+      <c r="C558" s="45"/>
       <c r="D558" s="6"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="6"/>
       <c r="B559" s="36"/>
-      <c r="C559" s="46"/>
+      <c r="C559" s="45"/>
       <c r="D559" s="6"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="6"/>
       <c r="B560" s="36"/>
-      <c r="C560" s="46"/>
+      <c r="C560" s="45"/>
       <c r="D560" s="6"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="6"/>
       <c r="B561" s="36"/>
-      <c r="C561" s="46"/>
+      <c r="C561" s="45"/>
       <c r="D561" s="6"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="6"/>
       <c r="B562" s="36"/>
-      <c r="C562" s="46"/>
+      <c r="C562" s="45"/>
       <c r="D562" s="6"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="6"/>
       <c r="B563" s="36"/>
-      <c r="C563" s="46"/>
+      <c r="C563" s="45"/>
       <c r="D563" s="6"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="6"/>
       <c r="B564" s="36"/>
-      <c r="C564" s="46"/>
+      <c r="C564" s="45"/>
       <c r="D564" s="6"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="6"/>
       <c r="B565" s="36"/>
-      <c r="C565" s="46"/>
+      <c r="C565" s="45"/>
       <c r="D565" s="6"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="6"/>
       <c r="B566" s="36"/>
-      <c r="C566" s="46"/>
+      <c r="C566" s="45"/>
       <c r="D566" s="6"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="6"/>
       <c r="B567" s="36"/>
-      <c r="C567" s="46"/>
+      <c r="C567" s="45"/>
       <c r="D567" s="6"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="6"/>
       <c r="B568" s="36"/>
-      <c r="C568" s="46"/>
+      <c r="C568" s="45"/>
       <c r="D568" s="6"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="6"/>
       <c r="B569" s="36"/>
-      <c r="C569" s="46"/>
+      <c r="C569" s="45"/>
       <c r="D569" s="6"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="6"/>
       <c r="B570" s="36"/>
-      <c r="C570" s="46"/>
+      <c r="C570" s="45"/>
       <c r="D570" s="6"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="6"/>
       <c r="B571" s="36"/>
-      <c r="C571" s="46"/>
+      <c r="C571" s="45"/>
       <c r="D571" s="6"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="6"/>
       <c r="B572" s="36"/>
-      <c r="C572" s="46"/>
+      <c r="C572" s="45"/>
       <c r="D572" s="6"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="6"/>
       <c r="B573" s="36"/>
-      <c r="C573" s="46"/>
+      <c r="C573" s="45"/>
       <c r="D573" s="6"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="6"/>
       <c r="B574" s="36"/>
-      <c r="C574" s="46"/>
+      <c r="C574" s="45"/>
       <c r="D574" s="6"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="6"/>
       <c r="B575" s="36"/>
-      <c r="C575" s="46"/>
+      <c r="C575" s="45"/>
       <c r="D575" s="6"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="6"/>
       <c r="B576" s="36"/>
-      <c r="C576" s="46"/>
+      <c r="C576" s="45"/>
       <c r="D576" s="6"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="6"/>
       <c r="B577" s="36"/>
-      <c r="C577" s="46"/>
+      <c r="C577" s="45"/>
       <c r="D577" s="6"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="6"/>
       <c r="B578" s="36"/>
-      <c r="C578" s="46"/>
+      <c r="C578" s="45"/>
       <c r="D578" s="6"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="6"/>
       <c r="B579" s="36"/>
-      <c r="C579" s="46"/>
+      <c r="C579" s="45"/>
       <c r="D579" s="6"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="6"/>
       <c r="B580" s="36"/>
-      <c r="C580" s="46"/>
+      <c r="C580" s="45"/>
       <c r="D580" s="6"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="6"/>
       <c r="B581" s="36"/>
-      <c r="C581" s="46"/>
+      <c r="C581" s="45"/>
       <c r="D581" s="6"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="6"/>
       <c r="B582" s="36"/>
-      <c r="C582" s="46"/>
+      <c r="C582" s="45"/>
       <c r="D582" s="6"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="6"/>
       <c r="B583" s="36"/>
-      <c r="C583" s="46"/>
+      <c r="C583" s="45"/>
       <c r="D583" s="6"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="6"/>
       <c r="B584" s="36"/>
-      <c r="C584" s="46"/>
+      <c r="C584" s="45"/>
       <c r="D584" s="6"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="6"/>
       <c r="B585" s="36"/>
-      <c r="C585" s="46"/>
+      <c r="C585" s="45"/>
       <c r="D585" s="6"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="6"/>
       <c r="B586" s="36"/>
-      <c r="C586" s="46"/>
+      <c r="C586" s="45"/>
       <c r="D586" s="6"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="6"/>
       <c r="B587" s="36"/>
-      <c r="C587" s="46"/>
+      <c r="C587" s="45"/>
       <c r="D587" s="6"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="6"/>
       <c r="B588" s="36"/>
-      <c r="C588" s="46"/>
+      <c r="C588" s="45"/>
       <c r="D588" s="6"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="6"/>
       <c r="B589" s="36"/>
-      <c r="C589" s="46"/>
+      <c r="C589" s="45"/>
       <c r="D589" s="6"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="6"/>
       <c r="B590" s="36"/>
-      <c r="C590" s="46"/>
+      <c r="C590" s="45"/>
       <c r="D590" s="6"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="6"/>
       <c r="B591" s="36"/>
-      <c r="C591" s="46"/>
+      <c r="C591" s="45"/>
       <c r="D591" s="6"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="6"/>
       <c r="B592" s="36"/>
-      <c r="C592" s="46"/>
+      <c r="C592" s="45"/>
       <c r="D592" s="6"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="6"/>
       <c r="B593" s="36"/>
-      <c r="C593" s="46"/>
+      <c r="C593" s="45"/>
       <c r="D593" s="6"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="6"/>
       <c r="B594" s="36"/>
-      <c r="C594" s="46"/>
+      <c r="C594" s="45"/>
       <c r="D594" s="6"/>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="6"/>
       <c r="B595" s="36"/>
-      <c r="C595" s="46"/>
+      <c r="C595" s="45"/>
       <c r="D595" s="6"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="6"/>
       <c r="B596" s="36"/>
-      <c r="C596" s="46"/>
+      <c r="C596" s="45"/>
       <c r="D596" s="6"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="6"/>
       <c r="B597" s="36"/>
-      <c r="C597" s="46"/>
+      <c r="C597" s="45"/>
       <c r="D597" s="6"/>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="6"/>
       <c r="B598" s="36"/>
-      <c r="C598" s="46"/>
+      <c r="C598" s="45"/>
       <c r="D598" s="6"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="6"/>
       <c r="B599" s="36"/>
-      <c r="C599" s="46"/>
+      <c r="C599" s="45"/>
       <c r="D599" s="6"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="6"/>
       <c r="B600" s="36"/>
-      <c r="C600" s="46"/>
+      <c r="C600" s="45"/>
       <c r="D600" s="6"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="6"/>
       <c r="B601" s="36"/>
-      <c r="C601" s="46"/>
+      <c r="C601" s="45"/>
       <c r="D601" s="6"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="6"/>
       <c r="B602" s="36"/>
-      <c r="C602" s="46"/>
+      <c r="C602" s="45"/>
       <c r="D602" s="6"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="6"/>
       <c r="B603" s="36"/>
-      <c r="C603" s="46"/>
+      <c r="C603" s="45"/>
       <c r="D603" s="6"/>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="6"/>
       <c r="B604" s="36"/>
-      <c r="C604" s="46"/>
+      <c r="C604" s="45"/>
       <c r="D604" s="6"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="6"/>
       <c r="B605" s="36"/>
-      <c r="C605" s="46"/>
+      <c r="C605" s="45"/>
       <c r="D605" s="6"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="6"/>
       <c r="B606" s="36"/>
-      <c r="C606" s="46"/>
+      <c r="C606" s="45"/>
       <c r="D606" s="6"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="6"/>
       <c r="B607" s="36"/>
-      <c r="C607" s="46"/>
+      <c r="C607" s="45"/>
       <c r="D607" s="6"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="6"/>
       <c r="B608" s="36"/>
-      <c r="C608" s="46"/>
+      <c r="C608" s="45"/>
       <c r="D608" s="6"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="6"/>
       <c r="B609" s="36"/>
-      <c r="C609" s="46"/>
+      <c r="C609" s="45"/>
       <c r="D609" s="6"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="6"/>
       <c r="B610" s="36"/>
-      <c r="C610" s="46"/>
+      <c r="C610" s="45"/>
       <c r="D610" s="6"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="6"/>
       <c r="B611" s="36"/>
-      <c r="C611" s="46"/>
+      <c r="C611" s="45"/>
       <c r="D611" s="6"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="6"/>
       <c r="B612" s="36"/>
-      <c r="C612" s="46"/>
+      <c r="C612" s="45"/>
       <c r="D612" s="6"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="6"/>
       <c r="B613" s="36"/>
-      <c r="C613" s="46"/>
+      <c r="C613" s="45"/>
       <c r="D613" s="6"/>
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="6"/>
       <c r="B614" s="36"/>
-      <c r="C614" s="46"/>
+      <c r="C614" s="45"/>
       <c r="D614" s="6"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="6"/>
       <c r="B615" s="36"/>
-      <c r="C615" s="46"/>
+      <c r="C615" s="45"/>
       <c r="D615" s="6"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="6"/>
       <c r="B616" s="36"/>
-      <c r="C616" s="46"/>
+      <c r="C616" s="45"/>
       <c r="D616" s="6"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="6"/>
       <c r="B617" s="36"/>
-      <c r="C617" s="46"/>
+      <c r="C617" s="45"/>
       <c r="D617" s="6"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="6"/>
       <c r="B618" s="36"/>
-      <c r="C618" s="46"/>
+      <c r="C618" s="45"/>
       <c r="D618" s="6"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="6"/>
       <c r="B619" s="36"/>
-      <c r="C619" s="46"/>
+      <c r="C619" s="45"/>
       <c r="D619" s="6"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="6"/>
       <c r="B620" s="36"/>
-      <c r="C620" s="46"/>
+      <c r="C620" s="45"/>
       <c r="D620" s="6"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="6"/>
       <c r="B621" s="36"/>
-      <c r="C621" s="46"/>
+      <c r="C621" s="45"/>
       <c r="D621" s="6"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="6"/>
       <c r="B622" s="36"/>
-      <c r="C622" s="46"/>
+      <c r="C622" s="45"/>
       <c r="D622" s="6"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="6"/>
       <c r="B623" s="36"/>
-      <c r="C623" s="46"/>
+      <c r="C623" s="45"/>
       <c r="D623" s="6"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="6"/>
       <c r="B624" s="36"/>
-      <c r="C624" s="46"/>
+      <c r="C624" s="45"/>
       <c r="D624" s="6"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="6"/>
       <c r="B625" s="36"/>
-      <c r="C625" s="46"/>
+      <c r="C625" s="45"/>
       <c r="D625" s="6"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="6"/>
       <c r="B626" s="36"/>
-      <c r="C626" s="46"/>
+      <c r="C626" s="45"/>
       <c r="D626" s="6"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="6"/>
       <c r="B627" s="36"/>
-      <c r="C627" s="46"/>
+      <c r="C627" s="45"/>
       <c r="D627" s="6"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="6"/>
       <c r="B628" s="36"/>
-      <c r="C628" s="46"/>
+      <c r="C628" s="45"/>
       <c r="D628" s="6"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="6"/>
       <c r="B629" s="36"/>
-      <c r="C629" s="46"/>
+      <c r="C629" s="45"/>
       <c r="D629" s="6"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="6"/>
       <c r="B630" s="36"/>
-      <c r="C630" s="46"/>
+      <c r="C630" s="45"/>
       <c r="D630" s="6"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="6"/>
       <c r="B631" s="36"/>
-      <c r="C631" s="46"/>
+      <c r="C631" s="45"/>
       <c r="D631" s="6"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="6"/>
       <c r="B632" s="36"/>
-      <c r="C632" s="46"/>
+      <c r="C632" s="45"/>
       <c r="D632" s="6"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="6"/>
       <c r="B633" s="36"/>
-      <c r="C633" s="46"/>
+      <c r="C633" s="45"/>
       <c r="D633" s="6"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="6"/>
       <c r="B634" s="36"/>
-      <c r="C634" s="46"/>
+      <c r="C634" s="45"/>
       <c r="D634" s="6"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="6"/>
       <c r="B635" s="36"/>
-      <c r="C635" s="46"/>
+      <c r="C635" s="45"/>
       <c r="D635" s="6"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="6"/>
       <c r="B636" s="36"/>
-      <c r="C636" s="46"/>
+      <c r="C636" s="45"/>
       <c r="D636" s="6"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="6"/>
       <c r="B637" s="36"/>
-      <c r="C637" s="46"/>
+      <c r="C637" s="45"/>
       <c r="D637" s="6"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="6"/>
       <c r="B638" s="36"/>
-      <c r="C638" s="46"/>
+      <c r="C638" s="45"/>
       <c r="D638" s="6"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="6"/>
       <c r="B639" s="36"/>
-      <c r="C639" s="46"/>
+      <c r="C639" s="45"/>
       <c r="D639" s="6"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="6"/>
       <c r="B640" s="36"/>
-      <c r="C640" s="46"/>
+      <c r="C640" s="45"/>
       <c r="D640" s="6"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="6"/>
       <c r="B641" s="36"/>
-      <c r="C641" s="46"/>
+      <c r="C641" s="45"/>
       <c r="D641" s="6"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="6"/>
       <c r="B642" s="36"/>
-      <c r="C642" s="46"/>
+      <c r="C642" s="45"/>
       <c r="D642" s="6"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="6"/>
       <c r="B643" s="36"/>
-      <c r="C643" s="46"/>
+      <c r="C643" s="45"/>
       <c r="D643" s="6"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="6"/>
       <c r="B644" s="36"/>
-      <c r="C644" s="46"/>
+      <c r="C644" s="45"/>
       <c r="D644" s="6"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="6"/>
       <c r="B645" s="36"/>
-      <c r="C645" s="46"/>
+      <c r="C645" s="45"/>
       <c r="D645" s="6"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="6"/>
       <c r="B646" s="36"/>
-      <c r="C646" s="46"/>
+      <c r="C646" s="45"/>
       <c r="D646" s="6"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="6"/>
       <c r="B647" s="36"/>
-      <c r="C647" s="46"/>
+      <c r="C647" s="45"/>
       <c r="D647" s="6"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="6"/>
       <c r="B648" s="36"/>
-      <c r="C648" s="46"/>
+      <c r="C648" s="45"/>
       <c r="D648" s="6"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="6"/>
       <c r="B649" s="36"/>
-      <c r="C649" s="46"/>
+      <c r="C649" s="45"/>
       <c r="D649" s="6"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="6"/>
       <c r="B650" s="36"/>
-      <c r="C650" s="46"/>
+      <c r="C650" s="45"/>
       <c r="D650" s="6"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="6"/>
       <c r="B651" s="36"/>
-      <c r="C651" s="46"/>
+      <c r="C651" s="45"/>
       <c r="D651" s="6"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="6"/>
       <c r="B652" s="36"/>
-      <c r="C652" s="46"/>
+      <c r="C652" s="45"/>
       <c r="D652" s="6"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="6"/>
       <c r="B653" s="36"/>
-      <c r="C653" s="46"/>
+      <c r="C653" s="45"/>
       <c r="D653" s="6"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="6"/>
       <c r="B654" s="36"/>
-      <c r="C654" s="46"/>
+      <c r="C654" s="45"/>
       <c r="D654" s="6"/>
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="6"/>
       <c r="B655" s="36"/>
-      <c r="C655" s="46"/>
+      <c r="C655" s="45"/>
       <c r="D655" s="6"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="6"/>
       <c r="B656" s="36"/>
-      <c r="C656" s="46"/>
+      <c r="C656" s="45"/>
       <c r="D656" s="6"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="6"/>
       <c r="B657" s="36"/>
-      <c r="C657" s="46"/>
+      <c r="C657" s="45"/>
       <c r="D657" s="6"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="6"/>
       <c r="B658" s="36"/>
-      <c r="C658" s="46"/>
+      <c r="C658" s="45"/>
       <c r="D658" s="6"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="6"/>
       <c r="B659" s="36"/>
-      <c r="C659" s="46"/>
+      <c r="C659" s="45"/>
       <c r="D659" s="6"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="6"/>
       <c r="B660" s="36"/>
-      <c r="C660" s="46"/>
+      <c r="C660" s="45"/>
       <c r="D660" s="6"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="6"/>
       <c r="B661" s="36"/>
-      <c r="C661" s="46"/>
+      <c r="C661" s="45"/>
       <c r="D661" s="6"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="6"/>
       <c r="B662" s="36"/>
-      <c r="C662" s="46"/>
+      <c r="C662" s="45"/>
       <c r="D662" s="6"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="6"/>
       <c r="B663" s="36"/>
-      <c r="C663" s="46"/>
+      <c r="C663" s="45"/>
       <c r="D663" s="6"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="6"/>
       <c r="B664" s="36"/>
-      <c r="C664" s="46"/>
+      <c r="C664" s="45"/>
       <c r="D664" s="6"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="6"/>
       <c r="B665" s="36"/>
-      <c r="C665" s="46"/>
+      <c r="C665" s="45"/>
       <c r="D665" s="6"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="6"/>
       <c r="B666" s="36"/>
-      <c r="C666" s="46"/>
+      <c r="C666" s="45"/>
       <c r="D666" s="6"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="6"/>
       <c r="B667" s="36"/>
-      <c r="C667" s="46"/>
+      <c r="C667" s="45"/>
       <c r="D667" s="6"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="6"/>
       <c r="B668" s="36"/>
-      <c r="C668" s="46"/>
+      <c r="C668" s="45"/>
       <c r="D668" s="6"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="6"/>
       <c r="B669" s="36"/>
-      <c r="C669" s="46"/>
+      <c r="C669" s="45"/>
       <c r="D669" s="6"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="6"/>
       <c r="B670" s="36"/>
-      <c r="C670" s="46"/>
+      <c r="C670" s="45"/>
       <c r="D670" s="6"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="6"/>
       <c r="B671" s="36"/>
-      <c r="C671" s="46"/>
+      <c r="C671" s="45"/>
       <c r="D671" s="6"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="6"/>
       <c r="B672" s="36"/>
-      <c r="C672" s="46"/>
+      <c r="C672" s="45"/>
       <c r="D672" s="6"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="6"/>
       <c r="B673" s="36"/>
-      <c r="C673" s="46"/>
+      <c r="C673" s="45"/>
       <c r="D673" s="6"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="6"/>
       <c r="B674" s="36"/>
-      <c r="C674" s="46"/>
+      <c r="C674" s="45"/>
       <c r="D674" s="6"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="6"/>
       <c r="B675" s="36"/>
-      <c r="C675" s="46"/>
+      <c r="C675" s="45"/>
       <c r="D675" s="6"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="6"/>
       <c r="B676" s="36"/>
-      <c r="C676" s="46"/>
+      <c r="C676" s="45"/>
       <c r="D676" s="6"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="6"/>
       <c r="B677" s="36"/>
-      <c r="C677" s="46"/>
+      <c r="C677" s="45"/>
       <c r="D677" s="6"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="6"/>
       <c r="B678" s="36"/>
-      <c r="C678" s="46"/>
+      <c r="C678" s="45"/>
       <c r="D678" s="6"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="6"/>
       <c r="B679" s="36"/>
-      <c r="C679" s="46"/>
+      <c r="C679" s="45"/>
       <c r="D679" s="6"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="6"/>
       <c r="B680" s="36"/>
-      <c r="C680" s="46"/>
+      <c r="C680" s="45"/>
       <c r="D680" s="6"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="6"/>
       <c r="B681" s="36"/>
-      <c r="C681" s="46"/>
+      <c r="C681" s="45"/>
       <c r="D681" s="6"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="6"/>
       <c r="B682" s="36"/>
-      <c r="C682" s="46"/>
+      <c r="C682" s="45"/>
       <c r="D682" s="6"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="6"/>
       <c r="B683" s="36"/>
-      <c r="C683" s="46"/>
+      <c r="C683" s="45"/>
       <c r="D683" s="6"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="6"/>
       <c r="B684" s="36"/>
-      <c r="C684" s="46"/>
+      <c r="C684" s="45"/>
       <c r="D684" s="6"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="6"/>
       <c r="B685" s="36"/>
-      <c r="C685" s="46"/>
+      <c r="C685" s="45"/>
       <c r="D685" s="6"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="6"/>
       <c r="B686" s="36"/>
-      <c r="C686" s="46"/>
+      <c r="C686" s="45"/>
       <c r="D686" s="6"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="6"/>
       <c r="B687" s="36"/>
-      <c r="C687" s="46"/>
+      <c r="C687" s="45"/>
       <c r="D687" s="6"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="6"/>
       <c r="B688" s="36"/>
-      <c r="C688" s="46"/>
+      <c r="C688" s="45"/>
       <c r="D688" s="6"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="6"/>
       <c r="B689" s="36"/>
-      <c r="C689" s="46"/>
+      <c r="C689" s="45"/>
       <c r="D689" s="6"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="6"/>
       <c r="B690" s="36"/>
-      <c r="C690" s="46"/>
+      <c r="C690" s="45"/>
       <c r="D690" s="6"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="6"/>
       <c r="B691" s="36"/>
-      <c r="C691" s="46"/>
+      <c r="C691" s="45"/>
       <c r="D691" s="6"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="6"/>
       <c r="B692" s="36"/>
-      <c r="C692" s="46"/>
+      <c r="C692" s="45"/>
       <c r="D692" s="6"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="6"/>
       <c r="B693" s="36"/>
-      <c r="C693" s="46"/>
+      <c r="C693" s="45"/>
       <c r="D693" s="6"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="6"/>
       <c r="B694" s="36"/>
-      <c r="C694" s="46"/>
+      <c r="C694" s="45"/>
       <c r="D694" s="6"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="6"/>
       <c r="B695" s="36"/>
-      <c r="C695" s="46"/>
+      <c r="C695" s="45"/>
       <c r="D695" s="6"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="6"/>
       <c r="B696" s="36"/>
-      <c r="C696" s="46"/>
+      <c r="C696" s="45"/>
       <c r="D696" s="6"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="6"/>
       <c r="B697" s="36"/>
-      <c r="C697" s="46"/>
+      <c r="C697" s="45"/>
       <c r="D697" s="6"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="6"/>
       <c r="B698" s="36"/>
-      <c r="C698" s="46"/>
+      <c r="C698" s="45"/>
       <c r="D698" s="6"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="6"/>
       <c r="B699" s="36"/>
-      <c r="C699" s="46"/>
+      <c r="C699" s="45"/>
       <c r="D699" s="6"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="6"/>
       <c r="B700" s="36"/>
-      <c r="C700" s="46"/>
+      <c r="C700" s="45"/>
       <c r="D700" s="6"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="6"/>
       <c r="B701" s="36"/>
-      <c r="C701" s="46"/>
+      <c r="C701" s="45"/>
       <c r="D701" s="6"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="6"/>
       <c r="B702" s="36"/>
-      <c r="C702" s="46"/>
+      <c r="C702" s="45"/>
       <c r="D702" s="6"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="6"/>
       <c r="B703" s="36"/>
-      <c r="C703" s="46"/>
+      <c r="C703" s="45"/>
       <c r="D703" s="6"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="6"/>
       <c r="B704" s="36"/>
-      <c r="C704" s="46"/>
+      <c r="C704" s="45"/>
       <c r="D704" s="6"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="6"/>
       <c r="B705" s="36"/>
-      <c r="C705" s="46"/>
+      <c r="C705" s="45"/>
       <c r="D705" s="6"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="6"/>
       <c r="B706" s="36"/>
-      <c r="C706" s="46"/>
+      <c r="C706" s="45"/>
       <c r="D706" s="6"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="6"/>
       <c r="B707" s="36"/>
-      <c r="C707" s="46"/>
+      <c r="C707" s="45"/>
       <c r="D707" s="6"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="6"/>
       <c r="B708" s="36"/>
-      <c r="C708" s="46"/>
+      <c r="C708" s="45"/>
       <c r="D708" s="6"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="6"/>
       <c r="B709" s="36"/>
-      <c r="C709" s="46"/>
+      <c r="C709" s="45"/>
       <c r="D709" s="6"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="6"/>
       <c r="B710" s="36"/>
-      <c r="C710" s="46"/>
+      <c r="C710" s="45"/>
       <c r="D710" s="6"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="6"/>
       <c r="B711" s="36"/>
-      <c r="C711" s="46"/>
+      <c r="C711" s="45"/>
       <c r="D711" s="6"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="6"/>
       <c r="B712" s="36"/>
-      <c r="C712" s="46"/>
+      <c r="C712" s="45"/>
       <c r="D712" s="6"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="6"/>
       <c r="B713" s="36"/>
-      <c r="C713" s="46"/>
+      <c r="C713" s="45"/>
       <c r="D713" s="6"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="6"/>
       <c r="B714" s="36"/>
-      <c r="C714" s="46"/>
+      <c r="C714" s="45"/>
       <c r="D714" s="6"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="6"/>
       <c r="B715" s="36"/>
-      <c r="C715" s="46"/>
+      <c r="C715" s="45"/>
       <c r="D715" s="6"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="6"/>
       <c r="B716" s="36"/>
-      <c r="C716" s="46"/>
+      <c r="C716" s="45"/>
       <c r="D716" s="6"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="6"/>
       <c r="B717" s="36"/>
-      <c r="C717" s="46"/>
+      <c r="C717" s="45"/>
       <c r="D717" s="6"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="6"/>
       <c r="B718" s="36"/>
-      <c r="C718" s="46"/>
+      <c r="C718" s="45"/>
       <c r="D718" s="6"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="6"/>
       <c r="B719" s="36"/>
-      <c r="C719" s="46"/>
+      <c r="C719" s="45"/>
       <c r="D719" s="6"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="6"/>
       <c r="B720" s="36"/>
-      <c r="C720" s="46"/>
+      <c r="C720" s="45"/>
       <c r="D720" s="6"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="6"/>
       <c r="B721" s="36"/>
-      <c r="C721" s="46"/>
+      <c r="C721" s="45"/>
       <c r="D721" s="6"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="6"/>
       <c r="B722" s="36"/>
-      <c r="C722" s="46"/>
+      <c r="C722" s="45"/>
       <c r="D722" s="6"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="6"/>
       <c r="B723" s="36"/>
-      <c r="C723" s="46"/>
+      <c r="C723" s="45"/>
       <c r="D723" s="6"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="6"/>
       <c r="B724" s="36"/>
-      <c r="C724" s="46"/>
+      <c r="C724" s="45"/>
       <c r="D724" s="6"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="6"/>
       <c r="B725" s="36"/>
-      <c r="C725" s="46"/>
+      <c r="C725" s="45"/>
       <c r="D725" s="6"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="6"/>
       <c r="B726" s="36"/>
-      <c r="C726" s="46"/>
+      <c r="C726" s="45"/>
       <c r="D726" s="6"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="6"/>
       <c r="B727" s="36"/>
-      <c r="C727" s="46"/>
+      <c r="C727" s="45"/>
       <c r="D727" s="6"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="6"/>
       <c r="B728" s="36"/>
-      <c r="C728" s="46"/>
+      <c r="C728" s="45"/>
       <c r="D728" s="6"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="6"/>
       <c r="B729" s="36"/>
-      <c r="C729" s="46"/>
+      <c r="C729" s="45"/>
       <c r="D729" s="6"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="6"/>
       <c r="B730" s="36"/>
-      <c r="C730" s="46"/>
+      <c r="C730" s="45"/>
       <c r="D730" s="6"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="6"/>
       <c r="B731" s="36"/>
-      <c r="C731" s="46"/>
+      <c r="C731" s="45"/>
       <c r="D731" s="6"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="6"/>
       <c r="B732" s="36"/>
-      <c r="C732" s="46"/>
+      <c r="C732" s="45"/>
       <c r="D732" s="6"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="6"/>
       <c r="B733" s="36"/>
-      <c r="C733" s="46"/>
+      <c r="C733" s="45"/>
       <c r="D733" s="6"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="6"/>
       <c r="B734" s="36"/>
-      <c r="C734" s="46"/>
+      <c r="C734" s="45"/>
       <c r="D734" s="6"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="6"/>
       <c r="B735" s="36"/>
-      <c r="C735" s="46"/>
+      <c r="C735" s="45"/>
       <c r="D735" s="6"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="6"/>
       <c r="B736" s="36"/>
-      <c r="C736" s="46"/>
+      <c r="C736" s="45"/>
       <c r="D736" s="6"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="6"/>
       <c r="B737" s="36"/>
-      <c r="C737" s="46"/>
+      <c r="C737" s="45"/>
       <c r="D737" s="6"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="6"/>
       <c r="B738" s="36"/>
-      <c r="C738" s="46"/>
+      <c r="C738" s="45"/>
       <c r="D738" s="6"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="6"/>
       <c r="B739" s="36"/>
-      <c r="C739" s="46"/>
+      <c r="C739" s="45"/>
       <c r="D739" s="6"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="6"/>
       <c r="B740" s="36"/>
-      <c r="C740" s="46"/>
+      <c r="C740" s="45"/>
       <c r="D740" s="6"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="6"/>
       <c r="B741" s="36"/>
-      <c r="C741" s="46"/>
+      <c r="C741" s="45"/>
       <c r="D741" s="6"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="6"/>
       <c r="B742" s="36"/>
-      <c r="C742" s="46"/>
+      <c r="C742" s="45"/>
       <c r="D742" s="6"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="6"/>
       <c r="B743" s="36"/>
-      <c r="C743" s="46"/>
+      <c r="C743" s="45"/>
       <c r="D743" s="6"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="6"/>
       <c r="B744" s="36"/>
-      <c r="C744" s="46"/>
+      <c r="C744" s="45"/>
       <c r="D744" s="6"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="6"/>
       <c r="B745" s="36"/>
-      <c r="C745" s="46"/>
+      <c r="C745" s="45"/>
       <c r="D745" s="6"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="6"/>
       <c r="B746" s="36"/>
-      <c r="C746" s="46"/>
+      <c r="C746" s="45"/>
       <c r="D746" s="6"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="6"/>
       <c r="B747" s="36"/>
-      <c r="C747" s="46"/>
+      <c r="C747" s="45"/>
       <c r="D747" s="6"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="6"/>
       <c r="B748" s="36"/>
-      <c r="C748" s="46"/>
+      <c r="C748" s="45"/>
       <c r="D748" s="6"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="6"/>
       <c r="B749" s="36"/>
-      <c r="C749" s="46"/>
+      <c r="C749" s="45"/>
       <c r="D749" s="6"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="6"/>
       <c r="B750" s="36"/>
-      <c r="C750" s="46"/>
+      <c r="C750" s="45"/>
       <c r="D750" s="6"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="6"/>
       <c r="B751" s="36"/>
-      <c r="C751" s="46"/>
+      <c r="C751" s="45"/>
       <c r="D751" s="6"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="6"/>
       <c r="B752" s="36"/>
-      <c r="C752" s="46"/>
+      <c r="C752" s="45"/>
       <c r="D752" s="6"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="6"/>
       <c r="B753" s="36"/>
-      <c r="C753" s="46"/>
+      <c r="C753" s="45"/>
       <c r="D753" s="6"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="6"/>
       <c r="B754" s="36"/>
-      <c r="C754" s="46"/>
+      <c r="C754" s="45"/>
       <c r="D754" s="6"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="6"/>
       <c r="B755" s="36"/>
-      <c r="C755" s="46"/>
+      <c r="C755" s="45"/>
       <c r="D755" s="6"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="6"/>
       <c r="B756" s="36"/>
-      <c r="C756" s="46"/>
+      <c r="C756" s="45"/>
       <c r="D756" s="6"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="6"/>
       <c r="B757" s="36"/>
-      <c r="C757" s="46"/>
+      <c r="C757" s="45"/>
       <c r="D757" s="6"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="6"/>
       <c r="B758" s="36"/>
-      <c r="C758" s="46"/>
+      <c r="C758" s="45"/>
       <c r="D758" s="6"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="6"/>
       <c r="B759" s="36"/>
-      <c r="C759" s="46"/>
+      <c r="C759" s="45"/>
       <c r="D759" s="6"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="6"/>
       <c r="B760" s="36"/>
-      <c r="C760" s="46"/>
+      <c r="C760" s="45"/>
       <c r="D760" s="6"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="6"/>
       <c r="B761" s="36"/>
-      <c r="C761" s="46"/>
+      <c r="C761" s="45"/>
       <c r="D761" s="6"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="6"/>
       <c r="B762" s="36"/>
-      <c r="C762" s="46"/>
+      <c r="C762" s="45"/>
       <c r="D762" s="6"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="6"/>
       <c r="B763" s="36"/>
-      <c r="C763" s="46"/>
+      <c r="C763" s="45"/>
       <c r="D763" s="6"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="6"/>
       <c r="B764" s="36"/>
-      <c r="C764" s="46"/>
+      <c r="C764" s="45"/>
       <c r="D764" s="6"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="6"/>
       <c r="B765" s="36"/>
-      <c r="C765" s="46"/>
+      <c r="C765" s="45"/>
       <c r="D765" s="6"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="6"/>
       <c r="B766" s="36"/>
-      <c r="C766" s="46"/>
+      <c r="C766" s="45"/>
       <c r="D766" s="6"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="6"/>
       <c r="B767" s="36"/>
-      <c r="C767" s="46"/>
+      <c r="C767" s="45"/>
       <c r="D767" s="6"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="6"/>
       <c r="B768" s="36"/>
-      <c r="C768" s="46"/>
+      <c r="C768" s="45"/>
       <c r="D768" s="6"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="6"/>
       <c r="B769" s="36"/>
-      <c r="C769" s="46"/>
+      <c r="C769" s="45"/>
       <c r="D769" s="6"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="6"/>
       <c r="B770" s="36"/>
-      <c r="C770" s="46"/>
+      <c r="C770" s="45"/>
       <c r="D770" s="6"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="6"/>
       <c r="B771" s="36"/>
-      <c r="C771" s="46"/>
+      <c r="C771" s="45"/>
       <c r="D771" s="6"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="6"/>
       <c r="B772" s="36"/>
-      <c r="C772" s="46"/>
+      <c r="C772" s="45"/>
       <c r="D772" s="6"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="6"/>
       <c r="B773" s="36"/>
-      <c r="C773" s="46"/>
+      <c r="C773" s="45"/>
       <c r="D773" s="6"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="6"/>
       <c r="B774" s="36"/>
-      <c r="C774" s="46"/>
+      <c r="C774" s="45"/>
       <c r="D774" s="6"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="6"/>
       <c r="B775" s="36"/>
-      <c r="C775" s="46"/>
+      <c r="C775" s="45"/>
       <c r="D775" s="6"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="6"/>
       <c r="B776" s="36"/>
-      <c r="C776" s="46"/>
+      <c r="C776" s="45"/>
       <c r="D776" s="6"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="6"/>
       <c r="B777" s="36"/>
-      <c r="C777" s="46"/>
+      <c r="C777" s="45"/>
       <c r="D777" s="6"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="6"/>
       <c r="B778" s="36"/>
-      <c r="C778" s="46"/>
+      <c r="C778" s="45"/>
       <c r="D778" s="6"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="6"/>
       <c r="B779" s="36"/>
-      <c r="C779" s="46"/>
+      <c r="C779" s="45"/>
       <c r="D779" s="6"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="6"/>
       <c r="B780" s="36"/>
-      <c r="C780" s="46"/>
+      <c r="C780" s="45"/>
       <c r="D780" s="6"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="6"/>
       <c r="B781" s="36"/>
-      <c r="C781" s="46"/>
+      <c r="C781" s="45"/>
       <c r="D781" s="6"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="6"/>
       <c r="B782" s="36"/>
-      <c r="C782" s="46"/>
+      <c r="C782" s="45"/>
       <c r="D782" s="6"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="6"/>
       <c r="B783" s="36"/>
-      <c r="C783" s="46"/>
+      <c r="C783" s="45"/>
       <c r="D783" s="6"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="6"/>
       <c r="B784" s="36"/>
-      <c r="C784" s="46"/>
+      <c r="C784" s="45"/>
       <c r="D784" s="6"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="6"/>
       <c r="B785" s="36"/>
-      <c r="C785" s="46"/>
+      <c r="C785" s="45"/>
       <c r="D785" s="6"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="6"/>
       <c r="B786" s="36"/>
-      <c r="C786" s="46"/>
+      <c r="C786" s="45"/>
       <c r="D786" s="6"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="6"/>
       <c r="B787" s="36"/>
-      <c r="C787" s="46"/>
+      <c r="C787" s="45"/>
       <c r="D787" s="6"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="6"/>
       <c r="B788" s="36"/>
-      <c r="C788" s="46"/>
+      <c r="C788" s="45"/>
       <c r="D788" s="6"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="6"/>
       <c r="B789" s="36"/>
-      <c r="C789" s="46"/>
+      <c r="C789" s="45"/>
       <c r="D789" s="6"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="6"/>
       <c r="B790" s="36"/>
-      <c r="C790" s="46"/>
+      <c r="C790" s="45"/>
       <c r="D790" s="6"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="6"/>
       <c r="B791" s="36"/>
-      <c r="C791" s="46"/>
+      <c r="C791" s="45"/>
       <c r="D791" s="6"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="6"/>
       <c r="B792" s="36"/>
-      <c r="C792" s="46"/>
+      <c r="C792" s="45"/>
       <c r="D792" s="6"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="6"/>
       <c r="B793" s="36"/>
-      <c r="C793" s="46"/>
+      <c r="C793" s="45"/>
       <c r="D793" s="6"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="6"/>
       <c r="B794" s="36"/>
-      <c r="C794" s="46"/>
+      <c r="C794" s="45"/>
       <c r="D794" s="6"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="6"/>
       <c r="B795" s="36"/>
-      <c r="C795" s="46"/>
+      <c r="C795" s="45"/>
       <c r="D795" s="6"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="6"/>
       <c r="B796" s="36"/>
-      <c r="C796" s="46"/>
+      <c r="C796" s="45"/>
       <c r="D796" s="6"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="6"/>
       <c r="B797" s="36"/>
-      <c r="C797" s="46"/>
+      <c r="C797" s="45"/>
       <c r="D797" s="6"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="6"/>
       <c r="B798" s="36"/>
-      <c r="C798" s="46"/>
+      <c r="C798" s="45"/>
       <c r="D798" s="6"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="6"/>
       <c r="B799" s="36"/>
-      <c r="C799" s="46"/>
+      <c r="C799" s="45"/>
       <c r="D799" s="6"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="6"/>
       <c r="B800" s="36"/>
-      <c r="C800" s="46"/>
+      <c r="C800" s="45"/>
       <c r="D800" s="6"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="6"/>
       <c r="B801" s="36"/>
-      <c r="C801" s="46"/>
+      <c r="C801" s="45"/>
       <c r="D801" s="6"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="6"/>
       <c r="B802" s="36"/>
-      <c r="C802" s="46"/>
+      <c r="C802" s="45"/>
       <c r="D802" s="6"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="6"/>
       <c r="B803" s="36"/>
-      <c r="C803" s="46"/>
+      <c r="C803" s="45"/>
       <c r="D803" s="6"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="6"/>
       <c r="B804" s="36"/>
-      <c r="C804" s="46"/>
+      <c r="C804" s="45"/>
       <c r="D804" s="6"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="6"/>
       <c r="B805" s="36"/>
-      <c r="C805" s="46"/>
+      <c r="C805" s="45"/>
       <c r="D805" s="6"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="6"/>
       <c r="B806" s="36"/>
-      <c r="C806" s="46"/>
+      <c r="C806" s="45"/>
       <c r="D806" s="6"/>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="6"/>
       <c r="B807" s="36"/>
-      <c r="C807" s="46"/>
+      <c r="C807" s="45"/>
       <c r="D807" s="6"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="6"/>
       <c r="B808" s="36"/>
-      <c r="C808" s="46"/>
+      <c r="C808" s="45"/>
       <c r="D808" s="6"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="6"/>
       <c r="B809" s="36"/>
-      <c r="C809" s="46"/>
+      <c r="C809" s="45"/>
       <c r="D809" s="6"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="6"/>
       <c r="B810" s="36"/>
-      <c r="C810" s="46"/>
+      <c r="C810" s="45"/>
       <c r="D810" s="6"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="6"/>
       <c r="B811" s="36"/>
-      <c r="C811" s="46"/>
+      <c r="C811" s="45"/>
       <c r="D811" s="6"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="6"/>
       <c r="B812" s="36"/>
-      <c r="C812" s="46"/>
+      <c r="C812" s="45"/>
       <c r="D812" s="6"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="6"/>
       <c r="B813" s="36"/>
-      <c r="C813" s="46"/>
+      <c r="C813" s="45"/>
       <c r="D813" s="6"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="6"/>
       <c r="B814" s="36"/>
-      <c r="C814" s="46"/>
+      <c r="C814" s="45"/>
       <c r="D814" s="6"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="6"/>
       <c r="B815" s="36"/>
-      <c r="C815" s="46"/>
+      <c r="C815" s="45"/>
       <c r="D815" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A215:D215"/>
     <mergeCell ref="A217:D217"/>
     <mergeCell ref="B16:B17"/>
@@ -11459,26 +11487,12 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/libfiles/ZEs标准IO_CMM103.xlsx
+++ b/app/libfiles/ZEs标准IO_CMM103.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="539">
   <si>
     <t>Temperature Input(温度输入)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1981,10 +1981,6 @@
   </si>
   <si>
     <t>主底板扩展槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加料平台楼梯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2180,10 +2176,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Heater zone 7</t>
-  </si>
-  <si>
-    <t>加热七区</t>
+    <t>前安全门关2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座台维护模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inj.Unit maintenance mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front Door Closed 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2428,7 +2433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2491,6 +2496,9 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2529,12 +2537,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5064,19 +5066,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>532</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>533</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>448</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>534</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5153,13 +5155,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>437</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>435</v>
@@ -5309,7 +5311,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5322,12 +5324,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="19" t="s">
         <v>450</v>
       </c>
@@ -5379,12 +5381,12 @@
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>463</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="25" t="s">
@@ -5411,12 +5413,12 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:15" ht="15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="60"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="27" t="s">
         <v>242</v>
       </c>
@@ -5464,12 +5466,12 @@
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:15" ht="15">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="25" t="s">
@@ -5480,12 +5482,12 @@
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:15" ht="15">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="25" t="s">
@@ -5528,12 +5530,12 @@
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5554,20 +5556,20 @@
   <dimension ref="A1:E815"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E182" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:D1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
+      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.125" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="47" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="39" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="48" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="9" style="48"/>
+    <col min="5" max="5" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5577,7 +5579,7 @@
       <c r="B1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -5586,36 +5588,36 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B2" s="32"/>
-      <c r="C2" s="40"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="13.5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="41"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
@@ -5624,18 +5626,18 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
@@ -5644,18 +5646,18 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="4"/>
@@ -5664,8 +5666,8 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
@@ -5673,17 +5675,17 @@
         <v>17</v>
       </c>
       <c r="B11" s="33"/>
-      <c r="C11" s="41"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
@@ -5692,18 +5694,18 @@
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4"/>
@@ -5712,18 +5714,18 @@
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="66" t="s">
         <v>425</v>
       </c>
       <c r="D16" s="4"/>
@@ -5732,8 +5734,8 @@
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:5">
@@ -5741,39 +5743,39 @@
         <v>18</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="60" t="s">
         <v>423</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>424</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>421</v>
       </c>
       <c r="D21" s="4"/>
@@ -5782,78 +5784,78 @@
       <c r="A22" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="C23" s="61" t="s">
         <v>516</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>517</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
+        <v>517</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B25" s="33"/>
-      <c r="C25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
+        <v>519</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
+        <v>520</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
+        <v>521</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+        <v>522</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -5862,24 +5864,24 @@
       <c r="A31" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="13.5">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="33"/>
-      <c r="C33" s="41"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
@@ -5889,7 +5891,7 @@
       <c r="B34" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="43" t="s">
         <v>201</v>
       </c>
       <c r="D34" s="7"/>
@@ -5898,10 +5900,10 @@
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="71" t="s">
         <v>418</v>
       </c>
       <c r="D35" s="4"/>
@@ -5910,8 +5912,8 @@
       <c r="A36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4">
@@ -5921,7 +5923,7 @@
       <c r="B37" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="4"/>
@@ -5933,7 +5935,7 @@
       <c r="B38" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="43" t="s">
         <v>201</v>
       </c>
       <c r="D38" s="4"/>
@@ -5942,10 +5944,10 @@
       <c r="A39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="71" t="s">
         <v>419</v>
       </c>
       <c r="D39" s="4"/>
@@ -5954,8 +5956,8 @@
       <c r="A40" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
@@ -5965,7 +5967,7 @@
       <c r="B41" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="4"/>
@@ -5975,7 +5977,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="33"/>
-      <c r="C42" s="41"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4">
@@ -5985,7 +5987,7 @@
       <c r="B43" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="44" t="s">
         <v>416</v>
       </c>
       <c r="D43" s="4"/>
@@ -5997,7 +5999,7 @@
       <c r="B44" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="4"/>
@@ -6009,7 +6011,7 @@
       <c r="B45" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="45" t="s">
         <v>414</v>
       </c>
       <c r="D45" s="4"/>
@@ -6021,7 +6023,7 @@
       <c r="B46" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="4"/>
@@ -6031,7 +6033,7 @@
         <v>33</v>
       </c>
       <c r="B47" s="35"/>
-      <c r="C47" s="43"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4">
@@ -6041,7 +6043,7 @@
       <c r="B48" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="4"/>
@@ -6051,7 +6053,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="43"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4">
@@ -6061,7 +6063,7 @@
       <c r="B50" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="4"/>
@@ -6071,7 +6073,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="33"/>
-      <c r="C51" s="41"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4">
@@ -6081,7 +6083,7 @@
       <c r="B52" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="43" t="s">
         <v>201</v>
       </c>
       <c r="D52" s="4"/>
@@ -6090,10 +6092,10 @@
       <c r="A53" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="76" t="s">
+      <c r="C53" s="75" t="s">
         <v>417</v>
       </c>
       <c r="D53" s="4"/>
@@ -6102,8 +6104,8 @@
       <c r="A54" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="73"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
@@ -6113,7 +6115,7 @@
       <c r="B55" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="4"/>
@@ -6125,7 +6127,7 @@
       <c r="B56" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="43" t="s">
         <v>201</v>
       </c>
       <c r="D56" s="4"/>
@@ -6134,10 +6136,10 @@
       <c r="A57" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="73" t="s">
         <v>415</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="75" t="s">
         <v>416</v>
       </c>
       <c r="D57" s="4"/>
@@ -6146,8 +6148,8 @@
       <c r="A58" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="73"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4">
@@ -6157,113 +6159,113 @@
       <c r="B59" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B60" s="33"/>
-      <c r="C60" s="41"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="B61" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="B61" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="54" t="s">
         <v>201</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B62" s="74"/>
-      <c r="C62" s="76"/>
+        <v>525</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="73"/>
+        <v>526</v>
+      </c>
+      <c r="B63" s="74"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="54" t="s">
         <v>239</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="B65" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="B65" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="54" t="s">
         <v>201</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B66" s="74"/>
-      <c r="C66" s="76"/>
+        <v>527</v>
+      </c>
+      <c r="B66" s="73"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B67" s="75"/>
-      <c r="C67" s="73"/>
+        <v>528</v>
+      </c>
+      <c r="B67" s="74"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="54" t="s">
         <v>239</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="13.5">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="33"/>
-      <c r="C70" s="41"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4">
@@ -6273,7 +6275,7 @@
       <c r="B71" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="44" t="s">
         <v>249</v>
       </c>
       <c r="D71" s="4"/>
@@ -6285,7 +6287,7 @@
       <c r="B72" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="44" t="s">
         <v>251</v>
       </c>
       <c r="D72" s="4"/>
@@ -6297,7 +6299,7 @@
       <c r="B73" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="44" t="s">
         <v>253</v>
       </c>
       <c r="D73" s="4"/>
@@ -6307,17 +6309,23 @@
         <v>40</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="C74" s="43"/>
+        <v>536</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>537</v>
+      </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="43"/>
+      <c r="B75" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>538</v>
+      </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4">
@@ -6325,9 +6333,9 @@
         <v>42</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="C76" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="C76" s="44" t="s">
         <v>254</v>
       </c>
       <c r="D76" s="4"/>
@@ -6339,7 +6347,7 @@
       <c r="B77" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="44" t="s">
         <v>256</v>
       </c>
       <c r="D77" s="4"/>
@@ -6349,10 +6357,10 @@
         <v>44</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>493</v>
+        <v>511</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>492</v>
       </c>
       <c r="D78" s="4"/>
     </row>
@@ -6361,7 +6369,7 @@
         <v>45</v>
       </c>
       <c r="B79" s="33"/>
-      <c r="C79" s="41"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4">
@@ -6371,7 +6379,7 @@
       <c r="B80" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="44" t="s">
         <v>258</v>
       </c>
       <c r="D80" s="4"/>
@@ -6383,7 +6391,7 @@
       <c r="B81" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="44" t="s">
         <v>260</v>
       </c>
       <c r="D81" s="4"/>
@@ -6395,7 +6403,7 @@
       <c r="B82" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="44" t="s">
         <v>262</v>
       </c>
       <c r="D82" s="4"/>
@@ -6407,7 +6415,7 @@
       <c r="B83" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="44" t="s">
         <v>264</v>
       </c>
       <c r="D83" s="4"/>
@@ -6417,10 +6425,10 @@
         <v>50</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>494</v>
+        <v>501</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>493</v>
       </c>
       <c r="D84" s="4"/>
     </row>
@@ -6431,7 +6439,7 @@
       <c r="B85" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="44" t="s">
         <v>266</v>
       </c>
       <c r="D85" s="4"/>
@@ -6443,7 +6451,7 @@
       <c r="B86" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="44" t="s">
         <v>268</v>
       </c>
       <c r="D86" s="4"/>
@@ -6455,7 +6463,7 @@
       <c r="B87" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="44" t="s">
         <v>270</v>
       </c>
       <c r="D87" s="4"/>
@@ -6465,7 +6473,7 @@
         <v>62</v>
       </c>
       <c r="B88" s="33"/>
-      <c r="C88" s="41"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4">
@@ -6473,10 +6481,10 @@
         <v>54</v>
       </c>
       <c r="B89" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C89" s="44" t="s">
         <v>495</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>496</v>
       </c>
       <c r="D89" s="4"/>
     </row>
@@ -6485,10 +6493,10 @@
         <v>55</v>
       </c>
       <c r="B90" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="C90" s="44" t="s">
         <v>497</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>498</v>
       </c>
       <c r="D90" s="4"/>
     </row>
@@ -6499,7 +6507,7 @@
       <c r="B91" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="44" t="s">
         <v>272</v>
       </c>
       <c r="D91" s="4"/>
@@ -6511,7 +6519,7 @@
       <c r="B92" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="44" t="s">
         <v>274</v>
       </c>
       <c r="D92" s="4"/>
@@ -6523,7 +6531,7 @@
       <c r="B93" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="44" t="s">
         <v>276</v>
       </c>
       <c r="D93" s="4"/>
@@ -6533,10 +6541,10 @@
         <v>59</v>
       </c>
       <c r="B94" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="C94" s="44" t="s">
         <v>500</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>501</v>
       </c>
       <c r="D94" s="4"/>
     </row>
@@ -6545,9 +6553,9 @@
         <v>60</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="C95" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="C95" s="44" t="s">
         <v>277</v>
       </c>
       <c r="D95" s="4"/>
@@ -6559,7 +6567,7 @@
       <c r="B96" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="44" t="s">
         <v>279</v>
       </c>
       <c r="D96" s="4"/>
@@ -6569,7 +6577,7 @@
         <v>68</v>
       </c>
       <c r="B97" s="33"/>
-      <c r="C97" s="41"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4">
@@ -6579,7 +6587,7 @@
       <c r="B98" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="44" t="s">
         <v>281</v>
       </c>
       <c r="D98" s="4"/>
@@ -6591,7 +6599,7 @@
       <c r="B99" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="44" t="s">
         <v>283</v>
       </c>
       <c r="D99" s="4"/>
@@ -6603,7 +6611,7 @@
       <c r="B100" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C100" s="44" t="s">
         <v>285</v>
       </c>
       <c r="D100" s="4"/>
@@ -6615,7 +6623,7 @@
       <c r="B101" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="44" t="s">
         <v>287</v>
       </c>
       <c r="D101" s="4"/>
@@ -6627,7 +6635,7 @@
       <c r="B102" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="43" t="s">
+      <c r="C102" s="44" t="s">
         <v>289</v>
       </c>
       <c r="D102" s="4"/>
@@ -6639,7 +6647,7 @@
       <c r="B103" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="C103" s="43" t="s">
+      <c r="C103" s="44" t="s">
         <v>291</v>
       </c>
       <c r="D103" s="4"/>
@@ -6651,7 +6659,7 @@
       <c r="B104" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C104" s="43" t="s">
+      <c r="C104" s="44" t="s">
         <v>293</v>
       </c>
       <c r="D104" s="4"/>
@@ -6663,7 +6671,7 @@
       <c r="B105" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="44" t="s">
         <v>295</v>
       </c>
       <c r="D105" s="4"/>
@@ -6673,7 +6681,7 @@
         <v>85</v>
       </c>
       <c r="B106" s="33"/>
-      <c r="C106" s="41"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4">
@@ -6683,7 +6691,7 @@
       <c r="B107" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="44" t="s">
         <v>297</v>
       </c>
       <c r="D107" s="30"/>
@@ -6695,7 +6703,7 @@
       <c r="B108" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="44" t="s">
         <v>299</v>
       </c>
       <c r="D108" s="30"/>
@@ -6707,7 +6715,7 @@
       <c r="B109" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="44" t="s">
         <v>301</v>
       </c>
       <c r="D109" s="30"/>
@@ -6719,7 +6727,7 @@
       <c r="B110" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="44" t="s">
         <v>303</v>
       </c>
       <c r="D110" s="30"/>
@@ -6729,10 +6737,10 @@
         <v>81</v>
       </c>
       <c r="B111" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="C111" s="44" t="s">
         <v>509</v>
-      </c>
-      <c r="C111" s="43" t="s">
-        <v>510</v>
       </c>
       <c r="D111" s="4"/>
     </row>
@@ -6743,7 +6751,7 @@
       <c r="B112" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C112" s="44" t="s">
         <v>413</v>
       </c>
       <c r="D112" s="4"/>
@@ -6755,7 +6763,7 @@
       <c r="B113" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="44" t="s">
         <v>306</v>
       </c>
       <c r="D113" s="4"/>
@@ -6767,7 +6775,7 @@
       <c r="B114" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C114" s="44" t="s">
         <v>308</v>
       </c>
       <c r="D114" s="4"/>
@@ -6777,7 +6785,7 @@
         <v>94</v>
       </c>
       <c r="B115" s="33"/>
-      <c r="C115" s="41"/>
+      <c r="C115" s="42"/>
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4">
@@ -6787,7 +6795,7 @@
       <c r="B116" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="C116" s="43" t="s">
+      <c r="C116" s="44" t="s">
         <v>310</v>
       </c>
       <c r="D116" s="4"/>
@@ -6799,7 +6807,7 @@
       <c r="B117" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="C117" s="43" t="s">
+      <c r="C117" s="44" t="s">
         <v>412</v>
       </c>
       <c r="D117" s="4"/>
@@ -6811,7 +6819,7 @@
       <c r="B118" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="44" t="s">
         <v>313</v>
       </c>
       <c r="D118" s="4"/>
@@ -6823,7 +6831,7 @@
       <c r="B119" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="C119" s="43" t="s">
+      <c r="C119" s="44" t="s">
         <v>315</v>
       </c>
       <c r="D119" s="4"/>
@@ -6835,7 +6843,7 @@
       <c r="B120" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="C120" s="43" t="s">
+      <c r="C120" s="44" t="s">
         <v>317</v>
       </c>
       <c r="D120" s="4"/>
@@ -6847,7 +6855,7 @@
       <c r="B121" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="C121" s="43" t="s">
+      <c r="C121" s="44" t="s">
         <v>319</v>
       </c>
       <c r="D121" s="4"/>
@@ -6859,7 +6867,7 @@
       <c r="B122" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C122" s="43" t="s">
+      <c r="C122" s="44" t="s">
         <v>321</v>
       </c>
       <c r="D122" s="4"/>
@@ -6871,7 +6879,7 @@
       <c r="B123" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C123" s="44" t="s">
         <v>323</v>
       </c>
       <c r="D123" s="4"/>
@@ -6881,7 +6889,7 @@
         <v>228</v>
       </c>
       <c r="B124" s="33"/>
-      <c r="C124" s="41"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4">
@@ -6891,7 +6899,7 @@
       <c r="B125" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="C125" s="43" t="s">
+      <c r="C125" s="44" t="s">
         <v>325</v>
       </c>
       <c r="D125" s="4"/>
@@ -6903,7 +6911,7 @@
       <c r="B126" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C126" s="43" t="s">
+      <c r="C126" s="44" t="s">
         <v>327</v>
       </c>
       <c r="D126" s="4"/>
@@ -6913,10 +6921,10 @@
         <v>97</v>
       </c>
       <c r="B127" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="44" t="s">
         <v>503</v>
-      </c>
-      <c r="C127" s="43" t="s">
-        <v>504</v>
       </c>
       <c r="D127" s="4"/>
     </row>
@@ -6925,10 +6933,10 @@
         <v>98</v>
       </c>
       <c r="B128" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128" s="44" t="s">
         <v>505</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>506</v>
       </c>
       <c r="D128" s="4"/>
     </row>
@@ -6939,7 +6947,7 @@
       <c r="B129" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="C129" s="43" t="s">
+      <c r="C129" s="44" t="s">
         <v>329</v>
       </c>
       <c r="D129" s="4"/>
@@ -6951,7 +6959,7 @@
       <c r="B130" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="C130" s="43" t="s">
+      <c r="C130" s="44" t="s">
         <v>331</v>
       </c>
       <c r="D130" s="4"/>
@@ -6963,7 +6971,7 @@
       <c r="B131" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C131" s="43" t="s">
+      <c r="C131" s="44" t="s">
         <v>333</v>
       </c>
       <c r="D131" s="4"/>
@@ -6975,25 +6983,25 @@
       <c r="B132" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="C132" s="43" t="s">
+      <c r="C132" s="44" t="s">
         <v>335</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" ht="13.5">
-      <c r="A133" s="70" t="s">
+      <c r="A133" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="70"/>
-      <c r="C133" s="70"/>
-      <c r="D133" s="70"/>
+      <c r="B133" s="69"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="69"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B134" s="33"/>
-      <c r="C134" s="41"/>
+      <c r="C134" s="42"/>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4">
@@ -7003,7 +7011,7 @@
       <c r="B135" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="C135" s="43" t="s">
+      <c r="C135" s="44" t="s">
         <v>337</v>
       </c>
       <c r="D135" s="4"/>
@@ -7015,7 +7023,7 @@
       <c r="B136" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="C136" s="43" t="s">
+      <c r="C136" s="44" t="s">
         <v>339</v>
       </c>
       <c r="D136" s="4"/>
@@ -7027,7 +7035,7 @@
       <c r="B137" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="C137" s="43" t="s">
+      <c r="C137" s="44" t="s">
         <v>341</v>
       </c>
       <c r="D137" s="4"/>
@@ -7039,7 +7047,7 @@
       <c r="B138" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="C138" s="43" t="s">
+      <c r="C138" s="44" t="s">
         <v>343</v>
       </c>
       <c r="D138" s="4"/>
@@ -7049,7 +7057,7 @@
         <v>109</v>
       </c>
       <c r="B139" s="36"/>
-      <c r="C139" s="45"/>
+      <c r="C139" s="46"/>
       <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4">
@@ -7059,7 +7067,7 @@
       <c r="B140" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C140" s="43" t="s">
+      <c r="C140" s="44" t="s">
         <v>345</v>
       </c>
       <c r="D140" s="4"/>
@@ -7071,7 +7079,7 @@
       <c r="B141" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C141" s="43" t="s">
+      <c r="C141" s="44" t="s">
         <v>347</v>
       </c>
       <c r="D141" s="4"/>
@@ -7081,10 +7089,10 @@
         <v>112</v>
       </c>
       <c r="B142" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C142" s="44" t="s">
         <v>507</v>
-      </c>
-      <c r="C142" s="43" t="s">
-        <v>508</v>
       </c>
       <c r="D142" s="4"/>
     </row>
@@ -7095,7 +7103,7 @@
       <c r="B143" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C143" s="43" t="s">
+      <c r="C143" s="44" t="s">
         <v>349</v>
       </c>
       <c r="D143" s="4"/>
@@ -7105,7 +7113,7 @@
         <v>127</v>
       </c>
       <c r="B144" s="36"/>
-      <c r="C144" s="45"/>
+      <c r="C144" s="46"/>
       <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4">
@@ -7115,7 +7123,7 @@
       <c r="B145" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="C145" s="43" t="s">
+      <c r="C145" s="44" t="s">
         <v>351</v>
       </c>
       <c r="D145" s="4"/>
@@ -7127,7 +7135,7 @@
       <c r="B146" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="C146" s="43" t="s">
+      <c r="C146" s="44" t="s">
         <v>353</v>
       </c>
       <c r="D146" s="4"/>
@@ -7139,7 +7147,7 @@
       <c r="B147" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="C147" s="43" t="s">
+      <c r="C147" s="44" t="s">
         <v>355</v>
       </c>
       <c r="D147" s="4"/>
@@ -7151,7 +7159,7 @@
       <c r="B148" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="C148" s="43" t="s">
+      <c r="C148" s="44" t="s">
         <v>357</v>
       </c>
       <c r="D148" s="4"/>
@@ -7161,7 +7169,7 @@
         <v>132</v>
       </c>
       <c r="B149" s="36"/>
-      <c r="C149" s="45"/>
+      <c r="C149" s="46"/>
       <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:4">
@@ -7171,7 +7179,7 @@
       <c r="B150" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="C150" s="43" t="s">
+      <c r="C150" s="44" t="s">
         <v>359</v>
       </c>
       <c r="D150" s="4"/>
@@ -7183,7 +7191,7 @@
       <c r="B151" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="C151" s="43" t="s">
+      <c r="C151" s="44" t="s">
         <v>361</v>
       </c>
       <c r="D151" s="4"/>
@@ -7195,7 +7203,7 @@
       <c r="B152" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C152" s="43" t="s">
+      <c r="C152" s="44" t="s">
         <v>363</v>
       </c>
       <c r="D152" s="4"/>
@@ -7207,7 +7215,7 @@
       <c r="B153" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="C153" s="43" t="s">
+      <c r="C153" s="44" t="s">
         <v>365</v>
       </c>
       <c r="D153" s="4"/>
@@ -7217,7 +7225,7 @@
         <v>114</v>
       </c>
       <c r="B154" s="36"/>
-      <c r="C154" s="45"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4">
@@ -7227,7 +7235,7 @@
       <c r="B155" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C155" s="42" t="s">
+      <c r="C155" s="43" t="s">
         <v>119</v>
       </c>
       <c r="D155" s="7"/>
@@ -7239,7 +7247,7 @@
       <c r="B156" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="42" t="s">
+      <c r="C156" s="43" t="s">
         <v>120</v>
       </c>
       <c r="D156" s="7"/>
@@ -7251,7 +7259,7 @@
       <c r="B157" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="42" t="s">
+      <c r="C157" s="43" t="s">
         <v>121</v>
       </c>
       <c r="D157" s="7"/>
@@ -7263,7 +7271,7 @@
       <c r="B158" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C158" s="42" t="s">
+      <c r="C158" s="43" t="s">
         <v>122</v>
       </c>
       <c r="D158" s="7"/>
@@ -7273,7 +7281,7 @@
         <v>137</v>
       </c>
       <c r="B159" s="36"/>
-      <c r="C159" s="45"/>
+      <c r="C159" s="46"/>
       <c r="D159" s="6"/>
     </row>
     <row r="160" spans="1:4">
@@ -7283,7 +7291,7 @@
       <c r="B160" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="C160" s="43" t="s">
+      <c r="C160" s="44" t="s">
         <v>367</v>
       </c>
       <c r="D160" s="4"/>
@@ -7295,7 +7303,7 @@
       <c r="B161" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="C161" s="43" t="s">
+      <c r="C161" s="44" t="s">
         <v>369</v>
       </c>
       <c r="D161" s="4"/>
@@ -7307,7 +7315,7 @@
       <c r="B162" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="C162" s="43" t="s">
+      <c r="C162" s="44" t="s">
         <v>371</v>
       </c>
       <c r="D162" s="4"/>
@@ -7319,7 +7327,7 @@
       <c r="B163" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="C163" s="43" t="s">
+      <c r="C163" s="44" t="s">
         <v>373</v>
       </c>
       <c r="D163" s="4"/>
@@ -7329,7 +7337,7 @@
         <v>142</v>
       </c>
       <c r="B164" s="36"/>
-      <c r="C164" s="45"/>
+      <c r="C164" s="46"/>
       <c r="D164" s="6"/>
     </row>
     <row r="165" spans="1:4">
@@ -7339,7 +7347,7 @@
       <c r="B165" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="C165" s="43" t="s">
+      <c r="C165" s="44" t="s">
         <v>375</v>
       </c>
       <c r="D165" s="4"/>
@@ -7351,7 +7359,7 @@
       <c r="B166" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="C166" s="43" t="s">
+      <c r="C166" s="44" t="s">
         <v>377</v>
       </c>
       <c r="D166" s="4"/>
@@ -7363,7 +7371,7 @@
       <c r="B167" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C167" s="43" t="s">
+      <c r="C167" s="44" t="s">
         <v>258</v>
       </c>
       <c r="D167" s="4"/>
@@ -7375,7 +7383,7 @@
       <c r="B168" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="C168" s="43" t="s">
+      <c r="C168" s="44" t="s">
         <v>379</v>
       </c>
       <c r="D168" s="4"/>
@@ -7385,7 +7393,7 @@
         <v>147</v>
       </c>
       <c r="B169" s="36"/>
-      <c r="C169" s="45"/>
+      <c r="C169" s="46"/>
       <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4">
@@ -7395,7 +7403,7 @@
       <c r="B170" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="C170" s="43" t="s">
+      <c r="C170" s="44" t="s">
         <v>381</v>
       </c>
       <c r="D170" s="30"/>
@@ -7407,7 +7415,7 @@
       <c r="B171" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="C171" s="43" t="s">
+      <c r="C171" s="44" t="s">
         <v>383</v>
       </c>
       <c r="D171" s="30"/>
@@ -7419,7 +7427,7 @@
       <c r="B172" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="C172" s="43" t="s">
+      <c r="C172" s="44" t="s">
         <v>385</v>
       </c>
       <c r="D172" s="30"/>
@@ -7431,7 +7439,7 @@
       <c r="B173" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="C173" s="43" t="s">
+      <c r="C173" s="44" t="s">
         <v>387</v>
       </c>
       <c r="D173" s="30"/>
@@ -7441,7 +7449,7 @@
         <v>152</v>
       </c>
       <c r="B174" s="36"/>
-      <c r="C174" s="45"/>
+      <c r="C174" s="46"/>
       <c r="D174" s="6"/>
     </row>
     <row r="175" spans="1:4">
@@ -7451,7 +7459,7 @@
       <c r="B175" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="C175" s="43" t="s">
+      <c r="C175" s="44" t="s">
         <v>389</v>
       </c>
       <c r="D175" s="4"/>
@@ -7463,7 +7471,7 @@
       <c r="B176" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="C176" s="43" t="s">
+      <c r="C176" s="44" t="s">
         <v>391</v>
       </c>
       <c r="D176" s="4"/>
@@ -7475,7 +7483,7 @@
       <c r="B177" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="C177" s="43" t="s">
+      <c r="C177" s="44" t="s">
         <v>393</v>
       </c>
       <c r="D177" s="4"/>
@@ -7487,7 +7495,7 @@
       <c r="B178" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C178" s="43" t="s">
+      <c r="C178" s="44" t="s">
         <v>395</v>
       </c>
       <c r="D178" s="4"/>
@@ -7497,7 +7505,7 @@
         <v>157</v>
       </c>
       <c r="B179" s="36"/>
-      <c r="C179" s="45"/>
+      <c r="C179" s="46"/>
       <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4">
@@ -7507,7 +7515,7 @@
       <c r="B180" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C180" s="42" t="s">
+      <c r="C180" s="43" t="s">
         <v>162</v>
       </c>
       <c r="D180" s="7"/>
@@ -7519,7 +7527,7 @@
       <c r="B181" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C181" s="42" t="s">
+      <c r="C181" s="43" t="s">
         <v>163</v>
       </c>
       <c r="D181" s="7"/>
@@ -7531,7 +7539,7 @@
       <c r="B182" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C182" s="42" t="s">
+      <c r="C182" s="43" t="s">
         <v>164</v>
       </c>
       <c r="D182" s="7"/>
@@ -7543,7 +7551,7 @@
       <c r="B183" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="42" t="s">
+      <c r="C183" s="43" t="s">
         <v>165</v>
       </c>
       <c r="D183" s="7"/>
@@ -7553,7 +7561,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="36"/>
-      <c r="C184" s="45"/>
+      <c r="C184" s="46"/>
       <c r="D184" s="6"/>
     </row>
     <row r="185" spans="1:4">
@@ -7563,7 +7571,7 @@
       <c r="B185" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="C185" s="43" t="s">
+      <c r="C185" s="44" t="s">
         <v>397</v>
       </c>
       <c r="D185" s="4"/>
@@ -7575,7 +7583,7 @@
       <c r="B186" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="C186" s="43" t="s">
+      <c r="C186" s="44" t="s">
         <v>409</v>
       </c>
       <c r="D186" s="30"/>
@@ -7587,7 +7595,7 @@
       <c r="B187" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="C187" s="43" t="s">
+      <c r="C187" s="44" t="s">
         <v>410</v>
       </c>
       <c r="D187" s="4"/>
@@ -7599,7 +7607,7 @@
       <c r="B188" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="C188" s="43" t="s">
+      <c r="C188" s="44" t="s">
         <v>411</v>
       </c>
       <c r="D188" s="4"/>
@@ -7609,7 +7617,7 @@
         <v>175</v>
       </c>
       <c r="B189" s="36"/>
-      <c r="C189" s="45"/>
+      <c r="C189" s="46"/>
       <c r="D189" s="6"/>
     </row>
     <row r="190" spans="1:4">
@@ -7619,7 +7627,7 @@
       <c r="B190" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C190" s="43" t="s">
+      <c r="C190" s="44" t="s">
         <v>319</v>
       </c>
       <c r="D190" s="4"/>
@@ -7631,7 +7639,7 @@
       <c r="B191" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C191" s="43" t="s">
+      <c r="C191" s="44" t="s">
         <v>321</v>
       </c>
       <c r="D191" s="4"/>
@@ -7643,7 +7651,7 @@
       <c r="B192" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="C192" s="43" t="s">
+      <c r="C192" s="44" t="s">
         <v>407</v>
       </c>
       <c r="D192" s="4"/>
@@ -7655,7 +7663,7 @@
       <c r="B193" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="C193" s="43" t="s">
+      <c r="C193" s="44" t="s">
         <v>408</v>
       </c>
       <c r="D193" s="4"/>
@@ -7665,7 +7673,7 @@
         <v>180</v>
       </c>
       <c r="B194" s="36"/>
-      <c r="C194" s="45"/>
+      <c r="C194" s="46"/>
       <c r="D194" s="6"/>
     </row>
     <row r="195" spans="1:5">
@@ -7675,11 +7683,11 @@
       <c r="B195" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C195" s="43" t="s">
+      <c r="C195" s="44" t="s">
         <v>229</v>
       </c>
       <c r="D195" s="4"/>
-      <c r="E195" s="49"/>
+      <c r="E195" s="50"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="11" t="s">
@@ -7688,11 +7696,11 @@
       <c r="B196" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="C196" s="43" t="s">
+      <c r="C196" s="44" t="s">
         <v>230</v>
       </c>
       <c r="D196" s="4"/>
-      <c r="E196" s="49"/>
+      <c r="E196" s="50"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="11" t="s">
@@ -7701,11 +7709,11 @@
       <c r="B197" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C197" s="43" t="s">
+      <c r="C197" s="44" t="s">
         <v>231</v>
       </c>
       <c r="D197" s="4"/>
-      <c r="E197" s="49"/>
+      <c r="E197" s="50"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="11" t="s">
@@ -7714,18 +7722,18 @@
       <c r="B198" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C198" s="43" t="s">
+      <c r="C198" s="44" t="s">
         <v>232</v>
       </c>
       <c r="D198" s="4"/>
-      <c r="E198" s="49"/>
+      <c r="E198" s="50"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B199" s="36"/>
-      <c r="C199" s="45"/>
+      <c r="C199" s="46"/>
       <c r="D199" s="6"/>
     </row>
     <row r="200" spans="1:5">
@@ -7735,11 +7743,11 @@
       <c r="B200" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="C200" s="43" t="s">
+      <c r="C200" s="44" t="s">
         <v>233</v>
       </c>
       <c r="D200" s="4"/>
-      <c r="E200" s="49"/>
+      <c r="E200" s="50"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="29" t="s">
@@ -7748,24 +7756,20 @@
       <c r="B201" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C201" s="46" t="s">
+      <c r="C201" s="47" t="s">
         <v>234</v>
       </c>
       <c r="D201" s="14"/>
-      <c r="E201" s="49"/>
+      <c r="E201" s="50"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B202" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="C202" s="55" t="s">
-        <v>536</v>
-      </c>
+      <c r="B202" s="38"/>
+      <c r="C202" s="43"/>
       <c r="D202" s="14"/>
-      <c r="E202" s="49"/>
+      <c r="E202" s="50"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="11" t="s">
@@ -7774,18 +7778,18 @@
       <c r="B203" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="C203" s="43" t="s">
+      <c r="C203" s="44" t="s">
         <v>406</v>
       </c>
       <c r="D203" s="4"/>
-      <c r="E203" s="51"/>
+      <c r="E203" s="52"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B204" s="36"/>
-      <c r="C204" s="45"/>
+      <c r="C204" s="46"/>
       <c r="D204" s="6"/>
     </row>
     <row r="205" spans="1:5">
@@ -7795,7 +7799,7 @@
       <c r="B205" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C205" s="42" t="s">
+      <c r="C205" s="43" t="s">
         <v>195</v>
       </c>
       <c r="D205" s="7"/>
@@ -7807,7 +7811,7 @@
       <c r="B206" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C206" s="42" t="s">
+      <c r="C206" s="43" t="s">
         <v>196</v>
       </c>
       <c r="D206" s="7"/>
@@ -7819,7 +7823,7 @@
       <c r="B207" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="C207" s="42" t="s">
+      <c r="C207" s="43" t="s">
         <v>199</v>
       </c>
       <c r="D207" s="7"/>
@@ -7831,7 +7835,7 @@
       <c r="B208" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="42" t="s">
+      <c r="C208" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="7"/>
@@ -7841,7 +7845,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="36"/>
-      <c r="C209" s="45"/>
+      <c r="C209" s="46"/>
       <c r="D209" s="6"/>
     </row>
     <row r="210" spans="1:4">
@@ -7849,9 +7853,9 @@
         <v>209</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>531</v>
-      </c>
-      <c r="C210" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C210" s="43" t="s">
         <v>211</v>
       </c>
       <c r="D210" s="7"/>
@@ -7861,9 +7865,9 @@
         <v>209</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>531</v>
-      </c>
-      <c r="C211" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C211" s="43" t="s">
         <v>211</v>
       </c>
       <c r="D211" s="7"/>
@@ -7875,7 +7879,7 @@
       <c r="B212" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C212" s="42" t="s">
+      <c r="C212" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D212" s="7"/>
@@ -7887,7 +7891,7 @@
       <c r="B213" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C213" s="42" t="s">
+      <c r="C213" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="7"/>
@@ -7897,3556 +7901,3556 @@
         <v>224</v>
       </c>
       <c r="B214" s="36"/>
-      <c r="C214" s="45"/>
+      <c r="C214" s="46"/>
       <c r="D214" s="6"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="56" t="s">
+      <c r="A215" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="B215" s="63"/>
-      <c r="C215" s="63"/>
-      <c r="D215" s="64"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="62"/>
+      <c r="D215" s="63"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B216" s="36"/>
-      <c r="C216" s="45"/>
+      <c r="C216" s="46"/>
       <c r="D216" s="6"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="56" t="s">
+      <c r="A217" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="B217" s="63"/>
-      <c r="C217" s="63"/>
-      <c r="D217" s="65"/>
+      <c r="B217" s="62"/>
+      <c r="C217" s="62"/>
+      <c r="D217" s="64"/>
     </row>
     <row r="218" spans="1:4" ht="13.5">
-      <c r="C218" s="38"/>
+      <c r="C218" s="39"/>
     </row>
     <row r="219" spans="1:4" ht="13.5">
-      <c r="C219" s="38"/>
+      <c r="C219" s="39"/>
     </row>
     <row r="220" spans="1:4" ht="13.5">
-      <c r="C220" s="38"/>
+      <c r="C220" s="39"/>
     </row>
     <row r="221" spans="1:4" ht="13.5">
-      <c r="C221" s="38"/>
+      <c r="C221" s="39"/>
     </row>
     <row r="222" spans="1:4" ht="13.5">
-      <c r="C222" s="38"/>
+      <c r="C222" s="39"/>
     </row>
     <row r="223" spans="1:4" ht="13.5">
-      <c r="C223" s="38"/>
+      <c r="C223" s="39"/>
     </row>
     <row r="224" spans="1:4" ht="13.5">
-      <c r="C224" s="38"/>
+      <c r="C224" s="39"/>
     </row>
     <row r="225" spans="1:4" ht="13.5">
-      <c r="C225" s="38"/>
+      <c r="C225" s="39"/>
     </row>
     <row r="226" spans="1:4" ht="13.5">
-      <c r="C226" s="38"/>
+      <c r="C226" s="39"/>
     </row>
     <row r="227" spans="1:4" ht="13.5">
-      <c r="C227" s="38"/>
+      <c r="C227" s="39"/>
     </row>
     <row r="228" spans="1:4" ht="13.5">
-      <c r="C228" s="38"/>
+      <c r="C228" s="39"/>
     </row>
     <row r="229" spans="1:4" ht="13.5">
-      <c r="C229" s="38"/>
+      <c r="C229" s="39"/>
     </row>
     <row r="230" spans="1:4" ht="13.5">
-      <c r="C230" s="38"/>
+      <c r="C230" s="39"/>
     </row>
     <row r="231" spans="1:4" ht="13.5">
-      <c r="C231" s="38"/>
+      <c r="C231" s="39"/>
     </row>
     <row r="232" spans="1:4" ht="13.5">
-      <c r="C232" s="38"/>
+      <c r="C232" s="39"/>
     </row>
     <row r="233" spans="1:4" ht="13.5">
-      <c r="C233" s="38"/>
+      <c r="C233" s="39"/>
     </row>
     <row r="234" spans="1:4" ht="13.5">
-      <c r="C234" s="38"/>
+      <c r="C234" s="39"/>
     </row>
     <row r="235" spans="1:4" ht="13.5">
-      <c r="C235" s="38"/>
+      <c r="C235" s="39"/>
     </row>
     <row r="236" spans="1:4" ht="13.5">
-      <c r="C236" s="38"/>
+      <c r="C236" s="39"/>
     </row>
     <row r="237" spans="1:4" ht="13.5">
-      <c r="C237" s="38"/>
+      <c r="C237" s="39"/>
     </row>
     <row r="238" spans="1:4" ht="13.5">
-      <c r="C238" s="38"/>
+      <c r="C238" s="39"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6"/>
       <c r="B239" s="36"/>
-      <c r="C239" s="45"/>
+      <c r="C239" s="46"/>
       <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="6"/>
       <c r="B240" s="36"/>
-      <c r="C240" s="45"/>
+      <c r="C240" s="46"/>
       <c r="D240" s="6"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6"/>
       <c r="B241" s="36"/>
-      <c r="C241" s="45"/>
+      <c r="C241" s="46"/>
       <c r="D241" s="6"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6"/>
       <c r="B242" s="36"/>
-      <c r="C242" s="45"/>
+      <c r="C242" s="46"/>
       <c r="D242" s="6"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6"/>
       <c r="B243" s="36"/>
-      <c r="C243" s="45"/>
+      <c r="C243" s="46"/>
       <c r="D243" s="6"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6"/>
       <c r="B244" s="36"/>
-      <c r="C244" s="45"/>
+      <c r="C244" s="46"/>
       <c r="D244" s="6"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6"/>
       <c r="B245" s="36"/>
-      <c r="C245" s="45"/>
+      <c r="C245" s="46"/>
       <c r="D245" s="6"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6"/>
       <c r="B246" s="36"/>
-      <c r="C246" s="45"/>
+      <c r="C246" s="46"/>
       <c r="D246" s="6"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="6"/>
       <c r="B247" s="36"/>
-      <c r="C247" s="45"/>
+      <c r="C247" s="46"/>
       <c r="D247" s="6"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6"/>
       <c r="B248" s="36"/>
-      <c r="C248" s="45"/>
+      <c r="C248" s="46"/>
       <c r="D248" s="6"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6"/>
       <c r="B249" s="36"/>
-      <c r="C249" s="45"/>
+      <c r="C249" s="46"/>
       <c r="D249" s="6"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6"/>
       <c r="B250" s="36"/>
-      <c r="C250" s="45"/>
+      <c r="C250" s="46"/>
       <c r="D250" s="6"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6"/>
       <c r="B251" s="36"/>
-      <c r="C251" s="45"/>
+      <c r="C251" s="46"/>
       <c r="D251" s="6"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6"/>
       <c r="B252" s="36"/>
-      <c r="C252" s="45"/>
+      <c r="C252" s="46"/>
       <c r="D252" s="6"/>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6"/>
       <c r="B253" s="36"/>
-      <c r="C253" s="45"/>
+      <c r="C253" s="46"/>
       <c r="D253" s="6"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6"/>
       <c r="B254" s="36"/>
-      <c r="C254" s="45"/>
+      <c r="C254" s="46"/>
       <c r="D254" s="6"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6"/>
       <c r="B255" s="36"/>
-      <c r="C255" s="45"/>
+      <c r="C255" s="46"/>
       <c r="D255" s="6"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6"/>
       <c r="B256" s="36"/>
-      <c r="C256" s="45"/>
+      <c r="C256" s="46"/>
       <c r="D256" s="6"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6"/>
       <c r="B257" s="36"/>
-      <c r="C257" s="45"/>
+      <c r="C257" s="46"/>
       <c r="D257" s="6"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6"/>
       <c r="B258" s="36"/>
-      <c r="C258" s="45"/>
+      <c r="C258" s="46"/>
       <c r="D258" s="6"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6"/>
       <c r="B259" s="36"/>
-      <c r="C259" s="45"/>
+      <c r="C259" s="46"/>
       <c r="D259" s="6"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6"/>
       <c r="B260" s="36"/>
-      <c r="C260" s="45"/>
+      <c r="C260" s="46"/>
       <c r="D260" s="6"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6"/>
       <c r="B261" s="36"/>
-      <c r="C261" s="45"/>
+      <c r="C261" s="46"/>
       <c r="D261" s="6"/>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6"/>
       <c r="B262" s="36"/>
-      <c r="C262" s="45"/>
+      <c r="C262" s="46"/>
       <c r="D262" s="6"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6"/>
       <c r="B263" s="36"/>
-      <c r="C263" s="45"/>
+      <c r="C263" s="46"/>
       <c r="D263" s="6"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6"/>
       <c r="B264" s="36"/>
-      <c r="C264" s="45"/>
+      <c r="C264" s="46"/>
       <c r="D264" s="6"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6"/>
       <c r="B265" s="36"/>
-      <c r="C265" s="45"/>
+      <c r="C265" s="46"/>
       <c r="D265" s="6"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6"/>
       <c r="B266" s="36"/>
-      <c r="C266" s="45"/>
+      <c r="C266" s="46"/>
       <c r="D266" s="6"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6"/>
       <c r="B267" s="36"/>
-      <c r="C267" s="45"/>
+      <c r="C267" s="46"/>
       <c r="D267" s="6"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6"/>
       <c r="B268" s="36"/>
-      <c r="C268" s="45"/>
+      <c r="C268" s="46"/>
       <c r="D268" s="6"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6"/>
       <c r="B269" s="36"/>
-      <c r="C269" s="45"/>
+      <c r="C269" s="46"/>
       <c r="D269" s="6"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6"/>
       <c r="B270" s="36"/>
-      <c r="C270" s="45"/>
+      <c r="C270" s="46"/>
       <c r="D270" s="6"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6"/>
       <c r="B271" s="36"/>
-      <c r="C271" s="45"/>
+      <c r="C271" s="46"/>
       <c r="D271" s="6"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="6"/>
       <c r="B272" s="36"/>
-      <c r="C272" s="45"/>
+      <c r="C272" s="46"/>
       <c r="D272" s="6"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6"/>
       <c r="B273" s="36"/>
-      <c r="C273" s="45"/>
+      <c r="C273" s="46"/>
       <c r="D273" s="6"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6"/>
       <c r="B274" s="36"/>
-      <c r="C274" s="45"/>
+      <c r="C274" s="46"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6"/>
       <c r="B275" s="36"/>
-      <c r="C275" s="45"/>
+      <c r="C275" s="46"/>
       <c r="D275" s="6"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6"/>
       <c r="B276" s="36"/>
-      <c r="C276" s="45"/>
+      <c r="C276" s="46"/>
       <c r="D276" s="6"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6"/>
       <c r="B277" s="36"/>
-      <c r="C277" s="45"/>
+      <c r="C277" s="46"/>
       <c r="D277" s="6"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6"/>
       <c r="B278" s="36"/>
-      <c r="C278" s="45"/>
+      <c r="C278" s="46"/>
       <c r="D278" s="6"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6"/>
       <c r="B279" s="36"/>
-      <c r="C279" s="45"/>
+      <c r="C279" s="46"/>
       <c r="D279" s="6"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="6"/>
       <c r="B280" s="36"/>
-      <c r="C280" s="45"/>
+      <c r="C280" s="46"/>
       <c r="D280" s="6"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6"/>
       <c r="B281" s="36"/>
-      <c r="C281" s="45"/>
+      <c r="C281" s="46"/>
       <c r="D281" s="6"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6"/>
       <c r="B282" s="36"/>
-      <c r="C282" s="45"/>
+      <c r="C282" s="46"/>
       <c r="D282" s="6"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6"/>
       <c r="B283" s="36"/>
-      <c r="C283" s="45"/>
+      <c r="C283" s="46"/>
       <c r="D283" s="6"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6"/>
       <c r="B284" s="36"/>
-      <c r="C284" s="45"/>
+      <c r="C284" s="46"/>
       <c r="D284" s="6"/>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6"/>
       <c r="B285" s="36"/>
-      <c r="C285" s="45"/>
+      <c r="C285" s="46"/>
       <c r="D285" s="6"/>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6"/>
       <c r="B286" s="36"/>
-      <c r="C286" s="45"/>
+      <c r="C286" s="46"/>
       <c r="D286" s="6"/>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6"/>
       <c r="B287" s="36"/>
-      <c r="C287" s="45"/>
+      <c r="C287" s="46"/>
       <c r="D287" s="6"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6"/>
       <c r="B288" s="36"/>
-      <c r="C288" s="45"/>
+      <c r="C288" s="46"/>
       <c r="D288" s="6"/>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6"/>
       <c r="B289" s="36"/>
-      <c r="C289" s="45"/>
+      <c r="C289" s="46"/>
       <c r="D289" s="6"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6"/>
       <c r="B290" s="36"/>
-      <c r="C290" s="45"/>
+      <c r="C290" s="46"/>
       <c r="D290" s="6"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6"/>
       <c r="B291" s="36"/>
-      <c r="C291" s="45"/>
+      <c r="C291" s="46"/>
       <c r="D291" s="6"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6"/>
       <c r="B292" s="36"/>
-      <c r="C292" s="45"/>
+      <c r="C292" s="46"/>
       <c r="D292" s="6"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="6"/>
       <c r="B293" s="36"/>
-      <c r="C293" s="45"/>
+      <c r="C293" s="46"/>
       <c r="D293" s="6"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="6"/>
       <c r="B294" s="36"/>
-      <c r="C294" s="45"/>
+      <c r="C294" s="46"/>
       <c r="D294" s="6"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6"/>
       <c r="B295" s="36"/>
-      <c r="C295" s="45"/>
+      <c r="C295" s="46"/>
       <c r="D295" s="6"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="6"/>
       <c r="B296" s="36"/>
-      <c r="C296" s="45"/>
+      <c r="C296" s="46"/>
       <c r="D296" s="6"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="6"/>
       <c r="B297" s="36"/>
-      <c r="C297" s="45"/>
+      <c r="C297" s="46"/>
       <c r="D297" s="6"/>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6"/>
       <c r="B298" s="36"/>
-      <c r="C298" s="45"/>
+      <c r="C298" s="46"/>
       <c r="D298" s="6"/>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6"/>
       <c r="B299" s="36"/>
-      <c r="C299" s="45"/>
+      <c r="C299" s="46"/>
       <c r="D299" s="6"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6"/>
       <c r="B300" s="36"/>
-      <c r="C300" s="45"/>
+      <c r="C300" s="46"/>
       <c r="D300" s="6"/>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6"/>
       <c r="B301" s="36"/>
-      <c r="C301" s="45"/>
+      <c r="C301" s="46"/>
       <c r="D301" s="6"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6"/>
       <c r="B302" s="36"/>
-      <c r="C302" s="45"/>
+      <c r="C302" s="46"/>
       <c r="D302" s="6"/>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="6"/>
       <c r="B303" s="36"/>
-      <c r="C303" s="45"/>
+      <c r="C303" s="46"/>
       <c r="D303" s="6"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="6"/>
       <c r="B304" s="36"/>
-      <c r="C304" s="45"/>
+      <c r="C304" s="46"/>
       <c r="D304" s="6"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6"/>
       <c r="B305" s="36"/>
-      <c r="C305" s="45"/>
+      <c r="C305" s="46"/>
       <c r="D305" s="6"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6"/>
       <c r="B306" s="36"/>
-      <c r="C306" s="45"/>
+      <c r="C306" s="46"/>
       <c r="D306" s="6"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6"/>
       <c r="B307" s="36"/>
-      <c r="C307" s="45"/>
+      <c r="C307" s="46"/>
       <c r="D307" s="6"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6"/>
       <c r="B308" s="36"/>
-      <c r="C308" s="45"/>
+      <c r="C308" s="46"/>
       <c r="D308" s="6"/>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6"/>
       <c r="B309" s="36"/>
-      <c r="C309" s="45"/>
+      <c r="C309" s="46"/>
       <c r="D309" s="6"/>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6"/>
       <c r="B310" s="36"/>
-      <c r="C310" s="45"/>
+      <c r="C310" s="46"/>
       <c r="D310" s="6"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6"/>
       <c r="B311" s="36"/>
-      <c r="C311" s="45"/>
+      <c r="C311" s="46"/>
       <c r="D311" s="6"/>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6"/>
       <c r="B312" s="36"/>
-      <c r="C312" s="45"/>
+      <c r="C312" s="46"/>
       <c r="D312" s="6"/>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6"/>
       <c r="B313" s="36"/>
-      <c r="C313" s="45"/>
+      <c r="C313" s="46"/>
       <c r="D313" s="6"/>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6"/>
       <c r="B314" s="36"/>
-      <c r="C314" s="45"/>
+      <c r="C314" s="46"/>
       <c r="D314" s="6"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6"/>
       <c r="B315" s="36"/>
-      <c r="C315" s="45"/>
+      <c r="C315" s="46"/>
       <c r="D315" s="6"/>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6"/>
       <c r="B316" s="36"/>
-      <c r="C316" s="45"/>
+      <c r="C316" s="46"/>
       <c r="D316" s="6"/>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6"/>
       <c r="B317" s="36"/>
-      <c r="C317" s="45"/>
+      <c r="C317" s="46"/>
       <c r="D317" s="6"/>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6"/>
       <c r="B318" s="36"/>
-      <c r="C318" s="45"/>
+      <c r="C318" s="46"/>
       <c r="D318" s="6"/>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6"/>
       <c r="B319" s="36"/>
-      <c r="C319" s="45"/>
+      <c r="C319" s="46"/>
       <c r="D319" s="6"/>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6"/>
       <c r="B320" s="36"/>
-      <c r="C320" s="45"/>
+      <c r="C320" s="46"/>
       <c r="D320" s="6"/>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6"/>
       <c r="B321" s="36"/>
-      <c r="C321" s="45"/>
+      <c r="C321" s="46"/>
       <c r="D321" s="6"/>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6"/>
       <c r="B322" s="36"/>
-      <c r="C322" s="45"/>
+      <c r="C322" s="46"/>
       <c r="D322" s="6"/>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6"/>
       <c r="B323" s="36"/>
-      <c r="C323" s="45"/>
+      <c r="C323" s="46"/>
       <c r="D323" s="6"/>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6"/>
       <c r="B324" s="36"/>
-      <c r="C324" s="45"/>
+      <c r="C324" s="46"/>
       <c r="D324" s="6"/>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6"/>
       <c r="B325" s="36"/>
-      <c r="C325" s="45"/>
+      <c r="C325" s="46"/>
       <c r="D325" s="6"/>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6"/>
       <c r="B326" s="36"/>
-      <c r="C326" s="45"/>
+      <c r="C326" s="46"/>
       <c r="D326" s="6"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6"/>
       <c r="B327" s="36"/>
-      <c r="C327" s="45"/>
+      <c r="C327" s="46"/>
       <c r="D327" s="6"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6"/>
       <c r="B328" s="36"/>
-      <c r="C328" s="45"/>
+      <c r="C328" s="46"/>
       <c r="D328" s="6"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6"/>
       <c r="B329" s="36"/>
-      <c r="C329" s="45"/>
+      <c r="C329" s="46"/>
       <c r="D329" s="6"/>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6"/>
       <c r="B330" s="36"/>
-      <c r="C330" s="45"/>
+      <c r="C330" s="46"/>
       <c r="D330" s="6"/>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6"/>
       <c r="B331" s="36"/>
-      <c r="C331" s="45"/>
+      <c r="C331" s="46"/>
       <c r="D331" s="6"/>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6"/>
       <c r="B332" s="36"/>
-      <c r="C332" s="45"/>
+      <c r="C332" s="46"/>
       <c r="D332" s="6"/>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6"/>
       <c r="B333" s="36"/>
-      <c r="C333" s="45"/>
+      <c r="C333" s="46"/>
       <c r="D333" s="6"/>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6"/>
       <c r="B334" s="36"/>
-      <c r="C334" s="45"/>
+      <c r="C334" s="46"/>
       <c r="D334" s="6"/>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6"/>
       <c r="B335" s="36"/>
-      <c r="C335" s="45"/>
+      <c r="C335" s="46"/>
       <c r="D335" s="6"/>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6"/>
       <c r="B336" s="36"/>
-      <c r="C336" s="45"/>
+      <c r="C336" s="46"/>
       <c r="D336" s="6"/>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6"/>
       <c r="B337" s="36"/>
-      <c r="C337" s="45"/>
+      <c r="C337" s="46"/>
       <c r="D337" s="6"/>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6"/>
       <c r="B338" s="36"/>
-      <c r="C338" s="45"/>
+      <c r="C338" s="46"/>
       <c r="D338" s="6"/>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6"/>
       <c r="B339" s="36"/>
-      <c r="C339" s="45"/>
+      <c r="C339" s="46"/>
       <c r="D339" s="6"/>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6"/>
       <c r="B340" s="36"/>
-      <c r="C340" s="45"/>
+      <c r="C340" s="46"/>
       <c r="D340" s="6"/>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6"/>
       <c r="B341" s="36"/>
-      <c r="C341" s="45"/>
+      <c r="C341" s="46"/>
       <c r="D341" s="6"/>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6"/>
       <c r="B342" s="36"/>
-      <c r="C342" s="45"/>
+      <c r="C342" s="46"/>
       <c r="D342" s="6"/>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6"/>
       <c r="B343" s="36"/>
-      <c r="C343" s="45"/>
+      <c r="C343" s="46"/>
       <c r="D343" s="6"/>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6"/>
       <c r="B344" s="36"/>
-      <c r="C344" s="45"/>
+      <c r="C344" s="46"/>
       <c r="D344" s="6"/>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6"/>
       <c r="B345" s="36"/>
-      <c r="C345" s="45"/>
+      <c r="C345" s="46"/>
       <c r="D345" s="6"/>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6"/>
       <c r="B346" s="36"/>
-      <c r="C346" s="45"/>
+      <c r="C346" s="46"/>
       <c r="D346" s="6"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6"/>
       <c r="B347" s="36"/>
-      <c r="C347" s="45"/>
+      <c r="C347" s="46"/>
       <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6"/>
       <c r="B348" s="36"/>
-      <c r="C348" s="45"/>
+      <c r="C348" s="46"/>
       <c r="D348" s="6"/>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6"/>
       <c r="B349" s="36"/>
-      <c r="C349" s="45"/>
+      <c r="C349" s="46"/>
       <c r="D349" s="6"/>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6"/>
       <c r="B350" s="36"/>
-      <c r="C350" s="45"/>
+      <c r="C350" s="46"/>
       <c r="D350" s="6"/>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6"/>
       <c r="B351" s="36"/>
-      <c r="C351" s="45"/>
+      <c r="C351" s="46"/>
       <c r="D351" s="6"/>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6"/>
       <c r="B352" s="36"/>
-      <c r="C352" s="45"/>
+      <c r="C352" s="46"/>
       <c r="D352" s="6"/>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6"/>
       <c r="B353" s="36"/>
-      <c r="C353" s="45"/>
+      <c r="C353" s="46"/>
       <c r="D353" s="6"/>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6"/>
       <c r="B354" s="36"/>
-      <c r="C354" s="45"/>
+      <c r="C354" s="46"/>
       <c r="D354" s="6"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6"/>
       <c r="B355" s="36"/>
-      <c r="C355" s="45"/>
+      <c r="C355" s="46"/>
       <c r="D355" s="6"/>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6"/>
       <c r="B356" s="36"/>
-      <c r="C356" s="45"/>
+      <c r="C356" s="46"/>
       <c r="D356" s="6"/>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6"/>
       <c r="B357" s="36"/>
-      <c r="C357" s="45"/>
+      <c r="C357" s="46"/>
       <c r="D357" s="6"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6"/>
       <c r="B358" s="36"/>
-      <c r="C358" s="45"/>
+      <c r="C358" s="46"/>
       <c r="D358" s="6"/>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6"/>
       <c r="B359" s="36"/>
-      <c r="C359" s="45"/>
+      <c r="C359" s="46"/>
       <c r="D359" s="6"/>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6"/>
       <c r="B360" s="36"/>
-      <c r="C360" s="45"/>
+      <c r="C360" s="46"/>
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6"/>
       <c r="B361" s="36"/>
-      <c r="C361" s="45"/>
+      <c r="C361" s="46"/>
       <c r="D361" s="6"/>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6"/>
       <c r="B362" s="36"/>
-      <c r="C362" s="45"/>
+      <c r="C362" s="46"/>
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6"/>
       <c r="B363" s="36"/>
-      <c r="C363" s="45"/>
+      <c r="C363" s="46"/>
       <c r="D363" s="6"/>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6"/>
       <c r="B364" s="36"/>
-      <c r="C364" s="45"/>
+      <c r="C364" s="46"/>
       <c r="D364" s="6"/>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6"/>
       <c r="B365" s="36"/>
-      <c r="C365" s="45"/>
+      <c r="C365" s="46"/>
       <c r="D365" s="6"/>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6"/>
       <c r="B366" s="36"/>
-      <c r="C366" s="45"/>
+      <c r="C366" s="46"/>
       <c r="D366" s="6"/>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6"/>
       <c r="B367" s="36"/>
-      <c r="C367" s="45"/>
+      <c r="C367" s="46"/>
       <c r="D367" s="6"/>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6"/>
       <c r="B368" s="36"/>
-      <c r="C368" s="45"/>
+      <c r="C368" s="46"/>
       <c r="D368" s="6"/>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6"/>
       <c r="B369" s="36"/>
-      <c r="C369" s="45"/>
+      <c r="C369" s="46"/>
       <c r="D369" s="6"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6"/>
       <c r="B370" s="36"/>
-      <c r="C370" s="45"/>
+      <c r="C370" s="46"/>
       <c r="D370" s="6"/>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6"/>
       <c r="B371" s="36"/>
-      <c r="C371" s="45"/>
+      <c r="C371" s="46"/>
       <c r="D371" s="6"/>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6"/>
       <c r="B372" s="36"/>
-      <c r="C372" s="45"/>
+      <c r="C372" s="46"/>
       <c r="D372" s="6"/>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6"/>
       <c r="B373" s="36"/>
-      <c r="C373" s="45"/>
+      <c r="C373" s="46"/>
       <c r="D373" s="6"/>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6"/>
       <c r="B374" s="36"/>
-      <c r="C374" s="45"/>
+      <c r="C374" s="46"/>
       <c r="D374" s="6"/>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6"/>
       <c r="B375" s="36"/>
-      <c r="C375" s="45"/>
+      <c r="C375" s="46"/>
       <c r="D375" s="6"/>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6"/>
       <c r="B376" s="36"/>
-      <c r="C376" s="45"/>
+      <c r="C376" s="46"/>
       <c r="D376" s="6"/>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6"/>
       <c r="B377" s="36"/>
-      <c r="C377" s="45"/>
+      <c r="C377" s="46"/>
       <c r="D377" s="6"/>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6"/>
       <c r="B378" s="36"/>
-      <c r="C378" s="45"/>
+      <c r="C378" s="46"/>
       <c r="D378" s="6"/>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6"/>
       <c r="B379" s="36"/>
-      <c r="C379" s="45"/>
+      <c r="C379" s="46"/>
       <c r="D379" s="6"/>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6"/>
       <c r="B380" s="36"/>
-      <c r="C380" s="45"/>
+      <c r="C380" s="46"/>
       <c r="D380" s="6"/>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6"/>
       <c r="B381" s="36"/>
-      <c r="C381" s="45"/>
+      <c r="C381" s="46"/>
       <c r="D381" s="6"/>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6"/>
       <c r="B382" s="36"/>
-      <c r="C382" s="45"/>
+      <c r="C382" s="46"/>
       <c r="D382" s="6"/>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6"/>
       <c r="B383" s="36"/>
-      <c r="C383" s="45"/>
+      <c r="C383" s="46"/>
       <c r="D383" s="6"/>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6"/>
       <c r="B384" s="36"/>
-      <c r="C384" s="45"/>
+      <c r="C384" s="46"/>
       <c r="D384" s="6"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6"/>
       <c r="B385" s="36"/>
-      <c r="C385" s="45"/>
+      <c r="C385" s="46"/>
       <c r="D385" s="6"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6"/>
       <c r="B386" s="36"/>
-      <c r="C386" s="45"/>
+      <c r="C386" s="46"/>
       <c r="D386" s="6"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6"/>
       <c r="B387" s="36"/>
-      <c r="C387" s="45"/>
+      <c r="C387" s="46"/>
       <c r="D387" s="6"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6"/>
       <c r="B388" s="36"/>
-      <c r="C388" s="45"/>
+      <c r="C388" s="46"/>
       <c r="D388" s="6"/>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6"/>
       <c r="B389" s="36"/>
-      <c r="C389" s="45"/>
+      <c r="C389" s="46"/>
       <c r="D389" s="6"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6"/>
       <c r="B390" s="36"/>
-      <c r="C390" s="45"/>
+      <c r="C390" s="46"/>
       <c r="D390" s="6"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6"/>
       <c r="B391" s="36"/>
-      <c r="C391" s="45"/>
+      <c r="C391" s="46"/>
       <c r="D391" s="6"/>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6"/>
       <c r="B392" s="36"/>
-      <c r="C392" s="45"/>
+      <c r="C392" s="46"/>
       <c r="D392" s="6"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6"/>
       <c r="B393" s="36"/>
-      <c r="C393" s="45"/>
+      <c r="C393" s="46"/>
       <c r="D393" s="6"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6"/>
       <c r="B394" s="36"/>
-      <c r="C394" s="45"/>
+      <c r="C394" s="46"/>
       <c r="D394" s="6"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6"/>
       <c r="B395" s="36"/>
-      <c r="C395" s="45"/>
+      <c r="C395" s="46"/>
       <c r="D395" s="6"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6"/>
       <c r="B396" s="36"/>
-      <c r="C396" s="45"/>
+      <c r="C396" s="46"/>
       <c r="D396" s="6"/>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="6"/>
       <c r="B397" s="36"/>
-      <c r="C397" s="45"/>
+      <c r="C397" s="46"/>
       <c r="D397" s="6"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="6"/>
       <c r="B398" s="36"/>
-      <c r="C398" s="45"/>
+      <c r="C398" s="46"/>
       <c r="D398" s="6"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="6"/>
       <c r="B399" s="36"/>
-      <c r="C399" s="45"/>
+      <c r="C399" s="46"/>
       <c r="D399" s="6"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="6"/>
       <c r="B400" s="36"/>
-      <c r="C400" s="45"/>
+      <c r="C400" s="46"/>
       <c r="D400" s="6"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="6"/>
       <c r="B401" s="36"/>
-      <c r="C401" s="45"/>
+      <c r="C401" s="46"/>
       <c r="D401" s="6"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="6"/>
       <c r="B402" s="36"/>
-      <c r="C402" s="45"/>
+      <c r="C402" s="46"/>
       <c r="D402" s="6"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="6"/>
       <c r="B403" s="36"/>
-      <c r="C403" s="45"/>
+      <c r="C403" s="46"/>
       <c r="D403" s="6"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="6"/>
       <c r="B404" s="36"/>
-      <c r="C404" s="45"/>
+      <c r="C404" s="46"/>
       <c r="D404" s="6"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="6"/>
       <c r="B405" s="36"/>
-      <c r="C405" s="45"/>
+      <c r="C405" s="46"/>
       <c r="D405" s="6"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="6"/>
       <c r="B406" s="36"/>
-      <c r="C406" s="45"/>
+      <c r="C406" s="46"/>
       <c r="D406" s="6"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="6"/>
       <c r="B407" s="36"/>
-      <c r="C407" s="45"/>
+      <c r="C407" s="46"/>
       <c r="D407" s="6"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="6"/>
       <c r="B408" s="36"/>
-      <c r="C408" s="45"/>
+      <c r="C408" s="46"/>
       <c r="D408" s="6"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="6"/>
       <c r="B409" s="36"/>
-      <c r="C409" s="45"/>
+      <c r="C409" s="46"/>
       <c r="D409" s="6"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="6"/>
       <c r="B410" s="36"/>
-      <c r="C410" s="45"/>
+      <c r="C410" s="46"/>
       <c r="D410" s="6"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="6"/>
       <c r="B411" s="36"/>
-      <c r="C411" s="45"/>
+      <c r="C411" s="46"/>
       <c r="D411" s="6"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="6"/>
       <c r="B412" s="36"/>
-      <c r="C412" s="45"/>
+      <c r="C412" s="46"/>
       <c r="D412" s="6"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="6"/>
       <c r="B413" s="36"/>
-      <c r="C413" s="45"/>
+      <c r="C413" s="46"/>
       <c r="D413" s="6"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="6"/>
       <c r="B414" s="36"/>
-      <c r="C414" s="45"/>
+      <c r="C414" s="46"/>
       <c r="D414" s="6"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="6"/>
       <c r="B415" s="36"/>
-      <c r="C415" s="45"/>
+      <c r="C415" s="46"/>
       <c r="D415" s="6"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="6"/>
       <c r="B416" s="36"/>
-      <c r="C416" s="45"/>
+      <c r="C416" s="46"/>
       <c r="D416" s="6"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="6"/>
       <c r="B417" s="36"/>
-      <c r="C417" s="45"/>
+      <c r="C417" s="46"/>
       <c r="D417" s="6"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="6"/>
       <c r="B418" s="36"/>
-      <c r="C418" s="45"/>
+      <c r="C418" s="46"/>
       <c r="D418" s="6"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="6"/>
       <c r="B419" s="36"/>
-      <c r="C419" s="45"/>
+      <c r="C419" s="46"/>
       <c r="D419" s="6"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="6"/>
       <c r="B420" s="36"/>
-      <c r="C420" s="45"/>
+      <c r="C420" s="46"/>
       <c r="D420" s="6"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="6"/>
       <c r="B421" s="36"/>
-      <c r="C421" s="45"/>
+      <c r="C421" s="46"/>
       <c r="D421" s="6"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="6"/>
       <c r="B422" s="36"/>
-      <c r="C422" s="45"/>
+      <c r="C422" s="46"/>
       <c r="D422" s="6"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="6"/>
       <c r="B423" s="36"/>
-      <c r="C423" s="45"/>
+      <c r="C423" s="46"/>
       <c r="D423" s="6"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="6"/>
       <c r="B424" s="36"/>
-      <c r="C424" s="45"/>
+      <c r="C424" s="46"/>
       <c r="D424" s="6"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="6"/>
       <c r="B425" s="36"/>
-      <c r="C425" s="45"/>
+      <c r="C425" s="46"/>
       <c r="D425" s="6"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="6"/>
       <c r="B426" s="36"/>
-      <c r="C426" s="45"/>
+      <c r="C426" s="46"/>
       <c r="D426" s="6"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="6"/>
       <c r="B427" s="36"/>
-      <c r="C427" s="45"/>
+      <c r="C427" s="46"/>
       <c r="D427" s="6"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="6"/>
       <c r="B428" s="36"/>
-      <c r="C428" s="45"/>
+      <c r="C428" s="46"/>
       <c r="D428" s="6"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="6"/>
       <c r="B429" s="36"/>
-      <c r="C429" s="45"/>
+      <c r="C429" s="46"/>
       <c r="D429" s="6"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="6"/>
       <c r="B430" s="36"/>
-      <c r="C430" s="45"/>
+      <c r="C430" s="46"/>
       <c r="D430" s="6"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="6"/>
       <c r="B431" s="36"/>
-      <c r="C431" s="45"/>
+      <c r="C431" s="46"/>
       <c r="D431" s="6"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="6"/>
       <c r="B432" s="36"/>
-      <c r="C432" s="45"/>
+      <c r="C432" s="46"/>
       <c r="D432" s="6"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="6"/>
       <c r="B433" s="36"/>
-      <c r="C433" s="45"/>
+      <c r="C433" s="46"/>
       <c r="D433" s="6"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="6"/>
       <c r="B434" s="36"/>
-      <c r="C434" s="45"/>
+      <c r="C434" s="46"/>
       <c r="D434" s="6"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="6"/>
       <c r="B435" s="36"/>
-      <c r="C435" s="45"/>
+      <c r="C435" s="46"/>
       <c r="D435" s="6"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="6"/>
       <c r="B436" s="36"/>
-      <c r="C436" s="45"/>
+      <c r="C436" s="46"/>
       <c r="D436" s="6"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="6"/>
       <c r="B437" s="36"/>
-      <c r="C437" s="45"/>
+      <c r="C437" s="46"/>
       <c r="D437" s="6"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="6"/>
       <c r="B438" s="36"/>
-      <c r="C438" s="45"/>
+      <c r="C438" s="46"/>
       <c r="D438" s="6"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="6"/>
       <c r="B439" s="36"/>
-      <c r="C439" s="45"/>
+      <c r="C439" s="46"/>
       <c r="D439" s="6"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="6"/>
       <c r="B440" s="36"/>
-      <c r="C440" s="45"/>
+      <c r="C440" s="46"/>
       <c r="D440" s="6"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="6"/>
       <c r="B441" s="36"/>
-      <c r="C441" s="45"/>
+      <c r="C441" s="46"/>
       <c r="D441" s="6"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="6"/>
       <c r="B442" s="36"/>
-      <c r="C442" s="45"/>
+      <c r="C442" s="46"/>
       <c r="D442" s="6"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="6"/>
       <c r="B443" s="36"/>
-      <c r="C443" s="45"/>
+      <c r="C443" s="46"/>
       <c r="D443" s="6"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="6"/>
       <c r="B444" s="36"/>
-      <c r="C444" s="45"/>
+      <c r="C444" s="46"/>
       <c r="D444" s="6"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="6"/>
       <c r="B445" s="36"/>
-      <c r="C445" s="45"/>
+      <c r="C445" s="46"/>
       <c r="D445" s="6"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="6"/>
       <c r="B446" s="36"/>
-      <c r="C446" s="45"/>
+      <c r="C446" s="46"/>
       <c r="D446" s="6"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="6"/>
       <c r="B447" s="36"/>
-      <c r="C447" s="45"/>
+      <c r="C447" s="46"/>
       <c r="D447" s="6"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="6"/>
       <c r="B448" s="36"/>
-      <c r="C448" s="45"/>
+      <c r="C448" s="46"/>
       <c r="D448" s="6"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="6"/>
       <c r="B449" s="36"/>
-      <c r="C449" s="45"/>
+      <c r="C449" s="46"/>
       <c r="D449" s="6"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="6"/>
       <c r="B450" s="36"/>
-      <c r="C450" s="45"/>
+      <c r="C450" s="46"/>
       <c r="D450" s="6"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="6"/>
       <c r="B451" s="36"/>
-      <c r="C451" s="45"/>
+      <c r="C451" s="46"/>
       <c r="D451" s="6"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="6"/>
       <c r="B452" s="36"/>
-      <c r="C452" s="45"/>
+      <c r="C452" s="46"/>
       <c r="D452" s="6"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="6"/>
       <c r="B453" s="36"/>
-      <c r="C453" s="45"/>
+      <c r="C453" s="46"/>
       <c r="D453" s="6"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="6"/>
       <c r="B454" s="36"/>
-      <c r="C454" s="45"/>
+      <c r="C454" s="46"/>
       <c r="D454" s="6"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="6"/>
       <c r="B455" s="36"/>
-      <c r="C455" s="45"/>
+      <c r="C455" s="46"/>
       <c r="D455" s="6"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="6"/>
       <c r="B456" s="36"/>
-      <c r="C456" s="45"/>
+      <c r="C456" s="46"/>
       <c r="D456" s="6"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="6"/>
       <c r="B457" s="36"/>
-      <c r="C457" s="45"/>
+      <c r="C457" s="46"/>
       <c r="D457" s="6"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="6"/>
       <c r="B458" s="36"/>
-      <c r="C458" s="45"/>
+      <c r="C458" s="46"/>
       <c r="D458" s="6"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="6"/>
       <c r="B459" s="36"/>
-      <c r="C459" s="45"/>
+      <c r="C459" s="46"/>
       <c r="D459" s="6"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="6"/>
       <c r="B460" s="36"/>
-      <c r="C460" s="45"/>
+      <c r="C460" s="46"/>
       <c r="D460" s="6"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="6"/>
       <c r="B461" s="36"/>
-      <c r="C461" s="45"/>
+      <c r="C461" s="46"/>
       <c r="D461" s="6"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="6"/>
       <c r="B462" s="36"/>
-      <c r="C462" s="45"/>
+      <c r="C462" s="46"/>
       <c r="D462" s="6"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="6"/>
       <c r="B463" s="36"/>
-      <c r="C463" s="45"/>
+      <c r="C463" s="46"/>
       <c r="D463" s="6"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="6"/>
       <c r="B464" s="36"/>
-      <c r="C464" s="45"/>
+      <c r="C464" s="46"/>
       <c r="D464" s="6"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="6"/>
       <c r="B465" s="36"/>
-      <c r="C465" s="45"/>
+      <c r="C465" s="46"/>
       <c r="D465" s="6"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="6"/>
       <c r="B466" s="36"/>
-      <c r="C466" s="45"/>
+      <c r="C466" s="46"/>
       <c r="D466" s="6"/>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="6"/>
       <c r="B467" s="36"/>
-      <c r="C467" s="45"/>
+      <c r="C467" s="46"/>
       <c r="D467" s="6"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="6"/>
       <c r="B468" s="36"/>
-      <c r="C468" s="45"/>
+      <c r="C468" s="46"/>
       <c r="D468" s="6"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="6"/>
       <c r="B469" s="36"/>
-      <c r="C469" s="45"/>
+      <c r="C469" s="46"/>
       <c r="D469" s="6"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="6"/>
       <c r="B470" s="36"/>
-      <c r="C470" s="45"/>
+      <c r="C470" s="46"/>
       <c r="D470" s="6"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="6"/>
       <c r="B471" s="36"/>
-      <c r="C471" s="45"/>
+      <c r="C471" s="46"/>
       <c r="D471" s="6"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="6"/>
       <c r="B472" s="36"/>
-      <c r="C472" s="45"/>
+      <c r="C472" s="46"/>
       <c r="D472" s="6"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="6"/>
       <c r="B473" s="36"/>
-      <c r="C473" s="45"/>
+      <c r="C473" s="46"/>
       <c r="D473" s="6"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="6"/>
       <c r="B474" s="36"/>
-      <c r="C474" s="45"/>
+      <c r="C474" s="46"/>
       <c r="D474" s="6"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="6"/>
       <c r="B475" s="36"/>
-      <c r="C475" s="45"/>
+      <c r="C475" s="46"/>
       <c r="D475" s="6"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="6"/>
       <c r="B476" s="36"/>
-      <c r="C476" s="45"/>
+      <c r="C476" s="46"/>
       <c r="D476" s="6"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="6"/>
       <c r="B477" s="36"/>
-      <c r="C477" s="45"/>
+      <c r="C477" s="46"/>
       <c r="D477" s="6"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="6"/>
       <c r="B478" s="36"/>
-      <c r="C478" s="45"/>
+      <c r="C478" s="46"/>
       <c r="D478" s="6"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="6"/>
       <c r="B479" s="36"/>
-      <c r="C479" s="45"/>
+      <c r="C479" s="46"/>
       <c r="D479" s="6"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="6"/>
       <c r="B480" s="36"/>
-      <c r="C480" s="45"/>
+      <c r="C480" s="46"/>
       <c r="D480" s="6"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="6"/>
       <c r="B481" s="36"/>
-      <c r="C481" s="45"/>
+      <c r="C481" s="46"/>
       <c r="D481" s="6"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="6"/>
       <c r="B482" s="36"/>
-      <c r="C482" s="45"/>
+      <c r="C482" s="46"/>
       <c r="D482" s="6"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="6"/>
       <c r="B483" s="36"/>
-      <c r="C483" s="45"/>
+      <c r="C483" s="46"/>
       <c r="D483" s="6"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="6"/>
       <c r="B484" s="36"/>
-      <c r="C484" s="45"/>
+      <c r="C484" s="46"/>
       <c r="D484" s="6"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="6"/>
       <c r="B485" s="36"/>
-      <c r="C485" s="45"/>
+      <c r="C485" s="46"/>
       <c r="D485" s="6"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="6"/>
       <c r="B486" s="36"/>
-      <c r="C486" s="45"/>
+      <c r="C486" s="46"/>
       <c r="D486" s="6"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="6"/>
       <c r="B487" s="36"/>
-      <c r="C487" s="45"/>
+      <c r="C487" s="46"/>
       <c r="D487" s="6"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="6"/>
       <c r="B488" s="36"/>
-      <c r="C488" s="45"/>
+      <c r="C488" s="46"/>
       <c r="D488" s="6"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="6"/>
       <c r="B489" s="36"/>
-      <c r="C489" s="45"/>
+      <c r="C489" s="46"/>
       <c r="D489" s="6"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="6"/>
       <c r="B490" s="36"/>
-      <c r="C490" s="45"/>
+      <c r="C490" s="46"/>
       <c r="D490" s="6"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="6"/>
       <c r="B491" s="36"/>
-      <c r="C491" s="45"/>
+      <c r="C491" s="46"/>
       <c r="D491" s="6"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="6"/>
       <c r="B492" s="36"/>
-      <c r="C492" s="45"/>
+      <c r="C492" s="46"/>
       <c r="D492" s="6"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="6"/>
       <c r="B493" s="36"/>
-      <c r="C493" s="45"/>
+      <c r="C493" s="46"/>
       <c r="D493" s="6"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="6"/>
       <c r="B494" s="36"/>
-      <c r="C494" s="45"/>
+      <c r="C494" s="46"/>
       <c r="D494" s="6"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="6"/>
       <c r="B495" s="36"/>
-      <c r="C495" s="45"/>
+      <c r="C495" s="46"/>
       <c r="D495" s="6"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="6"/>
       <c r="B496" s="36"/>
-      <c r="C496" s="45"/>
+      <c r="C496" s="46"/>
       <c r="D496" s="6"/>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="6"/>
       <c r="B497" s="36"/>
-      <c r="C497" s="45"/>
+      <c r="C497" s="46"/>
       <c r="D497" s="6"/>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="6"/>
       <c r="B498" s="36"/>
-      <c r="C498" s="45"/>
+      <c r="C498" s="46"/>
       <c r="D498" s="6"/>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="6"/>
       <c r="B499" s="36"/>
-      <c r="C499" s="45"/>
+      <c r="C499" s="46"/>
       <c r="D499" s="6"/>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="6"/>
       <c r="B500" s="36"/>
-      <c r="C500" s="45"/>
+      <c r="C500" s="46"/>
       <c r="D500" s="6"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="6"/>
       <c r="B501" s="36"/>
-      <c r="C501" s="45"/>
+      <c r="C501" s="46"/>
       <c r="D501" s="6"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="6"/>
       <c r="B502" s="36"/>
-      <c r="C502" s="45"/>
+      <c r="C502" s="46"/>
       <c r="D502" s="6"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="6"/>
       <c r="B503" s="36"/>
-      <c r="C503" s="45"/>
+      <c r="C503" s="46"/>
       <c r="D503" s="6"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="6"/>
       <c r="B504" s="36"/>
-      <c r="C504" s="45"/>
+      <c r="C504" s="46"/>
       <c r="D504" s="6"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="6"/>
       <c r="B505" s="36"/>
-      <c r="C505" s="45"/>
+      <c r="C505" s="46"/>
       <c r="D505" s="6"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="6"/>
       <c r="B506" s="36"/>
-      <c r="C506" s="45"/>
+      <c r="C506" s="46"/>
       <c r="D506" s="6"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="6"/>
       <c r="B507" s="36"/>
-      <c r="C507" s="45"/>
+      <c r="C507" s="46"/>
       <c r="D507" s="6"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="6"/>
       <c r="B508" s="36"/>
-      <c r="C508" s="45"/>
+      <c r="C508" s="46"/>
       <c r="D508" s="6"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="6"/>
       <c r="B509" s="36"/>
-      <c r="C509" s="45"/>
+      <c r="C509" s="46"/>
       <c r="D509" s="6"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="6"/>
       <c r="B510" s="36"/>
-      <c r="C510" s="45"/>
+      <c r="C510" s="46"/>
       <c r="D510" s="6"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="6"/>
       <c r="B511" s="36"/>
-      <c r="C511" s="45"/>
+      <c r="C511" s="46"/>
       <c r="D511" s="6"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="6"/>
       <c r="B512" s="36"/>
-      <c r="C512" s="45"/>
+      <c r="C512" s="46"/>
       <c r="D512" s="6"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="6"/>
       <c r="B513" s="36"/>
-      <c r="C513" s="45"/>
+      <c r="C513" s="46"/>
       <c r="D513" s="6"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="6"/>
       <c r="B514" s="36"/>
-      <c r="C514" s="45"/>
+      <c r="C514" s="46"/>
       <c r="D514" s="6"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="6"/>
       <c r="B515" s="36"/>
-      <c r="C515" s="45"/>
+      <c r="C515" s="46"/>
       <c r="D515" s="6"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="6"/>
       <c r="B516" s="36"/>
-      <c r="C516" s="45"/>
+      <c r="C516" s="46"/>
       <c r="D516" s="6"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="6"/>
       <c r="B517" s="36"/>
-      <c r="C517" s="45"/>
+      <c r="C517" s="46"/>
       <c r="D517" s="6"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="6"/>
       <c r="B518" s="36"/>
-      <c r="C518" s="45"/>
+      <c r="C518" s="46"/>
       <c r="D518" s="6"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="6"/>
       <c r="B519" s="36"/>
-      <c r="C519" s="45"/>
+      <c r="C519" s="46"/>
       <c r="D519" s="6"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="6"/>
       <c r="B520" s="36"/>
-      <c r="C520" s="45"/>
+      <c r="C520" s="46"/>
       <c r="D520" s="6"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="6"/>
       <c r="B521" s="36"/>
-      <c r="C521" s="45"/>
+      <c r="C521" s="46"/>
       <c r="D521" s="6"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="6"/>
       <c r="B522" s="36"/>
-      <c r="C522" s="45"/>
+      <c r="C522" s="46"/>
       <c r="D522" s="6"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="6"/>
       <c r="B523" s="36"/>
-      <c r="C523" s="45"/>
+      <c r="C523" s="46"/>
       <c r="D523" s="6"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="6"/>
       <c r="B524" s="36"/>
-      <c r="C524" s="45"/>
+      <c r="C524" s="46"/>
       <c r="D524" s="6"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="6"/>
       <c r="B525" s="36"/>
-      <c r="C525" s="45"/>
+      <c r="C525" s="46"/>
       <c r="D525" s="6"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="6"/>
       <c r="B526" s="36"/>
-      <c r="C526" s="45"/>
+      <c r="C526" s="46"/>
       <c r="D526" s="6"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="6"/>
       <c r="B527" s="36"/>
-      <c r="C527" s="45"/>
+      <c r="C527" s="46"/>
       <c r="D527" s="6"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="6"/>
       <c r="B528" s="36"/>
-      <c r="C528" s="45"/>
+      <c r="C528" s="46"/>
       <c r="D528" s="6"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="6"/>
       <c r="B529" s="36"/>
-      <c r="C529" s="45"/>
+      <c r="C529" s="46"/>
       <c r="D529" s="6"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="6"/>
       <c r="B530" s="36"/>
-      <c r="C530" s="45"/>
+      <c r="C530" s="46"/>
       <c r="D530" s="6"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="6"/>
       <c r="B531" s="36"/>
-      <c r="C531" s="45"/>
+      <c r="C531" s="46"/>
       <c r="D531" s="6"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="6"/>
       <c r="B532" s="36"/>
-      <c r="C532" s="45"/>
+      <c r="C532" s="46"/>
       <c r="D532" s="6"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="6"/>
       <c r="B533" s="36"/>
-      <c r="C533" s="45"/>
+      <c r="C533" s="46"/>
       <c r="D533" s="6"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="6"/>
       <c r="B534" s="36"/>
-      <c r="C534" s="45"/>
+      <c r="C534" s="46"/>
       <c r="D534" s="6"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="6"/>
       <c r="B535" s="36"/>
-      <c r="C535" s="45"/>
+      <c r="C535" s="46"/>
       <c r="D535" s="6"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="6"/>
       <c r="B536" s="36"/>
-      <c r="C536" s="45"/>
+      <c r="C536" s="46"/>
       <c r="D536" s="6"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="6"/>
       <c r="B537" s="36"/>
-      <c r="C537" s="45"/>
+      <c r="C537" s="46"/>
       <c r="D537" s="6"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="6"/>
       <c r="B538" s="36"/>
-      <c r="C538" s="45"/>
+      <c r="C538" s="46"/>
       <c r="D538" s="6"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="6"/>
       <c r="B539" s="36"/>
-      <c r="C539" s="45"/>
+      <c r="C539" s="46"/>
       <c r="D539" s="6"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="6"/>
       <c r="B540" s="36"/>
-      <c r="C540" s="45"/>
+      <c r="C540" s="46"/>
       <c r="D540" s="6"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="6"/>
       <c r="B541" s="36"/>
-      <c r="C541" s="45"/>
+      <c r="C541" s="46"/>
       <c r="D541" s="6"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="6"/>
       <c r="B542" s="36"/>
-      <c r="C542" s="45"/>
+      <c r="C542" s="46"/>
       <c r="D542" s="6"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="6"/>
       <c r="B543" s="36"/>
-      <c r="C543" s="45"/>
+      <c r="C543" s="46"/>
       <c r="D543" s="6"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="6"/>
       <c r="B544" s="36"/>
-      <c r="C544" s="45"/>
+      <c r="C544" s="46"/>
       <c r="D544" s="6"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="6"/>
       <c r="B545" s="36"/>
-      <c r="C545" s="45"/>
+      <c r="C545" s="46"/>
       <c r="D545" s="6"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="6"/>
       <c r="B546" s="36"/>
-      <c r="C546" s="45"/>
+      <c r="C546" s="46"/>
       <c r="D546" s="6"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="6"/>
       <c r="B547" s="36"/>
-      <c r="C547" s="45"/>
+      <c r="C547" s="46"/>
       <c r="D547" s="6"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="6"/>
       <c r="B548" s="36"/>
-      <c r="C548" s="45"/>
+      <c r="C548" s="46"/>
       <c r="D548" s="6"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="6"/>
       <c r="B549" s="36"/>
-      <c r="C549" s="45"/>
+      <c r="C549" s="46"/>
       <c r="D549" s="6"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="6"/>
       <c r="B550" s="36"/>
-      <c r="C550" s="45"/>
+      <c r="C550" s="46"/>
       <c r="D550" s="6"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="6"/>
       <c r="B551" s="36"/>
-      <c r="C551" s="45"/>
+      <c r="C551" s="46"/>
       <c r="D551" s="6"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="6"/>
       <c r="B552" s="36"/>
-      <c r="C552" s="45"/>
+      <c r="C552" s="46"/>
       <c r="D552" s="6"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="6"/>
       <c r="B553" s="36"/>
-      <c r="C553" s="45"/>
+      <c r="C553" s="46"/>
       <c r="D553" s="6"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="6"/>
       <c r="B554" s="36"/>
-      <c r="C554" s="45"/>
+      <c r="C554" s="46"/>
       <c r="D554" s="6"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="6"/>
       <c r="B555" s="36"/>
-      <c r="C555" s="45"/>
+      <c r="C555" s="46"/>
       <c r="D555" s="6"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="6"/>
       <c r="B556" s="36"/>
-      <c r="C556" s="45"/>
+      <c r="C556" s="46"/>
       <c r="D556" s="6"/>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="6"/>
       <c r="B557" s="36"/>
-      <c r="C557" s="45"/>
+      <c r="C557" s="46"/>
       <c r="D557" s="6"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="6"/>
       <c r="B558" s="36"/>
-      <c r="C558" s="45"/>
+      <c r="C558" s="46"/>
       <c r="D558" s="6"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="6"/>
       <c r="B559" s="36"/>
-      <c r="C559" s="45"/>
+      <c r="C559" s="46"/>
       <c r="D559" s="6"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="6"/>
       <c r="B560" s="36"/>
-      <c r="C560" s="45"/>
+      <c r="C560" s="46"/>
       <c r="D560" s="6"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="6"/>
       <c r="B561" s="36"/>
-      <c r="C561" s="45"/>
+      <c r="C561" s="46"/>
       <c r="D561" s="6"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="6"/>
       <c r="B562" s="36"/>
-      <c r="C562" s="45"/>
+      <c r="C562" s="46"/>
       <c r="D562" s="6"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="6"/>
       <c r="B563" s="36"/>
-      <c r="C563" s="45"/>
+      <c r="C563" s="46"/>
       <c r="D563" s="6"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="6"/>
       <c r="B564" s="36"/>
-      <c r="C564" s="45"/>
+      <c r="C564" s="46"/>
       <c r="D564" s="6"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="6"/>
       <c r="B565" s="36"/>
-      <c r="C565" s="45"/>
+      <c r="C565" s="46"/>
       <c r="D565" s="6"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="6"/>
       <c r="B566" s="36"/>
-      <c r="C566" s="45"/>
+      <c r="C566" s="46"/>
       <c r="D566" s="6"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="6"/>
       <c r="B567" s="36"/>
-      <c r="C567" s="45"/>
+      <c r="C567" s="46"/>
       <c r="D567" s="6"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="6"/>
       <c r="B568" s="36"/>
-      <c r="C568" s="45"/>
+      <c r="C568" s="46"/>
       <c r="D568" s="6"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="6"/>
       <c r="B569" s="36"/>
-      <c r="C569" s="45"/>
+      <c r="C569" s="46"/>
       <c r="D569" s="6"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="6"/>
       <c r="B570" s="36"/>
-      <c r="C570" s="45"/>
+      <c r="C570" s="46"/>
       <c r="D570" s="6"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="6"/>
       <c r="B571" s="36"/>
-      <c r="C571" s="45"/>
+      <c r="C571" s="46"/>
       <c r="D571" s="6"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="6"/>
       <c r="B572" s="36"/>
-      <c r="C572" s="45"/>
+      <c r="C572" s="46"/>
       <c r="D572" s="6"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="6"/>
       <c r="B573" s="36"/>
-      <c r="C573" s="45"/>
+      <c r="C573" s="46"/>
       <c r="D573" s="6"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="6"/>
       <c r="B574" s="36"/>
-      <c r="C574" s="45"/>
+      <c r="C574" s="46"/>
       <c r="D574" s="6"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="6"/>
       <c r="B575" s="36"/>
-      <c r="C575" s="45"/>
+      <c r="C575" s="46"/>
       <c r="D575" s="6"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="6"/>
       <c r="B576" s="36"/>
-      <c r="C576" s="45"/>
+      <c r="C576" s="46"/>
       <c r="D576" s="6"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="6"/>
       <c r="B577" s="36"/>
-      <c r="C577" s="45"/>
+      <c r="C577" s="46"/>
       <c r="D577" s="6"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="6"/>
       <c r="B578" s="36"/>
-      <c r="C578" s="45"/>
+      <c r="C578" s="46"/>
       <c r="D578" s="6"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="6"/>
       <c r="B579" s="36"/>
-      <c r="C579" s="45"/>
+      <c r="C579" s="46"/>
       <c r="D579" s="6"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="6"/>
       <c r="B580" s="36"/>
-      <c r="C580" s="45"/>
+      <c r="C580" s="46"/>
       <c r="D580" s="6"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="6"/>
       <c r="B581" s="36"/>
-      <c r="C581" s="45"/>
+      <c r="C581" s="46"/>
       <c r="D581" s="6"/>
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="6"/>
       <c r="B582" s="36"/>
-      <c r="C582" s="45"/>
+      <c r="C582" s="46"/>
       <c r="D582" s="6"/>
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="6"/>
       <c r="B583" s="36"/>
-      <c r="C583" s="45"/>
+      <c r="C583" s="46"/>
       <c r="D583" s="6"/>
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="6"/>
       <c r="B584" s="36"/>
-      <c r="C584" s="45"/>
+      <c r="C584" s="46"/>
       <c r="D584" s="6"/>
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="6"/>
       <c r="B585" s="36"/>
-      <c r="C585" s="45"/>
+      <c r="C585" s="46"/>
       <c r="D585" s="6"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="6"/>
       <c r="B586" s="36"/>
-      <c r="C586" s="45"/>
+      <c r="C586" s="46"/>
       <c r="D586" s="6"/>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="6"/>
       <c r="B587" s="36"/>
-      <c r="C587" s="45"/>
+      <c r="C587" s="46"/>
       <c r="D587" s="6"/>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="6"/>
       <c r="B588" s="36"/>
-      <c r="C588" s="45"/>
+      <c r="C588" s="46"/>
       <c r="D588" s="6"/>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="6"/>
       <c r="B589" s="36"/>
-      <c r="C589" s="45"/>
+      <c r="C589" s="46"/>
       <c r="D589" s="6"/>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="6"/>
       <c r="B590" s="36"/>
-      <c r="C590" s="45"/>
+      <c r="C590" s="46"/>
       <c r="D590" s="6"/>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="6"/>
       <c r="B591" s="36"/>
-      <c r="C591" s="45"/>
+      <c r="C591" s="46"/>
       <c r="D591" s="6"/>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="6"/>
       <c r="B592" s="36"/>
-      <c r="C592" s="45"/>
+      <c r="C592" s="46"/>
       <c r="D592" s="6"/>
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="6"/>
       <c r="B593" s="36"/>
-      <c r="C593" s="45"/>
+      <c r="C593" s="46"/>
       <c r="D593" s="6"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="6"/>
       <c r="B594" s="36"/>
-      <c r="C594" s="45"/>
+      <c r="C594" s="46"/>
       <c r="D594" s="6"/>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="6"/>
       <c r="B595" s="36"/>
-      <c r="C595" s="45"/>
+      <c r="C595" s="46"/>
       <c r="D595" s="6"/>
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="6"/>
       <c r="B596" s="36"/>
-      <c r="C596" s="45"/>
+      <c r="C596" s="46"/>
       <c r="D596" s="6"/>
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="6"/>
       <c r="B597" s="36"/>
-      <c r="C597" s="45"/>
+      <c r="C597" s="46"/>
       <c r="D597" s="6"/>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="6"/>
       <c r="B598" s="36"/>
-      <c r="C598" s="45"/>
+      <c r="C598" s="46"/>
       <c r="D598" s="6"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="6"/>
       <c r="B599" s="36"/>
-      <c r="C599" s="45"/>
+      <c r="C599" s="46"/>
       <c r="D599" s="6"/>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="6"/>
       <c r="B600" s="36"/>
-      <c r="C600" s="45"/>
+      <c r="C600" s="46"/>
       <c r="D600" s="6"/>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="6"/>
       <c r="B601" s="36"/>
-      <c r="C601" s="45"/>
+      <c r="C601" s="46"/>
       <c r="D601" s="6"/>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="6"/>
       <c r="B602" s="36"/>
-      <c r="C602" s="45"/>
+      <c r="C602" s="46"/>
       <c r="D602" s="6"/>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="6"/>
       <c r="B603" s="36"/>
-      <c r="C603" s="45"/>
+      <c r="C603" s="46"/>
       <c r="D603" s="6"/>
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="6"/>
       <c r="B604" s="36"/>
-      <c r="C604" s="45"/>
+      <c r="C604" s="46"/>
       <c r="D604" s="6"/>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="6"/>
       <c r="B605" s="36"/>
-      <c r="C605" s="45"/>
+      <c r="C605" s="46"/>
       <c r="D605" s="6"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="6"/>
       <c r="B606" s="36"/>
-      <c r="C606" s="45"/>
+      <c r="C606" s="46"/>
       <c r="D606" s="6"/>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="6"/>
       <c r="B607" s="36"/>
-      <c r="C607" s="45"/>
+      <c r="C607" s="46"/>
       <c r="D607" s="6"/>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="6"/>
       <c r="B608" s="36"/>
-      <c r="C608" s="45"/>
+      <c r="C608" s="46"/>
       <c r="D608" s="6"/>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="6"/>
       <c r="B609" s="36"/>
-      <c r="C609" s="45"/>
+      <c r="C609" s="46"/>
       <c r="D609" s="6"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="6"/>
       <c r="B610" s="36"/>
-      <c r="C610" s="45"/>
+      <c r="C610" s="46"/>
       <c r="D610" s="6"/>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="6"/>
       <c r="B611" s="36"/>
-      <c r="C611" s="45"/>
+      <c r="C611" s="46"/>
       <c r="D611" s="6"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="6"/>
       <c r="B612" s="36"/>
-      <c r="C612" s="45"/>
+      <c r="C612" s="46"/>
       <c r="D612" s="6"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="6"/>
       <c r="B613" s="36"/>
-      <c r="C613" s="45"/>
+      <c r="C613" s="46"/>
       <c r="D613" s="6"/>
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="6"/>
       <c r="B614" s="36"/>
-      <c r="C614" s="45"/>
+      <c r="C614" s="46"/>
       <c r="D614" s="6"/>
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="6"/>
       <c r="B615" s="36"/>
-      <c r="C615" s="45"/>
+      <c r="C615" s="46"/>
       <c r="D615" s="6"/>
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="6"/>
       <c r="B616" s="36"/>
-      <c r="C616" s="45"/>
+      <c r="C616" s="46"/>
       <c r="D616" s="6"/>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="6"/>
       <c r="B617" s="36"/>
-      <c r="C617" s="45"/>
+      <c r="C617" s="46"/>
       <c r="D617" s="6"/>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="6"/>
       <c r="B618" s="36"/>
-      <c r="C618" s="45"/>
+      <c r="C618" s="46"/>
       <c r="D618" s="6"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="6"/>
       <c r="B619" s="36"/>
-      <c r="C619" s="45"/>
+      <c r="C619" s="46"/>
       <c r="D619" s="6"/>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="6"/>
       <c r="B620" s="36"/>
-      <c r="C620" s="45"/>
+      <c r="C620" s="46"/>
       <c r="D620" s="6"/>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="6"/>
       <c r="B621" s="36"/>
-      <c r="C621" s="45"/>
+      <c r="C621" s="46"/>
       <c r="D621" s="6"/>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="6"/>
       <c r="B622" s="36"/>
-      <c r="C622" s="45"/>
+      <c r="C622" s="46"/>
       <c r="D622" s="6"/>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="6"/>
       <c r="B623" s="36"/>
-      <c r="C623" s="45"/>
+      <c r="C623" s="46"/>
       <c r="D623" s="6"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="6"/>
       <c r="B624" s="36"/>
-      <c r="C624" s="45"/>
+      <c r="C624" s="46"/>
       <c r="D624" s="6"/>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="6"/>
       <c r="B625" s="36"/>
-      <c r="C625" s="45"/>
+      <c r="C625" s="46"/>
       <c r="D625" s="6"/>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="6"/>
       <c r="B626" s="36"/>
-      <c r="C626" s="45"/>
+      <c r="C626" s="46"/>
       <c r="D626" s="6"/>
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="6"/>
       <c r="B627" s="36"/>
-      <c r="C627" s="45"/>
+      <c r="C627" s="46"/>
       <c r="D627" s="6"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="6"/>
       <c r="B628" s="36"/>
-      <c r="C628" s="45"/>
+      <c r="C628" s="46"/>
       <c r="D628" s="6"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="6"/>
       <c r="B629" s="36"/>
-      <c r="C629" s="45"/>
+      <c r="C629" s="46"/>
       <c r="D629" s="6"/>
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="6"/>
       <c r="B630" s="36"/>
-      <c r="C630" s="45"/>
+      <c r="C630" s="46"/>
       <c r="D630" s="6"/>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="6"/>
       <c r="B631" s="36"/>
-      <c r="C631" s="45"/>
+      <c r="C631" s="46"/>
       <c r="D631" s="6"/>
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="6"/>
       <c r="B632" s="36"/>
-      <c r="C632" s="45"/>
+      <c r="C632" s="46"/>
       <c r="D632" s="6"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="6"/>
       <c r="B633" s="36"/>
-      <c r="C633" s="45"/>
+      <c r="C633" s="46"/>
       <c r="D633" s="6"/>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="6"/>
       <c r="B634" s="36"/>
-      <c r="C634" s="45"/>
+      <c r="C634" s="46"/>
       <c r="D634" s="6"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="6"/>
       <c r="B635" s="36"/>
-      <c r="C635" s="45"/>
+      <c r="C635" s="46"/>
       <c r="D635" s="6"/>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="6"/>
       <c r="B636" s="36"/>
-      <c r="C636" s="45"/>
+      <c r="C636" s="46"/>
       <c r="D636" s="6"/>
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="6"/>
       <c r="B637" s="36"/>
-      <c r="C637" s="45"/>
+      <c r="C637" s="46"/>
       <c r="D637" s="6"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="6"/>
       <c r="B638" s="36"/>
-      <c r="C638" s="45"/>
+      <c r="C638" s="46"/>
       <c r="D638" s="6"/>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="6"/>
       <c r="B639" s="36"/>
-      <c r="C639" s="45"/>
+      <c r="C639" s="46"/>
       <c r="D639" s="6"/>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="6"/>
       <c r="B640" s="36"/>
-      <c r="C640" s="45"/>
+      <c r="C640" s="46"/>
       <c r="D640" s="6"/>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="6"/>
       <c r="B641" s="36"/>
-      <c r="C641" s="45"/>
+      <c r="C641" s="46"/>
       <c r="D641" s="6"/>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="6"/>
       <c r="B642" s="36"/>
-      <c r="C642" s="45"/>
+      <c r="C642" s="46"/>
       <c r="D642" s="6"/>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="6"/>
       <c r="B643" s="36"/>
-      <c r="C643" s="45"/>
+      <c r="C643" s="46"/>
       <c r="D643" s="6"/>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="6"/>
       <c r="B644" s="36"/>
-      <c r="C644" s="45"/>
+      <c r="C644" s="46"/>
       <c r="D644" s="6"/>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="6"/>
       <c r="B645" s="36"/>
-      <c r="C645" s="45"/>
+      <c r="C645" s="46"/>
       <c r="D645" s="6"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="6"/>
       <c r="B646" s="36"/>
-      <c r="C646" s="45"/>
+      <c r="C646" s="46"/>
       <c r="D646" s="6"/>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="6"/>
       <c r="B647" s="36"/>
-      <c r="C647" s="45"/>
+      <c r="C647" s="46"/>
       <c r="D647" s="6"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="6"/>
       <c r="B648" s="36"/>
-      <c r="C648" s="45"/>
+      <c r="C648" s="46"/>
       <c r="D648" s="6"/>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="6"/>
       <c r="B649" s="36"/>
-      <c r="C649" s="45"/>
+      <c r="C649" s="46"/>
       <c r="D649" s="6"/>
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="6"/>
       <c r="B650" s="36"/>
-      <c r="C650" s="45"/>
+      <c r="C650" s="46"/>
       <c r="D650" s="6"/>
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="6"/>
       <c r="B651" s="36"/>
-      <c r="C651" s="45"/>
+      <c r="C651" s="46"/>
       <c r="D651" s="6"/>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="6"/>
       <c r="B652" s="36"/>
-      <c r="C652" s="45"/>
+      <c r="C652" s="46"/>
       <c r="D652" s="6"/>
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="6"/>
       <c r="B653" s="36"/>
-      <c r="C653" s="45"/>
+      <c r="C653" s="46"/>
       <c r="D653" s="6"/>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="6"/>
       <c r="B654" s="36"/>
-      <c r="C654" s="45"/>
+      <c r="C654" s="46"/>
       <c r="D654" s="6"/>
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="6"/>
       <c r="B655" s="36"/>
-      <c r="C655" s="45"/>
+      <c r="C655" s="46"/>
       <c r="D655" s="6"/>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="6"/>
       <c r="B656" s="36"/>
-      <c r="C656" s="45"/>
+      <c r="C656" s="46"/>
       <c r="D656" s="6"/>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="6"/>
       <c r="B657" s="36"/>
-      <c r="C657" s="45"/>
+      <c r="C657" s="46"/>
       <c r="D657" s="6"/>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="6"/>
       <c r="B658" s="36"/>
-      <c r="C658" s="45"/>
+      <c r="C658" s="46"/>
       <c r="D658" s="6"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="6"/>
       <c r="B659" s="36"/>
-      <c r="C659" s="45"/>
+      <c r="C659" s="46"/>
       <c r="D659" s="6"/>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="6"/>
       <c r="B660" s="36"/>
-      <c r="C660" s="45"/>
+      <c r="C660" s="46"/>
       <c r="D660" s="6"/>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="6"/>
       <c r="B661" s="36"/>
-      <c r="C661" s="45"/>
+      <c r="C661" s="46"/>
       <c r="D661" s="6"/>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="6"/>
       <c r="B662" s="36"/>
-      <c r="C662" s="45"/>
+      <c r="C662" s="46"/>
       <c r="D662" s="6"/>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="6"/>
       <c r="B663" s="36"/>
-      <c r="C663" s="45"/>
+      <c r="C663" s="46"/>
       <c r="D663" s="6"/>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="6"/>
       <c r="B664" s="36"/>
-      <c r="C664" s="45"/>
+      <c r="C664" s="46"/>
       <c r="D664" s="6"/>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="6"/>
       <c r="B665" s="36"/>
-      <c r="C665" s="45"/>
+      <c r="C665" s="46"/>
       <c r="D665" s="6"/>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="6"/>
       <c r="B666" s="36"/>
-      <c r="C666" s="45"/>
+      <c r="C666" s="46"/>
       <c r="D666" s="6"/>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="6"/>
       <c r="B667" s="36"/>
-      <c r="C667" s="45"/>
+      <c r="C667" s="46"/>
       <c r="D667" s="6"/>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="6"/>
       <c r="B668" s="36"/>
-      <c r="C668" s="45"/>
+      <c r="C668" s="46"/>
       <c r="D668" s="6"/>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="6"/>
       <c r="B669" s="36"/>
-      <c r="C669" s="45"/>
+      <c r="C669" s="46"/>
       <c r="D669" s="6"/>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="6"/>
       <c r="B670" s="36"/>
-      <c r="C670" s="45"/>
+      <c r="C670" s="46"/>
       <c r="D670" s="6"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="6"/>
       <c r="B671" s="36"/>
-      <c r="C671" s="45"/>
+      <c r="C671" s="46"/>
       <c r="D671" s="6"/>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="6"/>
       <c r="B672" s="36"/>
-      <c r="C672" s="45"/>
+      <c r="C672" s="46"/>
       <c r="D672" s="6"/>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="6"/>
       <c r="B673" s="36"/>
-      <c r="C673" s="45"/>
+      <c r="C673" s="46"/>
       <c r="D673" s="6"/>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="6"/>
       <c r="B674" s="36"/>
-      <c r="C674" s="45"/>
+      <c r="C674" s="46"/>
       <c r="D674" s="6"/>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="6"/>
       <c r="B675" s="36"/>
-      <c r="C675" s="45"/>
+      <c r="C675" s="46"/>
       <c r="D675" s="6"/>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="6"/>
       <c r="B676" s="36"/>
-      <c r="C676" s="45"/>
+      <c r="C676" s="46"/>
       <c r="D676" s="6"/>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="6"/>
       <c r="B677" s="36"/>
-      <c r="C677" s="45"/>
+      <c r="C677" s="46"/>
       <c r="D677" s="6"/>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="6"/>
       <c r="B678" s="36"/>
-      <c r="C678" s="45"/>
+      <c r="C678" s="46"/>
       <c r="D678" s="6"/>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="6"/>
       <c r="B679" s="36"/>
-      <c r="C679" s="45"/>
+      <c r="C679" s="46"/>
       <c r="D679" s="6"/>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="6"/>
       <c r="B680" s="36"/>
-      <c r="C680" s="45"/>
+      <c r="C680" s="46"/>
       <c r="D680" s="6"/>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="6"/>
       <c r="B681" s="36"/>
-      <c r="C681" s="45"/>
+      <c r="C681" s="46"/>
       <c r="D681" s="6"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="6"/>
       <c r="B682" s="36"/>
-      <c r="C682" s="45"/>
+      <c r="C682" s="46"/>
       <c r="D682" s="6"/>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="6"/>
       <c r="B683" s="36"/>
-      <c r="C683" s="45"/>
+      <c r="C683" s="46"/>
       <c r="D683" s="6"/>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="6"/>
       <c r="B684" s="36"/>
-      <c r="C684" s="45"/>
+      <c r="C684" s="46"/>
       <c r="D684" s="6"/>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="6"/>
       <c r="B685" s="36"/>
-      <c r="C685" s="45"/>
+      <c r="C685" s="46"/>
       <c r="D685" s="6"/>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="6"/>
       <c r="B686" s="36"/>
-      <c r="C686" s="45"/>
+      <c r="C686" s="46"/>
       <c r="D686" s="6"/>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="6"/>
       <c r="B687" s="36"/>
-      <c r="C687" s="45"/>
+      <c r="C687" s="46"/>
       <c r="D687" s="6"/>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="6"/>
       <c r="B688" s="36"/>
-      <c r="C688" s="45"/>
+      <c r="C688" s="46"/>
       <c r="D688" s="6"/>
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="6"/>
       <c r="B689" s="36"/>
-      <c r="C689" s="45"/>
+      <c r="C689" s="46"/>
       <c r="D689" s="6"/>
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="6"/>
       <c r="B690" s="36"/>
-      <c r="C690" s="45"/>
+      <c r="C690" s="46"/>
       <c r="D690" s="6"/>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="6"/>
       <c r="B691" s="36"/>
-      <c r="C691" s="45"/>
+      <c r="C691" s="46"/>
       <c r="D691" s="6"/>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="6"/>
       <c r="B692" s="36"/>
-      <c r="C692" s="45"/>
+      <c r="C692" s="46"/>
       <c r="D692" s="6"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="6"/>
       <c r="B693" s="36"/>
-      <c r="C693" s="45"/>
+      <c r="C693" s="46"/>
       <c r="D693" s="6"/>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="6"/>
       <c r="B694" s="36"/>
-      <c r="C694" s="45"/>
+      <c r="C694" s="46"/>
       <c r="D694" s="6"/>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="6"/>
       <c r="B695" s="36"/>
-      <c r="C695" s="45"/>
+      <c r="C695" s="46"/>
       <c r="D695" s="6"/>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="6"/>
       <c r="B696" s="36"/>
-      <c r="C696" s="45"/>
+      <c r="C696" s="46"/>
       <c r="D696" s="6"/>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="6"/>
       <c r="B697" s="36"/>
-      <c r="C697" s="45"/>
+      <c r="C697" s="46"/>
       <c r="D697" s="6"/>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="6"/>
       <c r="B698" s="36"/>
-      <c r="C698" s="45"/>
+      <c r="C698" s="46"/>
       <c r="D698" s="6"/>
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="6"/>
       <c r="B699" s="36"/>
-      <c r="C699" s="45"/>
+      <c r="C699" s="46"/>
       <c r="D699" s="6"/>
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="6"/>
       <c r="B700" s="36"/>
-      <c r="C700" s="45"/>
+      <c r="C700" s="46"/>
       <c r="D700" s="6"/>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="6"/>
       <c r="B701" s="36"/>
-      <c r="C701" s="45"/>
+      <c r="C701" s="46"/>
       <c r="D701" s="6"/>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="6"/>
       <c r="B702" s="36"/>
-      <c r="C702" s="45"/>
+      <c r="C702" s="46"/>
       <c r="D702" s="6"/>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="6"/>
       <c r="B703" s="36"/>
-      <c r="C703" s="45"/>
+      <c r="C703" s="46"/>
       <c r="D703" s="6"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="6"/>
       <c r="B704" s="36"/>
-      <c r="C704" s="45"/>
+      <c r="C704" s="46"/>
       <c r="D704" s="6"/>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="6"/>
       <c r="B705" s="36"/>
-      <c r="C705" s="45"/>
+      <c r="C705" s="46"/>
       <c r="D705" s="6"/>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="6"/>
       <c r="B706" s="36"/>
-      <c r="C706" s="45"/>
+      <c r="C706" s="46"/>
       <c r="D706" s="6"/>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="6"/>
       <c r="B707" s="36"/>
-      <c r="C707" s="45"/>
+      <c r="C707" s="46"/>
       <c r="D707" s="6"/>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="6"/>
       <c r="B708" s="36"/>
-      <c r="C708" s="45"/>
+      <c r="C708" s="46"/>
       <c r="D708" s="6"/>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="6"/>
       <c r="B709" s="36"/>
-      <c r="C709" s="45"/>
+      <c r="C709" s="46"/>
       <c r="D709" s="6"/>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="6"/>
       <c r="B710" s="36"/>
-      <c r="C710" s="45"/>
+      <c r="C710" s="46"/>
       <c r="D710" s="6"/>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="6"/>
       <c r="B711" s="36"/>
-      <c r="C711" s="45"/>
+      <c r="C711" s="46"/>
       <c r="D711" s="6"/>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="6"/>
       <c r="B712" s="36"/>
-      <c r="C712" s="45"/>
+      <c r="C712" s="46"/>
       <c r="D712" s="6"/>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="6"/>
       <c r="B713" s="36"/>
-      <c r="C713" s="45"/>
+      <c r="C713" s="46"/>
       <c r="D713" s="6"/>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="6"/>
       <c r="B714" s="36"/>
-      <c r="C714" s="45"/>
+      <c r="C714" s="46"/>
       <c r="D714" s="6"/>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="6"/>
       <c r="B715" s="36"/>
-      <c r="C715" s="45"/>
+      <c r="C715" s="46"/>
       <c r="D715" s="6"/>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="6"/>
       <c r="B716" s="36"/>
-      <c r="C716" s="45"/>
+      <c r="C716" s="46"/>
       <c r="D716" s="6"/>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="6"/>
       <c r="B717" s="36"/>
-      <c r="C717" s="45"/>
+      <c r="C717" s="46"/>
       <c r="D717" s="6"/>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="6"/>
       <c r="B718" s="36"/>
-      <c r="C718" s="45"/>
+      <c r="C718" s="46"/>
       <c r="D718" s="6"/>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="6"/>
       <c r="B719" s="36"/>
-      <c r="C719" s="45"/>
+      <c r="C719" s="46"/>
       <c r="D719" s="6"/>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="6"/>
       <c r="B720" s="36"/>
-      <c r="C720" s="45"/>
+      <c r="C720" s="46"/>
       <c r="D720" s="6"/>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="6"/>
       <c r="B721" s="36"/>
-      <c r="C721" s="45"/>
+      <c r="C721" s="46"/>
       <c r="D721" s="6"/>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="6"/>
       <c r="B722" s="36"/>
-      <c r="C722" s="45"/>
+      <c r="C722" s="46"/>
       <c r="D722" s="6"/>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="6"/>
       <c r="B723" s="36"/>
-      <c r="C723" s="45"/>
+      <c r="C723" s="46"/>
       <c r="D723" s="6"/>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="6"/>
       <c r="B724" s="36"/>
-      <c r="C724" s="45"/>
+      <c r="C724" s="46"/>
       <c r="D724" s="6"/>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="6"/>
       <c r="B725" s="36"/>
-      <c r="C725" s="45"/>
+      <c r="C725" s="46"/>
       <c r="D725" s="6"/>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="6"/>
       <c r="B726" s="36"/>
-      <c r="C726" s="45"/>
+      <c r="C726" s="46"/>
       <c r="D726" s="6"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="6"/>
       <c r="B727" s="36"/>
-      <c r="C727" s="45"/>
+      <c r="C727" s="46"/>
       <c r="D727" s="6"/>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="6"/>
       <c r="B728" s="36"/>
-      <c r="C728" s="45"/>
+      <c r="C728" s="46"/>
       <c r="D728" s="6"/>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="6"/>
       <c r="B729" s="36"/>
-      <c r="C729" s="45"/>
+      <c r="C729" s="46"/>
       <c r="D729" s="6"/>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="6"/>
       <c r="B730" s="36"/>
-      <c r="C730" s="45"/>
+      <c r="C730" s="46"/>
       <c r="D730" s="6"/>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="6"/>
       <c r="B731" s="36"/>
-      <c r="C731" s="45"/>
+      <c r="C731" s="46"/>
       <c r="D731" s="6"/>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="6"/>
       <c r="B732" s="36"/>
-      <c r="C732" s="45"/>
+      <c r="C732" s="46"/>
       <c r="D732" s="6"/>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="6"/>
       <c r="B733" s="36"/>
-      <c r="C733" s="45"/>
+      <c r="C733" s="46"/>
       <c r="D733" s="6"/>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="6"/>
       <c r="B734" s="36"/>
-      <c r="C734" s="45"/>
+      <c r="C734" s="46"/>
       <c r="D734" s="6"/>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="6"/>
       <c r="B735" s="36"/>
-      <c r="C735" s="45"/>
+      <c r="C735" s="46"/>
       <c r="D735" s="6"/>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="6"/>
       <c r="B736" s="36"/>
-      <c r="C736" s="45"/>
+      <c r="C736" s="46"/>
       <c r="D736" s="6"/>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="6"/>
       <c r="B737" s="36"/>
-      <c r="C737" s="45"/>
+      <c r="C737" s="46"/>
       <c r="D737" s="6"/>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="6"/>
       <c r="B738" s="36"/>
-      <c r="C738" s="45"/>
+      <c r="C738" s="46"/>
       <c r="D738" s="6"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="6"/>
       <c r="B739" s="36"/>
-      <c r="C739" s="45"/>
+      <c r="C739" s="46"/>
       <c r="D739" s="6"/>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="6"/>
       <c r="B740" s="36"/>
-      <c r="C740" s="45"/>
+      <c r="C740" s="46"/>
       <c r="D740" s="6"/>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="6"/>
       <c r="B741" s="36"/>
-      <c r="C741" s="45"/>
+      <c r="C741" s="46"/>
       <c r="D741" s="6"/>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="6"/>
       <c r="B742" s="36"/>
-      <c r="C742" s="45"/>
+      <c r="C742" s="46"/>
       <c r="D742" s="6"/>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="6"/>
       <c r="B743" s="36"/>
-      <c r="C743" s="45"/>
+      <c r="C743" s="46"/>
       <c r="D743" s="6"/>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="6"/>
       <c r="B744" s="36"/>
-      <c r="C744" s="45"/>
+      <c r="C744" s="46"/>
       <c r="D744" s="6"/>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="6"/>
       <c r="B745" s="36"/>
-      <c r="C745" s="45"/>
+      <c r="C745" s="46"/>
       <c r="D745" s="6"/>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="6"/>
       <c r="B746" s="36"/>
-      <c r="C746" s="45"/>
+      <c r="C746" s="46"/>
       <c r="D746" s="6"/>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="6"/>
       <c r="B747" s="36"/>
-      <c r="C747" s="45"/>
+      <c r="C747" s="46"/>
       <c r="D747" s="6"/>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="6"/>
       <c r="B748" s="36"/>
-      <c r="C748" s="45"/>
+      <c r="C748" s="46"/>
       <c r="D748" s="6"/>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="6"/>
       <c r="B749" s="36"/>
-      <c r="C749" s="45"/>
+      <c r="C749" s="46"/>
       <c r="D749" s="6"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="6"/>
       <c r="B750" s="36"/>
-      <c r="C750" s="45"/>
+      <c r="C750" s="46"/>
       <c r="D750" s="6"/>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="6"/>
       <c r="B751" s="36"/>
-      <c r="C751" s="45"/>
+      <c r="C751" s="46"/>
       <c r="D751" s="6"/>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="6"/>
       <c r="B752" s="36"/>
-      <c r="C752" s="45"/>
+      <c r="C752" s="46"/>
       <c r="D752" s="6"/>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="6"/>
       <c r="B753" s="36"/>
-      <c r="C753" s="45"/>
+      <c r="C753" s="46"/>
       <c r="D753" s="6"/>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="6"/>
       <c r="B754" s="36"/>
-      <c r="C754" s="45"/>
+      <c r="C754" s="46"/>
       <c r="D754" s="6"/>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="6"/>
       <c r="B755" s="36"/>
-      <c r="C755" s="45"/>
+      <c r="C755" s="46"/>
       <c r="D755" s="6"/>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="6"/>
       <c r="B756" s="36"/>
-      <c r="C756" s="45"/>
+      <c r="C756" s="46"/>
       <c r="D756" s="6"/>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="6"/>
       <c r="B757" s="36"/>
-      <c r="C757" s="45"/>
+      <c r="C757" s="46"/>
       <c r="D757" s="6"/>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="6"/>
       <c r="B758" s="36"/>
-      <c r="C758" s="45"/>
+      <c r="C758" s="46"/>
       <c r="D758" s="6"/>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="6"/>
       <c r="B759" s="36"/>
-      <c r="C759" s="45"/>
+      <c r="C759" s="46"/>
       <c r="D759" s="6"/>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="6"/>
       <c r="B760" s="36"/>
-      <c r="C760" s="45"/>
+      <c r="C760" s="46"/>
       <c r="D760" s="6"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="6"/>
       <c r="B761" s="36"/>
-      <c r="C761" s="45"/>
+      <c r="C761" s="46"/>
       <c r="D761" s="6"/>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="6"/>
       <c r="B762" s="36"/>
-      <c r="C762" s="45"/>
+      <c r="C762" s="46"/>
       <c r="D762" s="6"/>
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="6"/>
       <c r="B763" s="36"/>
-      <c r="C763" s="45"/>
+      <c r="C763" s="46"/>
       <c r="D763" s="6"/>
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="6"/>
       <c r="B764" s="36"/>
-      <c r="C764" s="45"/>
+      <c r="C764" s="46"/>
       <c r="D764" s="6"/>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="6"/>
       <c r="B765" s="36"/>
-      <c r="C765" s="45"/>
+      <c r="C765" s="46"/>
       <c r="D765" s="6"/>
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="6"/>
       <c r="B766" s="36"/>
-      <c r="C766" s="45"/>
+      <c r="C766" s="46"/>
       <c r="D766" s="6"/>
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="6"/>
       <c r="B767" s="36"/>
-      <c r="C767" s="45"/>
+      <c r="C767" s="46"/>
       <c r="D767" s="6"/>
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="6"/>
       <c r="B768" s="36"/>
-      <c r="C768" s="45"/>
+      <c r="C768" s="46"/>
       <c r="D768" s="6"/>
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="6"/>
       <c r="B769" s="36"/>
-      <c r="C769" s="45"/>
+      <c r="C769" s="46"/>
       <c r="D769" s="6"/>
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="6"/>
       <c r="B770" s="36"/>
-      <c r="C770" s="45"/>
+      <c r="C770" s="46"/>
       <c r="D770" s="6"/>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="6"/>
       <c r="B771" s="36"/>
-      <c r="C771" s="45"/>
+      <c r="C771" s="46"/>
       <c r="D771" s="6"/>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="6"/>
       <c r="B772" s="36"/>
-      <c r="C772" s="45"/>
+      <c r="C772" s="46"/>
       <c r="D772" s="6"/>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="6"/>
       <c r="B773" s="36"/>
-      <c r="C773" s="45"/>
+      <c r="C773" s="46"/>
       <c r="D773" s="6"/>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="6"/>
       <c r="B774" s="36"/>
-      <c r="C774" s="45"/>
+      <c r="C774" s="46"/>
       <c r="D774" s="6"/>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="6"/>
       <c r="B775" s="36"/>
-      <c r="C775" s="45"/>
+      <c r="C775" s="46"/>
       <c r="D775" s="6"/>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="6"/>
       <c r="B776" s="36"/>
-      <c r="C776" s="45"/>
+      <c r="C776" s="46"/>
       <c r="D776" s="6"/>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="6"/>
       <c r="B777" s="36"/>
-      <c r="C777" s="45"/>
+      <c r="C777" s="46"/>
       <c r="D777" s="6"/>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="6"/>
       <c r="B778" s="36"/>
-      <c r="C778" s="45"/>
+      <c r="C778" s="46"/>
       <c r="D778" s="6"/>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="6"/>
       <c r="B779" s="36"/>
-      <c r="C779" s="45"/>
+      <c r="C779" s="46"/>
       <c r="D779" s="6"/>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="6"/>
       <c r="B780" s="36"/>
-      <c r="C780" s="45"/>
+      <c r="C780" s="46"/>
       <c r="D780" s="6"/>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="6"/>
       <c r="B781" s="36"/>
-      <c r="C781" s="45"/>
+      <c r="C781" s="46"/>
       <c r="D781" s="6"/>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="6"/>
       <c r="B782" s="36"/>
-      <c r="C782" s="45"/>
+      <c r="C782" s="46"/>
       <c r="D782" s="6"/>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="6"/>
       <c r="B783" s="36"/>
-      <c r="C783" s="45"/>
+      <c r="C783" s="46"/>
       <c r="D783" s="6"/>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="6"/>
       <c r="B784" s="36"/>
-      <c r="C784" s="45"/>
+      <c r="C784" s="46"/>
       <c r="D784" s="6"/>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="6"/>
       <c r="B785" s="36"/>
-      <c r="C785" s="45"/>
+      <c r="C785" s="46"/>
       <c r="D785" s="6"/>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="6"/>
       <c r="B786" s="36"/>
-      <c r="C786" s="45"/>
+      <c r="C786" s="46"/>
       <c r="D786" s="6"/>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="6"/>
       <c r="B787" s="36"/>
-      <c r="C787" s="45"/>
+      <c r="C787" s="46"/>
       <c r="D787" s="6"/>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="6"/>
       <c r="B788" s="36"/>
-      <c r="C788" s="45"/>
+      <c r="C788" s="46"/>
       <c r="D788" s="6"/>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="6"/>
       <c r="B789" s="36"/>
-      <c r="C789" s="45"/>
+      <c r="C789" s="46"/>
       <c r="D789" s="6"/>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="6"/>
       <c r="B790" s="36"/>
-      <c r="C790" s="45"/>
+      <c r="C790" s="46"/>
       <c r="D790" s="6"/>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="6"/>
       <c r="B791" s="36"/>
-      <c r="C791" s="45"/>
+      <c r="C791" s="46"/>
       <c r="D791" s="6"/>
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="6"/>
       <c r="B792" s="36"/>
-      <c r="C792" s="45"/>
+      <c r="C792" s="46"/>
       <c r="D792" s="6"/>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="6"/>
       <c r="B793" s="36"/>
-      <c r="C793" s="45"/>
+      <c r="C793" s="46"/>
       <c r="D793" s="6"/>
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="6"/>
       <c r="B794" s="36"/>
-      <c r="C794" s="45"/>
+      <c r="C794" s="46"/>
       <c r="D794" s="6"/>
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="6"/>
       <c r="B795" s="36"/>
-      <c r="C795" s="45"/>
+      <c r="C795" s="46"/>
       <c r="D795" s="6"/>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="6"/>
       <c r="B796" s="36"/>
-      <c r="C796" s="45"/>
+      <c r="C796" s="46"/>
       <c r="D796" s="6"/>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="6"/>
       <c r="B797" s="36"/>
-      <c r="C797" s="45"/>
+      <c r="C797" s="46"/>
       <c r="D797" s="6"/>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="6"/>
       <c r="B798" s="36"/>
-      <c r="C798" s="45"/>
+      <c r="C798" s="46"/>
       <c r="D798" s="6"/>
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="6"/>
       <c r="B799" s="36"/>
-      <c r="C799" s="45"/>
+      <c r="C799" s="46"/>
       <c r="D799" s="6"/>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="6"/>
       <c r="B800" s="36"/>
-      <c r="C800" s="45"/>
+      <c r="C800" s="46"/>
       <c r="D800" s="6"/>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="6"/>
       <c r="B801" s="36"/>
-      <c r="C801" s="45"/>
+      <c r="C801" s="46"/>
       <c r="D801" s="6"/>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="6"/>
       <c r="B802" s="36"/>
-      <c r="C802" s="45"/>
+      <c r="C802" s="46"/>
       <c r="D802" s="6"/>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="6"/>
       <c r="B803" s="36"/>
-      <c r="C803" s="45"/>
+      <c r="C803" s="46"/>
       <c r="D803" s="6"/>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="6"/>
       <c r="B804" s="36"/>
-      <c r="C804" s="45"/>
+      <c r="C804" s="46"/>
       <c r="D804" s="6"/>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="6"/>
       <c r="B805" s="36"/>
-      <c r="C805" s="45"/>
+      <c r="C805" s="46"/>
       <c r="D805" s="6"/>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="6"/>
       <c r="B806" s="36"/>
-      <c r="C806" s="45"/>
+      <c r="C806" s="46"/>
       <c r="D806" s="6"/>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="6"/>
       <c r="B807" s="36"/>
-      <c r="C807" s="45"/>
+      <c r="C807" s="46"/>
       <c r="D807" s="6"/>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="6"/>
       <c r="B808" s="36"/>
-      <c r="C808" s="45"/>
+      <c r="C808" s="46"/>
       <c r="D808" s="6"/>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="6"/>
       <c r="B809" s="36"/>
-      <c r="C809" s="45"/>
+      <c r="C809" s="46"/>
       <c r="D809" s="6"/>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="6"/>
       <c r="B810" s="36"/>
-      <c r="C810" s="45"/>
+      <c r="C810" s="46"/>
       <c r="D810" s="6"/>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="6"/>
       <c r="B811" s="36"/>
-      <c r="C811" s="45"/>
+      <c r="C811" s="46"/>
       <c r="D811" s="6"/>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="6"/>
       <c r="B812" s="36"/>
-      <c r="C812" s="45"/>
+      <c r="C812" s="46"/>
       <c r="D812" s="6"/>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="6"/>
       <c r="B813" s="36"/>
-      <c r="C813" s="45"/>
+      <c r="C813" s="46"/>
       <c r="D813" s="6"/>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="6"/>
       <c r="B814" s="36"/>
-      <c r="C814" s="45"/>
+      <c r="C814" s="46"/>
       <c r="D814" s="6"/>
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="6"/>
       <c r="B815" s="36"/>
-      <c r="C815" s="45"/>
+      <c r="C815" s="46"/>
       <c r="D815" s="6"/>
     </row>
   </sheetData>
